--- a/docs/overview.xlsx
+++ b/docs/overview.xlsx
@@ -66,10 +66,7 @@
     <t>patient</t>
   </si>
   <si>
-    <t>dpso_value</t>
-  </si>
-  <si>
-    <t>dpso_type</t>
+    <t>dpso</t>
   </si>
   <si>
     <r>
@@ -112,9 +109,6 @@
     <t>Neph_X1</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
     <t xml:space="preserve">COVID-19 ARDS</t>
   </si>
   <si>
@@ -130,7 +124,7 @@
     <t>C19-CB-0062</t>
   </si>
   <si>
-    <t>Initial</t>
+    <t>A</t>
   </si>
   <si>
     <t>BAL_3-6</t>
@@ -190,6 +184,9 @@
     <t>C19-CB-0198</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>200701_A00643_0061_AHMNCCDRXX</t>
   </si>
   <si>
@@ -241,7 +238,7 @@
     <t>C19-CB-0660</t>
   </si>
   <si>
-    <t>Second</t>
+    <t>B</t>
   </si>
   <si>
     <t>210215_A00643_0181_BHVFHHDSXY</t>
@@ -317,6 +314,9 @@
   </si>
   <si>
     <t>Recovery</t>
+  </si>
+  <si>
+    <t>221014_A00643_0567_AHYMN3DSX3</t>
   </si>
   <si>
     <t>C19-CB-0914</t>
@@ -529,7 +529,7 @@
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="3" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
@@ -540,6 +540,8 @@
     <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -547,6 +549,7 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1">
       <protection hidden="0" locked="1"/>
@@ -1061,7 +1064,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1074,11 +1077,12 @@
     <col customWidth="1" min="5" max="5" width="11.57421875"/>
     <col customWidth="1" min="6" max="6" width="14.140625"/>
     <col customWidth="1" min="7" max="7" width="11.00390625"/>
-    <col customWidth="1" min="8" max="8" width="10.57421875"/>
-    <col customWidth="1" min="9" max="10" width="17.8515625"/>
-    <col customWidth="1" min="11" max="11" width="38.28125"/>
-    <col customWidth="1" min="14" max="14" width="15.421875"/>
-    <col customWidth="1" min="15" max="15" width="4.28125"/>
+    <col customWidth="1" min="8" max="9" width="17.8515625"/>
+    <col customWidth="1" min="10" max="10" width="38.28125"/>
+    <col bestFit="1" min="11" max="11" width="10.421875"/>
+    <col bestFit="1" min="12" max="12" width="9.421875"/>
+    <col customWidth="1" min="13" max="13" width="15.421875"/>
+    <col customWidth="1" min="14" max="14" width="4.28125"/>
   </cols>
   <sheetData>
     <row r="1" ht="15">
@@ -1103,7 +1107,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1112,1406 +1116,1472 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="3">
         <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3">
         <v>14</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="G4" s="5">
         <v>7</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" s="5">
         <v>14</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="5">
         <v>25</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5">
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" s="5">
         <v>7</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="G8" s="7">
+        <v>25</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="6">
-        <v>25</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="6">
-        <v>10</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="6" t="s">
+      <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="G9" s="7">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="A10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="J10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="10">
+      <c r="A14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12">
         <v>13</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="G14" s="12">
+        <v>34</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="10">
-        <v>34</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="10">
+      <c r="A15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="12">
         <v>14</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="10">
+      <c r="C15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="12">
         <v>116</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="H15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="10">
+      <c r="A16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="12">
         <v>15</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="C16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="I16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="10">
+      <c r="A17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="12">
         <v>16</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="C17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="I17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="10">
+      <c r="A18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="12">
         <v>17</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="C18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="10">
+      <c r="G18" s="12">
         <v>6</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="H18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="1"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="11">
+      <c r="A20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="13">
         <v>19</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="G20" s="13">
+        <v>15</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="11">
-        <v>15</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="11">
+      <c r="A21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="13">
         <v>20</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="C21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="11">
+      <c r="A22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="13">
         <v>21</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="C22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="G22" s="13">
+        <v>39</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="13">
+        <v>22</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="11">
-        <v>39</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="A23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="11">
-        <v>22</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="11" t="s">
+      <c r="F23" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="G23" s="13">
+        <v>23</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="13">
+        <v>23</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="11">
-        <v>23</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="A24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="11">
-        <v>23</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="G24" s="13">
+        <v>43</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="13">
+        <v>24</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="11">
-        <v>43</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="11" t="s">
+      <c r="F25" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="13">
+        <v>28</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="A25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="11">
-        <v>24</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="11" t="s">
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="13">
+        <v>25</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="11">
+      <c r="F26" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="13">
+        <v>54</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="13">
+        <v>26</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="13">
+        <v>53</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="13">
+        <v>27</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="13">
+        <v>54</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="13">
         <v>28</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="A26" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="11">
-        <v>25</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="11">
-        <v>54</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26" s="11" t="s">
+      <c r="C29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="A27" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="11">
-        <v>26</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="11">
-        <v>53</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="A28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="11">
-        <v>27</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="11">
-        <v>54</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="11">
-        <v>28</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" s="1">
         <v>65</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J30" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="I30" s="1"/>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G31" s="12">
+        <v>11</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="15">
         <v>59</v>
       </c>
-      <c r="H31" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="K31"/>
+      <c r="L31"/>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="I32" t="s">
         <v>83</v>
       </c>
       <c r="J32" t="s">
         <v>84</v>
       </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>12</v>
+      <c r="C33" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="I33" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" t="s">
         <v>84</v>
       </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>12</v>
+      <c r="C34" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="I34" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J34" t="s">
         <v>84</v>
       </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35">
         <v>34</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>12</v>
+      <c r="C35" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="I35" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J35" t="s">
         <v>84</v>
       </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36">
         <v>35</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>12</v>
+      <c r="C36" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="I36" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J36" t="s">
         <v>84</v>
       </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>36</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>12</v>
+      <c r="C37" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="I37" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" t="s">
         <v>84</v>
       </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <v>37</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>12</v>
+      <c r="C38" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="I38" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J38" t="s">
         <v>84</v>
       </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>38</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>12</v>
+      <c r="C39" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="I39" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J39" t="s">
         <v>84</v>
       </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40">
         <v>39</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>12</v>
+      <c r="C40" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="I40" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40" t="s">
         <v>84</v>
       </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41">
         <v>40</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>12</v>
+      <c r="C41" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J41" s="9" t="s">
+      <c r="I41" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" t="s">
         <v>84</v>
       </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42">
         <v>41</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>12</v>
+      <c r="C42" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J42" s="9" t="s">
+      <c r="I42" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J42" t="s">
         <v>84</v>
       </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43">
         <v>42</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>12</v>
+      <c r="C43" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J43" s="9" t="s">
+      <c r="I43" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J43" t="s">
         <v>84</v>
       </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44">
         <v>43</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>12</v>
+      <c r="C44" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J44" s="9" t="s">
+      <c r="I44" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J44" t="s">
         <v>84</v>
       </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45">
         <v>44</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>12</v>
+      <c r="C45" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="I45" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J45" t="s">
         <v>84</v>
       </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46">
         <v>45</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>12</v>
+      <c r="C46" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J46" s="9" t="s">
+      <c r="I46" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J46" t="s">
         <v>84</v>
       </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47">
         <v>46</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>12</v>
+      <c r="C47" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="I47" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J47" t="s">
         <v>84</v>
       </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48">
         <v>47</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>12</v>
+      <c r="C48" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J48" s="9" t="s">
+      <c r="I48" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J48" t="s">
         <v>84</v>
       </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>12</v>
+      <c r="C49" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J49" s="9" t="s">
+      <c r="I49" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J49" t="s">
         <v>84</v>
       </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
     </row>
     <row r="50" ht="14.25">
       <c r="A50" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50">
         <v>49</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>12</v>
+      <c r="C50" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J50" s="9" t="s">
+      <c r="I50" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J50" t="s">
         <v>84</v>
       </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51">
         <v>50</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>12</v>
+      <c r="C51" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J51" s="9" t="s">
+      <c r="I51" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J51" t="s">
         <v>84</v>
       </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52">
         <v>51</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>12</v>
+      <c r="C52" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J52" s="9" t="s">
+      <c r="I52" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J52" t="s">
         <v>84</v>
       </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
     </row>
     <row r="53" ht="14.25">
       <c r="A53" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53">
         <v>52</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>12</v>
+      <c r="C53" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J53" s="9" t="s">
+      <c r="I53" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J53" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="54" ht="14.25"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="K54"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="K55"/>
+      <c r="L55"/>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -2551,7 +2621,7 @@
         <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>97</v>
@@ -2565,7 +2635,7 @@
         <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>100</v>
@@ -2579,7 +2649,7 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -2593,7 +2663,7 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>100</v>
@@ -2607,7 +2677,7 @@
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>106</v>
@@ -2621,7 +2691,7 @@
         <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>108</v>
@@ -2635,7 +2705,7 @@
         <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>106</v>
@@ -2649,7 +2719,7 @@
         <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>111</v>
@@ -2660,7 +2730,7 @@
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>112</v>
@@ -2671,7 +2741,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
         <v>106</v>
@@ -2682,7 +2752,7 @@
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
         <v>108</v>
@@ -2696,7 +2766,7 @@
         <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
         <v>106</v>
@@ -2707,7 +2777,7 @@
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
         <v>97</v>
@@ -2718,7 +2788,7 @@
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
         <v>106</v>
@@ -2732,7 +2802,7 @@
         <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
         <v>106</v>
@@ -2743,7 +2813,7 @@
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
         <v>106</v>
@@ -2754,7 +2824,7 @@
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
         <v>101</v>
@@ -2765,7 +2835,7 @@
         <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19">
         <v>35</v>
@@ -2779,7 +2849,7 @@
         <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
         <v>112</v>
@@ -2790,7 +2860,7 @@
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
         <v>106</v>
@@ -2801,7 +2871,7 @@
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
         <v>111</v>
@@ -2813,7 +2883,7 @@
     <row r="23" ht="14.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" ht="14.25">

--- a/docs/overview.xlsx
+++ b/docs/overview.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="libraries" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
   <si>
     <t>libname</t>
   </si>
@@ -530,10 +530,10 @@
     <t>disease</t>
   </si>
   <si>
-    <t>disease_severity</t>
-  </si>
-  <si>
-    <t>disease_severity_who</t>
+    <t>who_scale</t>
+  </si>
+  <si>
+    <t>severity</t>
   </si>
   <si>
     <t>date</t>
@@ -599,7 +599,7 @@
     <t>Neph_X1</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19 ARDS</t>
+    <t>COVID-19</t>
   </si>
   <si>
     <t>C19-CB-0062</t>
@@ -641,7 +641,7 @@
     <t>X1</t>
   </si>
   <si>
-    <t xml:space="preserve">Post-Covid BAL</t>
+    <t xml:space="preserve">Post COVID-19</t>
   </si>
   <si>
     <t>X2</t>
@@ -659,7 +659,7 @@
     <t>X3</t>
   </si>
   <si>
-    <t>non_covid_fibrosis</t>
+    <t>Fibroelastose?</t>
   </si>
   <si>
     <t>C19-CB-0698</t>
@@ -677,9 +677,6 @@
     <t>C19-CB-0474</t>
   </si>
   <si>
-    <t>post</t>
-  </si>
-  <si>
     <t>C19-CB-0694</t>
   </si>
   <si>
@@ -689,10 +686,10 @@
     <t>X4</t>
   </si>
   <si>
-    <t>X5</t>
-  </si>
-  <si>
-    <t>C19-CB-0589</t>
+    <t>C19-CB-0774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID-19 + Alveolarproteinose</t>
   </si>
   <si>
     <t>bal_01</t>
@@ -869,54 +866,33 @@
     <t>endpoint_date</t>
   </si>
   <si>
-    <t>50-55</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
     <t>B16</t>
   </si>
   <si>
-    <t>70-75</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
     <t>B14</t>
   </si>
   <si>
-    <t>55-60</t>
-  </si>
-  <si>
     <t>B23</t>
   </si>
   <si>
     <t>B29</t>
   </si>
   <si>
-    <t>60-65</t>
-  </si>
-  <si>
     <t>B20</t>
   </si>
   <si>
-    <t>20-25</t>
-  </si>
-  <si>
     <t>B31</t>
   </si>
   <si>
     <t>B28</t>
   </si>
   <si>
-    <t>75-80</t>
-  </si>
-  <si>
-    <t>65-70</t>
-  </si>
-  <si>
     <t>B41</t>
   </si>
   <si>
@@ -974,10 +950,10 @@
     <t xml:space="preserve">BAL </t>
   </si>
   <si>
-    <t>lung-mech</t>
-  </si>
-  <si>
-    <t>BE</t>
+    <t>Lungenmechanik</t>
+  </si>
+  <si>
+    <t>Blutentnahme</t>
   </si>
   <si>
     <t>VOR_Einschluss</t>
@@ -1134,7 +1110,7 @@
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="3" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
@@ -1165,10 +1141,18 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
@@ -1184,6 +1168,7 @@
     <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1193,23 +1178,17 @@
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1">
+    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="1" applyFill="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="1" fillId="10" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="1" fillId="11" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1222,6 +1201,9 @@
     </xf>
     <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -2830,8 +2812,12 @@
       <c r="H35" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="18"/>
+      <c r="I35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -2861,8 +2847,12 @@
       <c r="H36" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="18"/>
+      <c r="I36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -2890,7 +2880,9 @@
       <c r="H37" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I37" s="2"/>
+      <c r="I37" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="J37" s="18"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -2921,8 +2913,12 @@
       <c r="H38" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="18"/>
+      <c r="I38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -2952,8 +2948,12 @@
       <c r="H39" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="18"/>
+      <c r="I39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -2971,17 +2971,19 @@
       <c r="D40" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="F40" s="22"/>
+      <c r="F40" s="23"/>
       <c r="G40" s="20" t="s">
         <v>15</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I40" s="2"/>
+      <c r="I40" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="J40" s="18"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -3000,20 +3002,24 @@
       <c r="D41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="G41" s="22" t="s">
+      <c r="G41" s="23" t="s">
         <v>15</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="18"/>
+      <c r="I41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -3031,17 +3037,19 @@
       <c r="D42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22" t="s">
+      <c r="F42" s="23"/>
+      <c r="G42" s="23" t="s">
         <v>15</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I42" s="2"/>
+      <c r="I42" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="J42" s="18"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -3060,17 +3068,19 @@
       <c r="D43" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22" t="s">
+      <c r="F43" s="23"/>
+      <c r="G43" s="23" t="s">
         <v>154</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I43" s="2"/>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="J43" s="18"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -3111,8 +3121,9 @@
     <col customWidth="1" min="5" max="5" width="11.57421875"/>
     <col customWidth="1" min="6" max="6" width="14.140625"/>
     <col customWidth="1" min="7" max="7" width="11.00390625"/>
-    <col customWidth="1" min="8" max="9" width="19.8515625"/>
-    <col customWidth="1" min="10" max="10" width="21.8515625"/>
+    <col customWidth="1" min="8" max="8" width="27.8515625"/>
+    <col customWidth="1" min="9" max="9" width="10.8515625"/>
+    <col customWidth="1" min="10" max="10" width="8.57421875"/>
     <col customWidth="1" min="11" max="11" width="7.421875"/>
     <col bestFit="1" min="12" max="12" width="10.421875"/>
     <col bestFit="1" min="13" max="13" width="9.421875"/>
@@ -3151,22 +3162,22 @@
       <c r="E1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="25" t="s">
         <v>157</v>
       </c>
       <c r="G1" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="26" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -3226,7 +3237,7 @@
       <c r="AD1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AE1" s="25"/>
+      <c r="AE1" s="27"/>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="4" t="s">
@@ -3251,10 +3262,13 @@
       <c r="H2" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27" t="b">
-        <v>0</v>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="30">
+        <v>43927</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -3283,14 +3297,17 @@
       <c r="H3" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="28">
         <v>7</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="K3" s="29" t="b">
-        <v>0</v>
+      <c r="K3" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="30">
+        <v>43930</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -3319,14 +3336,17 @@
       <c r="H4" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="33">
         <v>8</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="K4" s="31" t="b">
-        <v>0</v>
+      <c r="K4" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="30">
+        <v>43936</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -3355,14 +3375,17 @@
       <c r="H5" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="33">
         <v>8</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="K5" s="31" t="b">
-        <v>0</v>
+      <c r="K5" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="30">
+        <v>43937</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -3391,14 +3414,17 @@
       <c r="H6" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="33">
         <v>7</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="K6" s="31" t="b">
-        <v>0</v>
+      <c r="K6" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="30">
+        <v>43938</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -3427,14 +3453,17 @@
       <c r="H7" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="33">
         <v>7</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="K7" s="31" t="b">
-        <v>0</v>
+      <c r="K7" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="30">
+        <v>43941</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="2"/>
@@ -3464,14 +3493,17 @@
       <c r="H8" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="35">
         <v>7</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="K8" s="32" t="b">
-        <v>0</v>
+      <c r="K8" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="30">
+        <v>43950</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="2"/>
@@ -3501,14 +3533,17 @@
       <c r="H9" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="35">
         <v>7</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="K9" s="32" t="b">
-        <v>0</v>
+      <c r="K9" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="30">
+        <v>43951</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
@@ -3529,19 +3564,26 @@
       <c r="E10" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="35">
+      <c r="G10" s="10">
+        <v>12</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" s="38">
         <v>7</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="K10" s="35" t="b">
-        <v>0</v>
+      <c r="K10" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="30">
+        <v>43991</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="2"/>
@@ -3571,10 +3613,13 @@
       <c r="H11" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37" t="b">
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40" t="b">
         <v>1</v>
+      </c>
+      <c r="L11" s="30">
+        <v>44165</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="2"/>
@@ -3604,10 +3649,13 @@
       <c r="H12" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37" t="b">
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40" t="b">
         <v>1</v>
+      </c>
+      <c r="L12" s="30">
+        <v>44165</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="2"/>
@@ -3631,14 +3679,19 @@
       <c r="F13" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="G13" s="12"/>
+      <c r="G13" s="12">
+        <v>226</v>
+      </c>
       <c r="H13" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37" t="b">
-        <v>0</v>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="30">
+        <v>44173</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
@@ -3666,10 +3719,15 @@
       <c r="H14" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37" t="b">
-        <v>0</v>
+      <c r="I14" s="40">
+        <v>0</v>
+      </c>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="30">
+        <v>44173</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="2"/>
@@ -3699,10 +3757,13 @@
       <c r="H15" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37" t="b">
-        <v>0</v>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="30">
+        <v>44175</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
@@ -3710,7 +3771,9 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14" t="s">
         <v>13</v>
@@ -3730,10 +3793,13 @@
       <c r="H16" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38" t="b">
-        <v>0</v>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="30">
+        <v>44181</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="2"/>
@@ -3741,7 +3807,9 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
         <v>13</v>
@@ -3756,13 +3824,18 @@
         <v>202</v>
       </c>
       <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38" t="b">
-        <v>0</v>
+      <c r="I17" s="41">
+        <v>0</v>
+      </c>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="30">
+        <v>44182</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="2"/>
@@ -3770,7 +3843,9 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="42" t="s">
+        <v>70</v>
+      </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14" t="s">
         <v>13</v>
@@ -3787,20 +3862,25 @@
       <c r="G18" s="14">
         <v>39</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38" t="b">
-        <v>0</v>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="30">
+        <v>44216</v>
       </c>
       <c r="M18" s="1"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="39"/>
+      <c r="A19" s="42" t="s">
+        <v>73</v>
+      </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14" t="s">
         <v>13</v>
@@ -3817,18 +3897,23 @@
       <c r="G19" s="14">
         <v>23</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38" t="b">
-        <v>0</v>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="30">
+        <v>44216</v>
       </c>
       <c r="M19" s="1"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="42" t="s">
+        <v>76</v>
+      </c>
       <c r="B20" s="14"/>
       <c r="C20" s="14" t="s">
         <v>13</v>
@@ -3848,15 +3933,20 @@
       <c r="H20" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38" t="b">
-        <v>0</v>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="30">
+        <v>44217</v>
       </c>
       <c r="M20" s="1"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="39"/>
+      <c r="A21" s="42" t="s">
+        <v>79</v>
+      </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14" t="s">
         <v>13</v>
@@ -3876,15 +3966,20 @@
       <c r="H21" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38" t="b">
-        <v>0</v>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="30">
+        <v>44217</v>
       </c>
       <c r="M21" s="1"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="42" t="s">
+        <v>82</v>
+      </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14" t="s">
         <v>13</v>
@@ -3902,17 +3997,22 @@
         <v>54</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38" t="b">
-        <v>0</v>
+        <v>183</v>
+      </c>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="30">
+        <v>44218</v>
       </c>
       <c r="M22" s="1"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="39"/>
+      <c r="A23" s="42" t="s">
+        <v>85</v>
+      </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14" t="s">
         <v>13</v>
@@ -3924,7 +4024,7 @@
         <v>181</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G23" s="14">
         <v>53</v>
@@ -3932,15 +4032,20 @@
       <c r="H23" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38" t="b">
-        <v>0</v>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="30">
+        <v>44218</v>
       </c>
       <c r="M23" s="1"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="42" t="s">
+        <v>88</v>
+      </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14" t="s">
         <v>13</v>
@@ -3952,7 +4057,7 @@
         <v>181</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G24" s="14">
         <v>54</v>
@@ -3960,15 +4065,20 @@
       <c r="H24" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38" t="b">
-        <v>0</v>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="30">
+        <v>44218</v>
       </c>
       <c r="M24" s="1"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="42" t="s">
+        <v>91</v>
+      </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14" t="s">
         <v>13</v>
@@ -3980,97 +4090,213 @@
         <v>181</v>
       </c>
       <c r="F25" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" s="14">
+        <v>65</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="30">
+        <v>44230</v>
+      </c>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" s="0" customFormat="1" ht="14.25">
+      <c r="A26" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="G26" s="45"/>
+      <c r="H26" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="30">
+        <v>48155</v>
+      </c>
+      <c r="M26"/>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="G26" s="40">
-        <v>65</v>
-      </c>
-      <c r="H26" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="14" t="s">
+      <c r="F27" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="47">
+        <v>44573</v>
+      </c>
+      <c r="M27" s="48">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+      <c r="O27" s="2">
+        <v>80</v>
+      </c>
+      <c r="P27" s="2">
+        <v>44</v>
+      </c>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="S27" s="2">
+        <v>3</v>
+      </c>
+      <c r="T27" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U27" s="2">
+        <v>2</v>
+      </c>
+      <c r="V27" s="2">
+        <v>1</v>
+      </c>
+      <c r="W27" s="2">
+        <v>5</v>
+      </c>
+      <c r="X27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE27" s="27"/>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="F27" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="G27" s="42">
+      <c r="F28" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="47">
+        <v>44574</v>
+      </c>
+      <c r="M28" s="48">
+        <v>0.59375</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+      <c r="O28" s="2">
+        <v>80</v>
+      </c>
+      <c r="P28" s="2">
         <v>59</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" s="0" customFormat="1" ht="14.25">
-      <c r="A28" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="M28"/>
+      <c r="Q28" s="2">
+        <v>51</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="S28" s="2">
+        <v>4</v>
+      </c>
+      <c r="T28" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="U28" s="2">
+        <v>2</v>
+      </c>
+      <c r="V28" s="2">
+        <v>2</v>
+      </c>
+      <c r="W28" s="2">
+        <v>5</v>
+      </c>
+      <c r="X28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE28" s="27"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="7" t="s">
-        <v>97</v>
+      <c r="A29" s="49" t="s">
+        <v>105</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>13</v>
@@ -4078,24 +4304,24 @@
       <c r="D29" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="F29" s="22" t="s">
-        <v>216</v>
+      <c r="F29" s="23" t="s">
+        <v>221</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="46">
-        <v>44573</v>
-      </c>
-      <c r="M29" s="47">
-        <v>0.54166666666666696</v>
+      <c r="K29" s="7"/>
+      <c r="L29" s="47">
+        <v>44575</v>
+      </c>
+      <c r="M29" s="48">
+        <v>0.70833333333333304</v>
       </c>
       <c r="N29" s="2">
         <v>1</v>
@@ -4104,11 +4330,11 @@
         <v>80</v>
       </c>
       <c r="P29" s="2">
-        <v>44</v>
-      </c>
-      <c r="Q29" s="25"/>
+        <v>49</v>
+      </c>
+      <c r="Q29" s="27"/>
       <c r="R29" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S29" s="2">
         <v>3</v>
@@ -4129,25 +4355,25 @@
         <v>0</v>
       </c>
       <c r="Y29" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z29" s="2">
         <v>3</v>
       </c>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="25"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
       <c r="AD29" s="2">
         <v>2</v>
       </c>
-      <c r="AE29" s="25"/>
+      <c r="AE29" s="27"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="7" t="s">
-        <v>102</v>
+      <c r="A30" s="49" t="s">
+        <v>108</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>13</v>
@@ -4155,24 +4381,24 @@
       <c r="D30" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="F30" s="22" t="s">
-        <v>220</v>
+      <c r="F30" s="23" t="s">
+        <v>223</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="46">
-        <v>44574</v>
-      </c>
-      <c r="M30" s="47">
-        <v>0.59375</v>
+      <c r="L30" s="47">
+        <v>44581</v>
+      </c>
+      <c r="M30" s="48">
+        <v>0.60416666666666696</v>
       </c>
       <c r="N30" s="2">
         <v>1</v>
@@ -4183,23 +4409,21 @@
       <c r="P30" s="2">
         <v>59</v>
       </c>
-      <c r="Q30" s="2">
-        <v>51</v>
-      </c>
+      <c r="Q30" s="27"/>
       <c r="R30" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S30" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T30" s="2">
-        <v>3.5</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="U30" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V30" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W30" s="2">
         <v>5</v>
@@ -4208,25 +4432,25 @@
         <v>0</v>
       </c>
       <c r="Y30" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z30" s="2">
         <v>2</v>
       </c>
-      <c r="Z30" s="2">
-        <v>3</v>
-      </c>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="25"/>
-      <c r="AC30" s="25"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
       <c r="AD30" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE30" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="AE30" s="27"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="48" t="s">
-        <v>105</v>
+      <c r="A31" s="49" t="s">
+        <v>111</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>13</v>
@@ -4234,24 +4458,24 @@
       <c r="D31" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="F31" s="22" t="s">
-        <v>222</v>
+      <c r="F31" s="23" t="s">
+        <v>225</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="46">
-        <v>44575</v>
-      </c>
-      <c r="M31" s="47">
-        <v>0.70833333333333304</v>
+      <c r="L31" s="47">
+        <v>44587</v>
+      </c>
+      <c r="M31" s="48">
+        <v>0.47916666666666702</v>
       </c>
       <c r="N31" s="2">
         <v>1</v>
@@ -4260,50 +4484,42 @@
         <v>80</v>
       </c>
       <c r="P31" s="2">
-        <v>49</v>
-      </c>
-      <c r="Q31" s="25"/>
+        <v>39</v>
+      </c>
+      <c r="Q31" s="27"/>
       <c r="R31" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S31" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T31" s="2">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U31" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V31" s="2">
-        <v>1</v>
-      </c>
-      <c r="W31" s="2">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W31" s="27"/>
       <c r="X31" s="2">
         <v>0</v>
       </c>
-      <c r="Y31" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z31" s="2">
-        <v>3</v>
-      </c>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="25"/>
-      <c r="AC31" s="25"/>
-      <c r="AD31" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE31" s="25"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="48" t="s">
-        <v>108</v>
+      <c r="A32" s="49" t="s">
+        <v>114</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>13</v>
@@ -4311,43 +4527,43 @@
       <c r="D32" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="F32" s="22" t="s">
-        <v>224</v>
+      <c r="F32" s="23" t="s">
+        <v>215</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="46">
-        <v>44581</v>
-      </c>
-      <c r="M32" s="47">
-        <v>0.60416666666666696</v>
+      <c r="L32" s="47">
+        <v>44587</v>
+      </c>
+      <c r="M32" s="48">
+        <v>0.52083333333333304</v>
       </c>
       <c r="N32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O32" s="2">
         <v>80</v>
       </c>
       <c r="P32" s="2">
-        <v>59</v>
-      </c>
-      <c r="Q32" s="25"/>
+        <v>58</v>
+      </c>
+      <c r="Q32" s="27"/>
       <c r="R32" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S32" s="2">
         <v>1</v>
       </c>
       <c r="T32" s="2">
-        <v>0.23499999999999999</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
@@ -4355,32 +4571,24 @@
       <c r="V32" s="2">
         <v>0</v>
       </c>
-      <c r="W32" s="2">
-        <v>5</v>
-      </c>
+      <c r="W32" s="27"/>
       <c r="X32" s="2">
         <v>0</v>
       </c>
-      <c r="Y32" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z32" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="25"/>
-      <c r="AD32" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE32" s="25"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="48" t="s">
-        <v>111</v>
+      <c r="A33" s="49" t="s">
+        <v>227</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>13</v>
@@ -4388,43 +4596,43 @@
       <c r="D33" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="F33" s="22" t="s">
-        <v>226</v>
+      <c r="F33" s="23" t="s">
+        <v>219</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="46">
-        <v>44587</v>
-      </c>
-      <c r="M33" s="47">
+      <c r="L33" s="47">
+        <v>44589</v>
+      </c>
+      <c r="M33" s="48">
         <v>0.47916666666666702</v>
       </c>
       <c r="N33" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O33" s="2">
         <v>80</v>
       </c>
       <c r="P33" s="2">
-        <v>39</v>
-      </c>
-      <c r="Q33" s="25"/>
+        <v>58</v>
+      </c>
+      <c r="Q33" s="27"/>
       <c r="R33" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S33" s="2">
         <v>1</v>
       </c>
       <c r="T33" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
@@ -4432,24 +4640,32 @@
       <c r="V33" s="2">
         <v>0</v>
       </c>
-      <c r="W33" s="25"/>
+      <c r="W33" s="2">
+        <v>5</v>
+      </c>
       <c r="X33" s="2">
         <v>0</v>
       </c>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="25"/>
-      <c r="AD33" s="25"/>
-      <c r="AE33" s="25"/>
+      <c r="Y33" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="27"/>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="48" t="s">
-        <v>114</v>
+      <c r="A34" s="49" t="s">
+        <v>229</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>13</v>
@@ -4457,24 +4673,24 @@
       <c r="D34" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="F34" s="22" t="s">
-        <v>216</v>
+      <c r="F34" s="23" t="s">
+        <v>223</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="46">
-        <v>44587</v>
-      </c>
-      <c r="M34" s="47">
-        <v>0.52083333333333304</v>
+      <c r="L34" s="47">
+        <v>44595</v>
+      </c>
+      <c r="M34" s="48">
+        <v>0.55208333333333304</v>
       </c>
       <c r="N34" s="2">
         <v>2</v>
@@ -4483,17 +4699,17 @@
         <v>80</v>
       </c>
       <c r="P34" s="2">
-        <v>58</v>
-      </c>
-      <c r="Q34" s="25"/>
+        <v>32</v>
+      </c>
+      <c r="Q34" s="27"/>
       <c r="R34" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S34" s="2">
         <v>1</v>
       </c>
       <c r="T34" s="2">
-        <v>2.1000000000000001</v>
+        <v>0.083000000000000004</v>
       </c>
       <c r="U34" s="2">
         <v>0</v>
@@ -4501,24 +4717,30 @@
       <c r="V34" s="2">
         <v>0</v>
       </c>
-      <c r="W34" s="25"/>
+      <c r="W34" s="2">
+        <v>5</v>
+      </c>
       <c r="X34" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="25"/>
-      <c r="Z34" s="25"/>
-      <c r="AA34" s="25"/>
-      <c r="AB34" s="25"/>
-      <c r="AC34" s="25"/>
-      <c r="AD34" s="25"/>
-      <c r="AE34" s="25"/>
+        <v>5</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="48" t="s">
-        <v>228</v>
+      <c r="A35" s="49" t="s">
+        <v>231</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>13</v>
@@ -4526,43 +4748,43 @@
       <c r="D35" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="F35" s="22" t="s">
-        <v>220</v>
+      <c r="F35" s="23" t="s">
+        <v>233</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="46">
-        <v>44589</v>
-      </c>
-      <c r="M35" s="47">
-        <v>0.47916666666666702</v>
+      <c r="L35" s="47">
+        <v>44600</v>
+      </c>
+      <c r="M35" s="48">
+        <v>0.51041666666666696</v>
       </c>
       <c r="N35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O35" s="2">
         <v>80</v>
       </c>
       <c r="P35" s="2">
-        <v>58</v>
-      </c>
-      <c r="Q35" s="25"/>
+        <v>44</v>
+      </c>
+      <c r="Q35" s="27"/>
       <c r="R35" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S35" s="2">
         <v>1</v>
       </c>
       <c r="T35" s="2">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="U35" s="2">
         <v>0</v>
@@ -4574,28 +4796,28 @@
         <v>5</v>
       </c>
       <c r="X35" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y35" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z35" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA35" s="25"/>
-      <c r="AB35" s="25"/>
-      <c r="AC35" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="27"/>
       <c r="AD35" s="2">
         <v>1</v>
       </c>
-      <c r="AE35" s="25"/>
+      <c r="AE35" s="27"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="48" t="s">
-        <v>230</v>
+      <c r="A36" s="49" t="s">
+        <v>234</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>13</v>
@@ -4603,24 +4825,24 @@
       <c r="D36" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="F36" s="22" t="s">
-        <v>224</v>
+      <c r="F36" s="23" t="s">
+        <v>225</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="46">
-        <v>44595</v>
-      </c>
-      <c r="M36" s="47">
-        <v>0.55208333333333304</v>
+      <c r="L36" s="47">
+        <v>44600</v>
+      </c>
+      <c r="M36" s="48">
+        <v>0.53125</v>
       </c>
       <c r="N36" s="2">
         <v>2</v>
@@ -4629,17 +4851,17 @@
         <v>80</v>
       </c>
       <c r="P36" s="2">
-        <v>32</v>
-      </c>
-      <c r="Q36" s="25"/>
+        <v>37</v>
+      </c>
+      <c r="Q36" s="27"/>
       <c r="R36" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S36" s="2">
         <v>1</v>
       </c>
       <c r="T36" s="2">
-        <v>0.083000000000000004</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="U36" s="2">
         <v>0</v>
@@ -4654,23 +4876,25 @@
         <v>5</v>
       </c>
       <c r="Y36" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z36" s="2">
         <v>0</v>
       </c>
-      <c r="AA36" s="25"/>
-      <c r="AB36" s="25"/>
-      <c r="AC36" s="25"/>
-      <c r="AD36" s="25"/>
-      <c r="AE36" s="25"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="27"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="48" t="s">
-        <v>232</v>
+      <c r="A37" s="49" t="s">
+        <v>236</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>13</v>
@@ -4678,49 +4902,49 @@
       <c r="D37" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="F37" s="22" t="s">
-        <v>234</v>
+      <c r="F37" s="23" t="s">
+        <v>219</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="46">
+      <c r="L37" s="47">
         <v>44600</v>
       </c>
-      <c r="M37" s="47">
-        <v>0.51041666666666696</v>
+      <c r="M37" s="48">
+        <v>0.5625</v>
       </c>
       <c r="N37" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O37" s="2">
         <v>80</v>
       </c>
       <c r="P37" s="2">
-        <v>44</v>
-      </c>
-      <c r="Q37" s="25"/>
+        <v>51</v>
+      </c>
+      <c r="Q37" s="27"/>
       <c r="R37" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S37" s="2">
+        <v>2</v>
+      </c>
+      <c r="T37" s="2">
+        <v>2.3999999999999999</v>
+      </c>
+      <c r="U37" s="2">
+        <v>2</v>
+      </c>
+      <c r="V37" s="2">
         <v>1</v>
-      </c>
-      <c r="T37" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="U37" s="2">
-        <v>0</v>
-      </c>
-      <c r="V37" s="2">
-        <v>0</v>
       </c>
       <c r="W37" s="2">
         <v>5</v>
@@ -4734,20 +4958,20 @@
       <c r="Z37" s="2">
         <v>0</v>
       </c>
-      <c r="AA37" s="25"/>
-      <c r="AB37" s="25"/>
-      <c r="AC37" s="25"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="27"/>
       <c r="AD37" s="2">
         <v>1</v>
       </c>
-      <c r="AE37" s="25"/>
+      <c r="AE37" s="27"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="48" t="s">
-        <v>235</v>
+      <c r="A38" s="49" t="s">
+        <v>117</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>13</v>
@@ -4755,44 +4979,42 @@
       <c r="D38" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="F38" s="22" t="s">
-        <v>226</v>
+      <c r="F38" s="23" t="s">
+        <v>223</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
-      <c r="L38" s="46">
-        <v>44600</v>
-      </c>
-      <c r="M38" s="47">
-        <v>0.53125</v>
+      <c r="L38" s="47">
+        <v>44608</v>
+      </c>
+      <c r="M38" s="48">
+        <v>0.55208333333333304</v>
       </c>
       <c r="N38" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O38" s="2">
         <v>80</v>
       </c>
       <c r="P38" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q38" s="25"/>
+        <v>39</v>
+      </c>
+      <c r="Q38" s="27"/>
       <c r="R38" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S38" s="2">
         <v>1</v>
       </c>
-      <c r="T38" s="2">
-        <v>2.2999999999999998</v>
-      </c>
+      <c r="T38" s="27"/>
       <c r="U38" s="2">
         <v>0</v>
       </c>
@@ -4806,25 +5028,23 @@
         <v>5</v>
       </c>
       <c r="Y38" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="25"/>
-      <c r="AD38" s="2">
         <v>1</v>
       </c>
-      <c r="AE38" s="25"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="27"/>
+      <c r="AD38" s="27"/>
+      <c r="AE38" s="27"/>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="48" t="s">
-        <v>237</v>
+      <c r="A39" s="49" t="s">
+        <v>120</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>13</v>
@@ -4832,76 +5052,54 @@
       <c r="D39" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="F39" s="22" t="s">
-        <v>220</v>
+      <c r="F39" s="23" t="s">
+        <v>240</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
-      <c r="L39" s="46">
-        <v>44600</v>
-      </c>
-      <c r="M39" s="47">
-        <v>0.5625</v>
-      </c>
+      <c r="L39" s="47">
+        <v>44609</v>
+      </c>
+      <c r="M39" s="27"/>
       <c r="N39" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O39" s="2">
         <v>80</v>
       </c>
-      <c r="P39" s="2">
-        <v>51</v>
-      </c>
-      <c r="Q39" s="25"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
       <c r="R39" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="S39" s="2">
-        <v>2</v>
-      </c>
-      <c r="T39" s="2">
-        <v>2.3999999999999999</v>
-      </c>
-      <c r="U39" s="2">
-        <v>2</v>
-      </c>
-      <c r="V39" s="2">
-        <v>1</v>
-      </c>
-      <c r="W39" s="2">
-        <v>5</v>
-      </c>
-      <c r="X39" s="2">
-        <v>5</v>
-      </c>
-      <c r="Y39" s="2">
-        <v>5</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="25"/>
-      <c r="AD39" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE39" s="25"/>
+        <v>217</v>
+      </c>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="27"/>
+      <c r="AC39" s="27"/>
+      <c r="AD39" s="27"/>
+      <c r="AE39" s="27"/>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="48" t="s">
-        <v>117</v>
+      <c r="A40" s="49" t="s">
+        <v>241</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>13</v>
@@ -4909,27 +5107,27 @@
       <c r="D40" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="F40" s="22" t="s">
-        <v>224</v>
+      <c r="F40" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="46">
-        <v>44608</v>
-      </c>
-      <c r="M40" s="47">
-        <v>0.55208333333333304</v>
+      <c r="L40" s="47">
+        <v>44615</v>
+      </c>
+      <c r="M40" s="48">
+        <v>0.625</v>
       </c>
       <c r="N40" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O40" s="2">
         <v>80</v>
@@ -4937,19 +5135,21 @@
       <c r="P40" s="2">
         <v>39</v>
       </c>
-      <c r="Q40" s="25"/>
+      <c r="Q40" s="27"/>
       <c r="R40" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S40" s="2">
-        <v>1</v>
-      </c>
-      <c r="T40" s="25"/>
+        <v>2</v>
+      </c>
+      <c r="T40" s="2">
+        <v>4.5</v>
+      </c>
       <c r="U40" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V40" s="2">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="W40" s="2">
         <v>5</v>
@@ -4961,20 +5161,20 @@
         <v>2</v>
       </c>
       <c r="Z40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="25"/>
-      <c r="AB40" s="25"/>
-      <c r="AC40" s="25"/>
-      <c r="AD40" s="25"/>
-      <c r="AE40" s="25"/>
+        <v>2</v>
+      </c>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
+      <c r="AD40" s="27"/>
+      <c r="AE40" s="27"/>
     </row>
     <row r="41" ht="14.25">
-      <c r="A41" s="48" t="s">
-        <v>120</v>
+      <c r="A41" s="49" t="s">
+        <v>243</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>13</v>
@@ -4982,54 +5182,74 @@
       <c r="D41" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="F41" s="22" t="s">
-        <v>241</v>
+      <c r="F41" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
-      <c r="L41" s="46">
-        <v>44609</v>
-      </c>
-      <c r="M41" s="25"/>
+      <c r="L41" s="47">
+        <v>44615</v>
+      </c>
+      <c r="M41" s="48">
+        <v>0.6875</v>
+      </c>
       <c r="N41" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O41" s="2">
         <v>80</v>
       </c>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
+      <c r="P41" s="2">
+        <v>45</v>
+      </c>
+      <c r="Q41" s="27"/>
       <c r="R41" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="25"/>
-      <c r="V41" s="25"/>
-      <c r="W41" s="25"/>
-      <c r="X41" s="25"/>
-      <c r="Y41" s="25"/>
-      <c r="Z41" s="25"/>
-      <c r="AA41" s="25"/>
-      <c r="AB41" s="25"/>
-      <c r="AC41" s="25"/>
-      <c r="AD41" s="25"/>
-      <c r="AE41" s="25"/>
+        <v>217</v>
+      </c>
+      <c r="S41" s="2">
+        <v>2</v>
+      </c>
+      <c r="T41" s="2">
+        <v>5.5999999999999996</v>
+      </c>
+      <c r="U41" s="2">
+        <v>2</v>
+      </c>
+      <c r="V41" s="2">
+        <v>5.5999999999999996</v>
+      </c>
+      <c r="W41" s="2">
+        <v>5</v>
+      </c>
+      <c r="X41" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="27"/>
+      <c r="AC41" s="27"/>
+      <c r="AD41" s="27"/>
+      <c r="AE41" s="27"/>
     </row>
     <row r="42" ht="14.25">
-      <c r="A42" s="48" t="s">
-        <v>242</v>
+      <c r="A42" s="49" t="s">
+        <v>245</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>13</v>
@@ -5037,50 +5257,46 @@
       <c r="D42" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="23" t="s">
         <v>181</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
-      <c r="L42" s="46">
-        <v>44615</v>
-      </c>
-      <c r="M42" s="47">
-        <v>0.625</v>
+      <c r="L42" s="47">
+        <v>44616</v>
+      </c>
+      <c r="M42" s="48">
+        <v>0.52083333333333304</v>
       </c>
       <c r="N42" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O42" s="2">
         <v>80</v>
       </c>
       <c r="P42" s="2">
-        <v>39</v>
-      </c>
-      <c r="Q42" s="25"/>
+        <v>42</v>
+      </c>
+      <c r="Q42" s="27"/>
       <c r="R42" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S42" s="2">
-        <v>2</v>
-      </c>
-      <c r="T42" s="2">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T42" s="27"/>
       <c r="U42" s="2">
-        <v>2</v>
-      </c>
-      <c r="V42" s="2">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V42" s="27"/>
       <c r="W42" s="2">
         <v>5</v>
       </c>
@@ -5093,18 +5309,18 @@
       <c r="Z42" s="2">
         <v>2</v>
       </c>
-      <c r="AA42" s="25"/>
-      <c r="AB42" s="25"/>
-      <c r="AC42" s="25"/>
-      <c r="AD42" s="25"/>
-      <c r="AE42" s="25"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="27"/>
+      <c r="AC42" s="27"/>
+      <c r="AD42" s="27"/>
+      <c r="AE42" s="27"/>
     </row>
     <row r="43" ht="14.25">
-      <c r="A43" s="48" t="s">
-        <v>244</v>
+      <c r="A43" s="49" t="s">
+        <v>248</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>13</v>
@@ -5112,49 +5328,49 @@
       <c r="D43" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="23" t="s">
         <v>181</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
-      <c r="L43" s="46">
-        <v>44615</v>
-      </c>
-      <c r="M43" s="47">
-        <v>0.6875</v>
+      <c r="L43" s="47">
+        <v>44616</v>
+      </c>
+      <c r="M43" s="48">
+        <v>0.5625</v>
       </c>
       <c r="N43" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O43" s="2">
         <v>80</v>
       </c>
       <c r="P43" s="2">
-        <v>45</v>
-      </c>
-      <c r="Q43" s="25"/>
+        <v>52</v>
+      </c>
+      <c r="Q43" s="27"/>
       <c r="R43" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S43" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T43" s="2">
-        <v>5.5999999999999996</v>
+        <v>2.5</v>
       </c>
       <c r="U43" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V43" s="2">
-        <v>5.5999999999999996</v>
+        <v>1.8</v>
       </c>
       <c r="W43" s="2">
         <v>5</v>
@@ -5168,18 +5384,18 @@
       <c r="Z43" s="2">
         <v>2</v>
       </c>
-      <c r="AA43" s="25"/>
-      <c r="AB43" s="25"/>
-      <c r="AC43" s="25"/>
-      <c r="AD43" s="25"/>
-      <c r="AE43" s="25"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="27"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="27"/>
+      <c r="AE43" s="27"/>
     </row>
     <row r="44" ht="14.25">
-      <c r="A44" s="48" t="s">
-        <v>246</v>
+      <c r="A44" s="49" t="s">
+        <v>131</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>13</v>
@@ -5187,46 +5403,50 @@
       <c r="D44" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="23" t="s">
         <v>181</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
-      <c r="L44" s="46">
-        <v>44616</v>
-      </c>
-      <c r="M44" s="47">
+      <c r="L44" s="47">
+        <v>44622</v>
+      </c>
+      <c r="M44" s="48">
         <v>0.52083333333333304</v>
       </c>
       <c r="N44" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O44" s="2">
         <v>80</v>
       </c>
       <c r="P44" s="2">
-        <v>42</v>
-      </c>
-      <c r="Q44" s="25"/>
+        <v>58</v>
+      </c>
+      <c r="Q44" s="27"/>
       <c r="R44" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S44" s="2">
-        <v>0</v>
-      </c>
-      <c r="T44" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="T44" s="2">
+        <v>2.1000000000000001</v>
+      </c>
       <c r="U44" s="2">
         <v>0</v>
       </c>
-      <c r="V44" s="25"/>
+      <c r="V44" s="2">
+        <v>0</v>
+      </c>
       <c r="W44" s="2">
         <v>5</v>
       </c>
@@ -5239,18 +5459,18 @@
       <c r="Z44" s="2">
         <v>2</v>
       </c>
-      <c r="AA44" s="25"/>
-      <c r="AB44" s="25"/>
-      <c r="AC44" s="25"/>
-      <c r="AD44" s="25"/>
-      <c r="AE44" s="25"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="27"/>
+      <c r="AC44" s="27"/>
+      <c r="AD44" s="27"/>
+      <c r="AE44" s="27"/>
     </row>
     <row r="45" ht="14.25">
-      <c r="A45" s="48" t="s">
-        <v>249</v>
+      <c r="A45" s="49" t="s">
+        <v>251</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>13</v>
@@ -5258,24 +5478,24 @@
       <c r="D45" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="23" t="s">
         <v>181</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
-      <c r="L45" s="46">
-        <v>44616</v>
-      </c>
-      <c r="M45" s="47">
-        <v>0.5625</v>
+      <c r="L45" s="47">
+        <v>44629</v>
+      </c>
+      <c r="M45" s="48">
+        <v>0.5</v>
       </c>
       <c r="N45" s="2">
         <v>4</v>
@@ -5284,23 +5504,23 @@
         <v>80</v>
       </c>
       <c r="P45" s="2">
-        <v>52</v>
-      </c>
-      <c r="Q45" s="25"/>
+        <v>42</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>41</v>
+      </c>
       <c r="R45" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S45" s="2">
-        <v>1</v>
-      </c>
-      <c r="T45" s="2">
-        <v>2.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T45" s="27"/>
       <c r="U45" s="2">
         <v>1</v>
       </c>
       <c r="V45" s="2">
-        <v>1.8</v>
+        <v>0.438</v>
       </c>
       <c r="W45" s="2">
         <v>5</v>
@@ -5312,20 +5532,22 @@
         <v>2</v>
       </c>
       <c r="Z45" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA45" s="25"/>
-      <c r="AB45" s="25"/>
-      <c r="AC45" s="25"/>
-      <c r="AD45" s="25"/>
-      <c r="AE45" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="27"/>
+      <c r="AC45" s="48">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="AD45" s="27"/>
+      <c r="AE45" s="27"/>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="48" t="s">
-        <v>131</v>
+      <c r="A46" s="49" t="s">
+        <v>253</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>13</v>
@@ -5333,24 +5555,24 @@
       <c r="D46" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="23" t="s">
         <v>181</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
-      <c r="L46" s="46">
-        <v>44622</v>
-      </c>
-      <c r="M46" s="47">
-        <v>0.52083333333333304</v>
+      <c r="L46" s="47">
+        <v>44629</v>
+      </c>
+      <c r="M46" s="48">
+        <v>0.53125</v>
       </c>
       <c r="N46" s="2">
         <v>2</v>
@@ -5359,23 +5581,25 @@
         <v>80</v>
       </c>
       <c r="P46" s="2">
-        <v>58</v>
-      </c>
-      <c r="Q46" s="25"/>
+        <v>47</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>42</v>
+      </c>
       <c r="R46" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S46" s="2">
         <v>1</v>
       </c>
       <c r="T46" s="2">
-        <v>2.1000000000000001</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="U46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W46" s="2">
         <v>5</v>
@@ -5387,20 +5611,22 @@
         <v>2</v>
       </c>
       <c r="Z46" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA46" s="25"/>
-      <c r="AB46" s="25"/>
-      <c r="AC46" s="25"/>
-      <c r="AD46" s="25"/>
-      <c r="AE46" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="AA46" s="27"/>
+      <c r="AB46" s="27"/>
+      <c r="AC46" s="48">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="AD46" s="27"/>
+      <c r="AE46" s="27"/>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="48" t="s">
-        <v>252</v>
+      <c r="A47" s="49" t="s">
+        <v>142</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>13</v>
@@ -5408,50 +5634,50 @@
       <c r="D47" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="23" t="s">
         <v>181</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
-      <c r="L47" s="46">
-        <v>44629</v>
-      </c>
-      <c r="M47" s="47">
-        <v>0.5</v>
+      <c r="L47" s="47">
+        <v>44637</v>
+      </c>
+      <c r="M47" s="48">
+        <v>0.52083333333333304</v>
       </c>
       <c r="N47" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O47" s="2">
         <v>80</v>
       </c>
       <c r="P47" s="2">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="Q47" s="2">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S47" s="2">
-        <v>0</v>
-      </c>
-      <c r="T47" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="T47" s="2">
+        <v>1.7</v>
+      </c>
       <c r="U47" s="2">
-        <v>1</v>
-      </c>
-      <c r="V47" s="2">
-        <v>0.438</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V47" s="27"/>
       <c r="W47" s="2">
         <v>5</v>
       </c>
@@ -5459,25 +5685,29 @@
         <v>5</v>
       </c>
       <c r="Y47" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA47" s="25"/>
-      <c r="AB47" s="25"/>
-      <c r="AC47" s="47">
-        <v>0.77777777777777801</v>
-      </c>
-      <c r="AD47" s="25"/>
-      <c r="AE47" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="48">
+        <v>0.56111111111111101</v>
+      </c>
+      <c r="AB47" s="48">
+        <v>0.625</v>
+      </c>
+      <c r="AC47" s="48">
+        <v>0.64375000000000004</v>
+      </c>
+      <c r="AD47" s="27"/>
+      <c r="AE47" s="27"/>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="48" t="s">
-        <v>254</v>
+      <c r="A48" s="49" t="s">
+        <v>149</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>13</v>
@@ -5485,52 +5715,48 @@
       <c r="D48" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="23" t="s">
         <v>181</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
-      <c r="L48" s="46">
-        <v>44629</v>
-      </c>
-      <c r="M48" s="47">
-        <v>0.53125</v>
+      <c r="L48" s="47">
+        <v>44648</v>
+      </c>
+      <c r="M48" s="48">
+        <v>0.51041666666666696</v>
       </c>
       <c r="N48" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O48" s="2">
         <v>80</v>
       </c>
       <c r="P48" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q48" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S48" s="2">
-        <v>1</v>
-      </c>
-      <c r="T48" s="2">
-        <v>2.2999999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T48" s="27"/>
       <c r="U48" s="2">
-        <v>1</v>
-      </c>
-      <c r="V48" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V48" s="27"/>
       <c r="W48" s="2">
         <v>5</v>
       </c>
@@ -5538,25 +5764,23 @@
         <v>5</v>
       </c>
       <c r="Y48" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA48" s="25"/>
-      <c r="AB48" s="25"/>
-      <c r="AC48" s="47">
-        <v>0.77777777777777801</v>
-      </c>
-      <c r="AD48" s="25"/>
-      <c r="AE48" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="AA48" s="27"/>
+      <c r="AB48" s="27"/>
+      <c r="AC48" s="27"/>
+      <c r="AD48" s="27"/>
+      <c r="AE48" s="27"/>
     </row>
     <row r="49" ht="14.25">
-      <c r="A49" s="48" t="s">
-        <v>142</v>
+      <c r="A49" s="49" t="s">
+        <v>152</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>13</v>
@@ -5564,210 +5788,56 @@
       <c r="D49" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="23" t="s">
         <v>181</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G49" s="6"/>
-      <c r="H49" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="46">
-        <v>44637</v>
-      </c>
-      <c r="M49" s="47">
-        <v>0.52083333333333304</v>
+      <c r="H49" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="47">
+        <v>44651</v>
+      </c>
+      <c r="M49" s="48">
+        <v>0.5625</v>
       </c>
       <c r="N49" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O49" s="2">
         <v>80</v>
       </c>
-      <c r="P49" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>19</v>
-      </c>
-      <c r="R49" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="S49" s="2">
-        <v>1</v>
-      </c>
-      <c r="T49" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="U49" s="2">
-        <v>0</v>
-      </c>
-      <c r="V49" s="25"/>
-      <c r="W49" s="2">
-        <v>5</v>
-      </c>
-      <c r="X49" s="2">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="47">
-        <v>0.56111111111111101</v>
-      </c>
-      <c r="AB49" s="47">
-        <v>0.625</v>
-      </c>
-      <c r="AC49" s="47">
-        <v>0.64375000000000004</v>
-      </c>
-      <c r="AD49" s="25"/>
-      <c r="AE49" s="25"/>
-    </row>
-    <row r="50" ht="14.25">
-      <c r="A50" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="46">
-        <v>44648</v>
-      </c>
-      <c r="M50" s="47">
-        <v>0.51041666666666696</v>
-      </c>
-      <c r="N50" s="2">
-        <v>5</v>
-      </c>
-      <c r="O50" s="2">
-        <v>80</v>
-      </c>
-      <c r="P50" s="2">
-        <v>50</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>48</v>
-      </c>
-      <c r="R50" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="S50" s="2">
-        <v>0</v>
-      </c>
-      <c r="T50" s="25"/>
-      <c r="U50" s="2">
-        <v>0</v>
-      </c>
-      <c r="V50" s="25"/>
-      <c r="W50" s="2">
-        <v>5</v>
-      </c>
-      <c r="X50" s="2">
-        <v>5</v>
-      </c>
-      <c r="Y50" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="2">
-        <v>3</v>
-      </c>
-      <c r="AA50" s="25"/>
-      <c r="AB50" s="25"/>
-      <c r="AC50" s="25"/>
-      <c r="AD50" s="25"/>
-      <c r="AE50" s="25"/>
-    </row>
-    <row r="51" ht="14.25">
-      <c r="A51" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="46">
-        <v>44651</v>
-      </c>
-      <c r="M51" s="47">
-        <v>0.5625</v>
-      </c>
-      <c r="N51" s="2">
-        <v>4</v>
-      </c>
-      <c r="O51" s="2">
-        <v>80</v>
-      </c>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="25"/>
-      <c r="U51" s="25"/>
-      <c r="V51" s="25"/>
-      <c r="W51" s="25"/>
-      <c r="X51" s="25"/>
-      <c r="Y51" s="25"/>
-      <c r="Z51" s="25"/>
-      <c r="AA51" s="25"/>
-      <c r="AB51" s="25"/>
-      <c r="AC51" s="25"/>
-      <c r="AD51" s="25"/>
-      <c r="AE51" s="25"/>
-    </row>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="27"/>
+      <c r="AC49" s="27"/>
+      <c r="AD49" s="27"/>
+      <c r="AE49" s="27"/>
+    </row>
+    <row r="50" ht="14.25"/>
+    <row r="51" ht="14.25"/>
     <row r="52" ht="14.25"/>
     <row r="53" ht="14.25"/>
     <row r="54" ht="14.25"/>
     <row r="55" ht="14.25"/>
     <row r="56" ht="14.25"/>
     <row r="57" ht="14.25"/>
-    <row r="58" ht="14.25"/>
-    <row r="59" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -5803,49 +5873,49 @@
         <v>155</v>
       </c>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" t="s">
         <v>260</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>261</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>262</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="J1" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="K1" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="L1" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="M1" s="47" t="s">
         <v>268</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="N1" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="O1" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="P1" s="27" t="s">
         <v>271</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="2">
@@ -5855,17 +5925,14 @@
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>273</v>
-      </c>
       <c r="E2" t="s">
-        <v>274</v>
-      </c>
-      <c r="H2" s="49"/>
+        <v>272</v>
+      </c>
+      <c r="H2" s="50"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
         <v>184</v>
@@ -5873,17 +5940,17 @@
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>276</v>
+      <c r="D3">
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>277</v>
-      </c>
-      <c r="H3" s="49"/>
+        <v>274</v>
+      </c>
+      <c r="H3" s="50"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B4" t="s">
         <v>186</v>
@@ -5891,17 +5958,17 @@
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>279</v>
+      <c r="D4">
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>274</v>
-      </c>
-      <c r="H4" s="49"/>
+        <v>272</v>
+      </c>
+      <c r="H4" s="50"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
         <v>188</v>
@@ -5909,17 +5976,17 @@
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
-        <v>276</v>
+      <c r="D5">
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
-      </c>
-      <c r="H5" s="49"/>
+        <v>274</v>
+      </c>
+      <c r="H5" s="50"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B6" t="s">
         <v>189</v>
@@ -5927,17 +5994,17 @@
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>282</v>
+      <c r="D6">
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H6" s="49"/>
+        <v>274</v>
+      </c>
+      <c r="H6" s="50"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B7" t="s">
         <v>190</v>
@@ -5945,17 +6012,17 @@
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>284</v>
+      <c r="D7">
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H7" s="49"/>
+        <v>274</v>
+      </c>
+      <c r="H7" s="50"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B8" t="s">
         <v>191</v>
@@ -5963,17 +6030,17 @@
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>282</v>
+      <c r="D8">
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
-      </c>
-      <c r="H8" s="49"/>
+        <v>272</v>
+      </c>
+      <c r="H8" s="50"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s">
         <v>192</v>
@@ -5981,615 +6048,622 @@
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
-        <v>287</v>
+      <c r="D9">
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>277</v>
-      </c>
-      <c r="H9" s="49"/>
+        <v>274</v>
+      </c>
+      <c r="H9" s="50"/>
     </row>
     <row r="10">
-      <c r="B10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
-        <v>288</v>
-      </c>
-      <c r="E10" t="s">
-        <v>277</v>
-      </c>
-      <c r="H10" s="49"/>
+      <c r="E10" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="H10" s="50"/>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
-        <v>282</v>
+      <c r="D11">
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>277</v>
-      </c>
-      <c r="H11" s="49"/>
+        <v>274</v>
+      </c>
+      <c r="H11" s="50"/>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D12" t="s">
-        <v>284</v>
+      <c r="D12">
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>277</v>
-      </c>
-      <c r="H12" s="49"/>
+        <v>274</v>
+      </c>
+      <c r="H12" s="50"/>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>289</v>
-      </c>
-      <c r="B13" t="s">
-        <v>201</v>
+      <c r="B13" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E13" t="s">
-        <v>277</v>
-      </c>
-      <c r="H13" s="49"/>
+        <v>43</v>
+      </c>
+      <c r="D13" s="51">
+        <v>38</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="H13" s="50"/>
     </row>
     <row r="14">
-      <c r="B14" t="s">
-        <v>204</v>
+      <c r="B14" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D14" t="s">
-        <v>273</v>
-      </c>
-      <c r="E14" t="s">
-        <v>277</v>
-      </c>
-      <c r="H14" s="49"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D15" t="s">
-        <v>282</v>
+      <c r="D15">
+        <v>20</v>
       </c>
       <c r="E15" t="s">
         <v>274</v>
       </c>
-      <c r="H15" s="49"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D16" t="s">
-        <v>282</v>
+      <c r="D16">
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H16" s="49"/>
+        <v>274</v>
+      </c>
+      <c r="H16" s="50"/>
     </row>
     <row r="17">
-      <c r="B17" t="s">
-        <v>207</v>
+      <c r="A17" s="51"/>
+      <c r="B17" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D17" t="s">
-        <v>282</v>
-      </c>
-      <c r="E17" t="s">
-        <v>277</v>
-      </c>
-      <c r="H17" s="49"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="H17" s="50"/>
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="D18">
+        <v>51</v>
+      </c>
       <c r="E18" t="s">
-        <v>277</v>
-      </c>
-      <c r="H18" s="49"/>
+        <v>274</v>
+      </c>
+      <c r="H18" s="50"/>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>291</v>
-      </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D19">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>277</v>
-      </c>
-      <c r="H19" s="49"/>
+        <v>272</v>
+      </c>
+      <c r="H19" s="50"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B20" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D20" t="s">
-        <v>288</v>
+      <c r="D20">
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>277</v>
-      </c>
-      <c r="H20" s="49"/>
+        <v>274</v>
+      </c>
+      <c r="H20" s="50"/>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D21" t="s">
-        <v>282</v>
+      <c r="D21">
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>277</v>
-      </c>
-      <c r="H21" s="49"/>
+        <v>274</v>
+      </c>
+      <c r="H21" s="50"/>
     </row>
     <row r="22">
-      <c r="B22" s="1" t="s">
-        <v>196</v>
+      <c r="A22" t="s">
+        <v>283</v>
+      </c>
+      <c r="B22" t="s">
+        <v>208</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="H22" s="49"/>
+        <v>63</v>
+      </c>
+      <c r="D22">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>274</v>
+      </c>
+      <c r="H22" s="50"/>
     </row>
     <row r="23">
-      <c r="B23" s="1" t="s">
-        <v>198</v>
+      <c r="A23" t="s">
+        <v>284</v>
+      </c>
+      <c r="B23" t="s">
+        <v>209</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="H23" s="49"/>
+        <v>63</v>
+      </c>
+      <c r="D23">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>274</v>
+      </c>
+      <c r="H23" s="50"/>
     </row>
     <row r="24">
-      <c r="B24" s="1" t="s">
-        <v>202</v>
+      <c r="B24" t="s">
+        <v>210</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="H24" s="49"/>
+      <c r="D24">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>274</v>
+      </c>
+      <c r="H24" s="50"/>
     </row>
     <row r="25">
       <c r="B25" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="H25" s="49"/>
+      <c r="D25" s="1">
+        <v>76</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>274</v>
+      </c>
+      <c r="H25" s="50"/>
     </row>
     <row r="26">
-      <c r="B26" t="s">
-        <v>213</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="B26" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26" s="53"/>
+      <c r="H26" s="50"/>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="B27" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="G27" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="E26" t="s">
-        <v>274</v>
-      </c>
-      <c r="H26" s="49"/>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="A27" s="50" t="s">
+      <c r="H27" s="56">
+        <v>44544</v>
+      </c>
+      <c r="I27" s="56">
+        <v>44544</v>
+      </c>
+      <c r="J27" s="56">
+        <v>44566</v>
+      </c>
+      <c r="K27" s="54">
+        <v>144</v>
+      </c>
+      <c r="L27" s="56">
+        <v>44557</v>
+      </c>
+      <c r="M27" s="56">
+        <v>44594</v>
+      </c>
+      <c r="N27" s="56">
+        <v>44567</v>
+      </c>
+      <c r="O27" s="56">
+        <v>44588</v>
+      </c>
+      <c r="P27" s="56">
+        <v>44596</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="G28" s="57" t="s">
+        <v>287</v>
+      </c>
+      <c r="H28" s="59">
+        <v>44547</v>
+      </c>
+      <c r="I28" s="59">
+        <v>44547</v>
+      </c>
+      <c r="J28" s="59">
+        <v>44563</v>
+      </c>
+      <c r="K28" s="57">
+        <v>144</v>
+      </c>
+      <c r="L28" s="59">
+        <v>44547</v>
+      </c>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59">
+        <v>44564</v>
+      </c>
+      <c r="O28" s="59">
+        <v>44616</v>
+      </c>
+      <c r="P28" s="57"/>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="60" t="s">
+        <v>291</v>
+      </c>
+      <c r="G29" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="H29" s="62">
+        <v>44564</v>
+      </c>
+      <c r="I29" s="62">
+        <v>44564</v>
+      </c>
+      <c r="J29" s="62">
+        <v>44573</v>
+      </c>
+      <c r="K29" s="60">
+        <v>144</v>
+      </c>
+      <c r="L29" s="62">
+        <v>44570</v>
+      </c>
+      <c r="M29" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="N29" s="62">
+        <v>44573</v>
+      </c>
+      <c r="O29" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="P29" s="62">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="B27" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="C27" s="50" t="s">
+      <c r="B30" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="50" t="s">
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="60" t="s">
+        <v>291</v>
+      </c>
+      <c r="G30" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="H30" s="62">
+        <v>44560</v>
+      </c>
+      <c r="I30" s="62">
+        <v>44563</v>
+      </c>
+      <c r="J30" s="62">
+        <v>44577</v>
+      </c>
+      <c r="K30" s="60">
+        <v>144</v>
+      </c>
+      <c r="L30" s="62">
+        <v>44563</v>
+      </c>
+      <c r="M30" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="N30" s="62">
+        <v>44563</v>
+      </c>
+      <c r="O30" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="P30" s="62">
+        <v>44616</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="B31" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="G31" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="H31" s="56">
+        <v>44564</v>
+      </c>
+      <c r="I31" s="56">
+        <v>44569</v>
+      </c>
+      <c r="J31" s="56">
+        <v>44585</v>
+      </c>
+      <c r="K31" s="54">
+        <v>144</v>
+      </c>
+      <c r="L31" s="56">
+        <v>44569</v>
+      </c>
+      <c r="M31" s="56">
+        <v>44633</v>
+      </c>
+      <c r="N31" s="56">
+        <v>44585</v>
+      </c>
+      <c r="O31" s="56">
+        <v>44630</v>
+      </c>
+      <c r="P31" s="56">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="60" t="s">
         <v>295</v>
       </c>
-      <c r="H27" s="52">
-        <v>44544</v>
-      </c>
-      <c r="I27" s="52">
-        <v>44544</v>
-      </c>
-      <c r="J27" s="52">
-        <v>44566</v>
-      </c>
-      <c r="K27" s="50">
+      <c r="B32" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="60" t="s">
+        <v>291</v>
+      </c>
+      <c r="G32" s="60"/>
+      <c r="H32" s="62">
+        <v>44569</v>
+      </c>
+      <c r="I32" s="62">
+        <v>44576</v>
+      </c>
+      <c r="J32" s="62">
+        <v>44599</v>
+      </c>
+      <c r="K32" s="60">
         <v>144</v>
       </c>
-      <c r="L27" s="52">
-        <v>44557</v>
-      </c>
-      <c r="M27" s="52">
-        <v>44594</v>
-      </c>
-      <c r="N27" s="52">
-        <v>44567</v>
-      </c>
-      <c r="O27" s="52">
-        <v>44588</v>
-      </c>
-      <c r="P27" s="52">
-        <v>44596</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="A28" s="53" t="s">
+      <c r="L32" s="62">
+        <v>44578</v>
+      </c>
+      <c r="M32" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="N32" s="62">
+        <v>44599</v>
+      </c>
+      <c r="O32" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="P32" s="62">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="B28" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="C28" s="53" t="s">
+      <c r="B33" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="53" t="s">
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="G33" s="54"/>
+      <c r="H33" s="56">
+        <v>44585</v>
+      </c>
+      <c r="I33" s="56">
+        <v>44585</v>
+      </c>
+      <c r="J33" s="56">
+        <v>44597</v>
+      </c>
+      <c r="K33" s="54">
+        <v>144</v>
+      </c>
+      <c r="L33" s="56">
+        <v>44585</v>
+      </c>
+      <c r="M33" s="56">
+        <v>44658</v>
+      </c>
+      <c r="N33" s="56">
+        <v>44597</v>
+      </c>
+      <c r="O33" s="56">
+        <v>44653</v>
+      </c>
+      <c r="P33" s="54"/>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="G28" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="H28" s="55">
-        <v>44547</v>
-      </c>
-      <c r="I28" s="55">
-        <v>44547</v>
-      </c>
-      <c r="J28" s="55">
-        <v>44563</v>
-      </c>
-      <c r="K28" s="53">
+      <c r="B34" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="60" t="s">
+        <v>291</v>
+      </c>
+      <c r="G34" s="60"/>
+      <c r="H34" s="62">
+        <v>44607</v>
+      </c>
+      <c r="I34" s="62">
+        <v>44607</v>
+      </c>
+      <c r="J34" s="62">
+        <v>44612</v>
+      </c>
+      <c r="K34" s="60">
         <v>144</v>
       </c>
-      <c r="L28" s="55">
-        <v>44547</v>
-      </c>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55">
-        <v>44564</v>
-      </c>
-      <c r="O28" s="55">
-        <v>44616</v>
-      </c>
-      <c r="P28" s="53"/>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29" s="56" t="s">
-        <v>298</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>222</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="56" t="s">
-        <v>299</v>
-      </c>
-      <c r="G29" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="H29" s="58">
-        <v>44564</v>
-      </c>
-      <c r="I29" s="58">
-        <v>44564</v>
-      </c>
-      <c r="J29" s="58">
-        <v>44573</v>
-      </c>
-      <c r="K29" s="56">
-        <v>144</v>
-      </c>
-      <c r="L29" s="58">
-        <v>44570</v>
-      </c>
-      <c r="M29" s="58" t="s">
-        <v>300</v>
-      </c>
-      <c r="N29" s="58">
-        <v>44573</v>
-      </c>
-      <c r="O29" s="58" t="s">
-        <v>300</v>
-      </c>
-      <c r="P29" s="58">
-        <v>44584</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="A30" s="56" t="s">
-        <v>301</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>224</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="56" t="s">
-        <v>299</v>
-      </c>
-      <c r="G30" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="H30" s="58">
-        <v>44560</v>
-      </c>
-      <c r="I30" s="58">
-        <v>44563</v>
-      </c>
-      <c r="J30" s="58">
-        <v>44577</v>
-      </c>
-      <c r="K30" s="56">
-        <v>144</v>
-      </c>
-      <c r="L30" s="58">
-        <v>44563</v>
-      </c>
-      <c r="M30" s="58" t="s">
-        <v>300</v>
-      </c>
-      <c r="N30" s="58">
-        <v>44563</v>
-      </c>
-      <c r="O30" s="58" t="s">
-        <v>300</v>
-      </c>
-      <c r="P30" s="58">
-        <v>44616</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25">
-      <c r="A31" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="50" t="s">
-        <v>294</v>
-      </c>
-      <c r="G31" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="H31" s="52">
-        <v>44564</v>
-      </c>
-      <c r="I31" s="52">
-        <v>44569</v>
-      </c>
-      <c r="J31" s="52">
-        <v>44585</v>
-      </c>
-      <c r="K31" s="50">
-        <v>144</v>
-      </c>
-      <c r="L31" s="52">
-        <v>44569</v>
-      </c>
-      <c r="M31" s="52">
-        <v>44633</v>
-      </c>
-      <c r="N31" s="52">
-        <v>44585</v>
-      </c>
-      <c r="O31" s="52">
-        <v>44630</v>
-      </c>
-      <c r="P31" s="52">
-        <v>44636</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="A32" s="56" t="s">
-        <v>303</v>
-      </c>
-      <c r="B32" s="56" t="s">
-        <v>234</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="56" t="s">
-        <v>299</v>
-      </c>
-      <c r="G32" s="56"/>
-      <c r="H32" s="58">
-        <v>44569</v>
-      </c>
-      <c r="I32" s="58">
-        <v>44576</v>
-      </c>
-      <c r="J32" s="58">
-        <v>44599</v>
-      </c>
-      <c r="K32" s="56">
-        <v>144</v>
-      </c>
-      <c r="L32" s="58">
-        <v>44578</v>
-      </c>
-      <c r="M32" s="58" t="s">
-        <v>300</v>
-      </c>
-      <c r="N32" s="58">
-        <v>44599</v>
-      </c>
-      <c r="O32" s="58" t="s">
-        <v>300</v>
-      </c>
-      <c r="P32" s="58">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25">
-      <c r="A33" s="50" t="s">
-        <v>304</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="C33" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="50" t="s">
-        <v>294</v>
-      </c>
-      <c r="G33" s="50"/>
-      <c r="H33" s="52">
-        <v>44585</v>
-      </c>
-      <c r="I33" s="52">
-        <v>44585</v>
-      </c>
-      <c r="J33" s="52">
-        <v>44597</v>
-      </c>
-      <c r="K33" s="50">
-        <v>144</v>
-      </c>
-      <c r="L33" s="52">
-        <v>44585</v>
-      </c>
-      <c r="M33" s="52">
-        <v>44658</v>
-      </c>
-      <c r="N33" s="52">
-        <v>44597</v>
-      </c>
-      <c r="O33" s="52">
-        <v>44653</v>
-      </c>
-      <c r="P33" s="50"/>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="A34" s="56" t="s">
-        <v>305</v>
-      </c>
-      <c r="B34" s="56" t="s">
-        <v>248</v>
-      </c>
-      <c r="C34" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="56" t="s">
-        <v>299</v>
-      </c>
-      <c r="G34" s="56"/>
-      <c r="H34" s="58">
-        <v>44607</v>
-      </c>
-      <c r="I34" s="58">
-        <v>44607</v>
-      </c>
-      <c r="J34" s="58">
-        <v>44612</v>
-      </c>
-      <c r="K34" s="56">
-        <v>144</v>
-      </c>
-      <c r="L34" s="58">
+      <c r="L34" s="62">
         <v>44608</v>
       </c>
-      <c r="M34" s="58" t="s">
-        <v>300</v>
-      </c>
-      <c r="N34" s="58">
+      <c r="M34" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="N34" s="62">
         <v>44613</v>
       </c>
-      <c r="O34" s="58" t="s">
-        <v>300</v>
-      </c>
-      <c r="P34" s="58">
+      <c r="O34" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="P34" s="62">
         <v>44641</v>
       </c>
     </row>
@@ -6613,10 +6687,10 @@
     <col bestFit="1" min="1" max="1" width="6.8515625"/>
     <col bestFit="1" min="2" max="2" width="12.28125"/>
     <col bestFit="1" min="3" max="3" width="14.140625"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="9.421875"/>
-    <col bestFit="1" min="5" max="5" width="9.421875"/>
-    <col bestFit="1" min="6" max="6" width="9.7109375"/>
-    <col bestFit="1" min="7" max="7" width="9.421875"/>
+    <col customWidth="1" min="4" max="4" width="9.8515625"/>
+    <col customWidth="1" min="5" max="5" width="11.7109375"/>
+    <col customWidth="1" min="6" max="6" width="15.57421875"/>
+    <col customWidth="1" min="7" max="7" width="13.421875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6624,566 +6698,566 @@
         <v>157</v>
       </c>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C1" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="49" t="s">
-        <v>306</v>
+      <c r="D1" s="50" t="s">
+        <v>298</v>
       </c>
       <c r="E1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="D2" s="59">
+        <v>302</v>
+      </c>
+      <c r="D2" s="63">
         <v>44568</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59">
+        <v>303</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63">
         <v>44573</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="63">
         <v>44573</v>
       </c>
-      <c r="G3" s="59">
+      <c r="G3" s="63">
         <v>44573</v>
       </c>
-      <c r="I3" s="49"/>
+      <c r="I3" s="50"/>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="D4" s="59">
+        <v>304</v>
+      </c>
+      <c r="D4" s="63">
         <v>44585</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="63">
         <v>44587</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="63">
         <v>44587</v>
       </c>
-      <c r="G4" s="59">
+      <c r="G4" s="63">
         <v>44588</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="D5" s="60">
+        <v>303</v>
+      </c>
+      <c r="D5" s="64">
         <v>44574</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="64">
         <v>44574</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="64">
         <v>44574</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="64">
         <v>44573</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="D6" s="60">
+        <v>304</v>
+      </c>
+      <c r="D6" s="64">
         <v>44587</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="64">
         <v>44589</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="64">
         <v>44589</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="64">
         <v>44588</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="D7" s="60">
+        <v>305</v>
+      </c>
+      <c r="D7" s="64">
         <v>44601</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="64">
         <v>44600</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="64">
         <v>44600</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="64">
         <v>44601</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D8" s="60">
+        <v>306</v>
+      </c>
+      <c r="D8" s="64">
         <v>44614</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="64">
         <v>44616</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="64">
         <v>44616</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="64">
         <v>44617</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="D9" s="60">
+        <v>307</v>
+      </c>
+      <c r="D9" s="64">
         <v>44645</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="64">
         <v>44648</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="64">
         <v>44648</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="64">
         <v>44650</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="D10" s="59">
+        <v>303</v>
+      </c>
+      <c r="D10" s="63">
         <v>44575</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="63">
         <v>44575</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="63">
         <v>44575</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="63">
         <v>44578</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="D11" s="60">
+        <v>303</v>
+      </c>
+      <c r="D11" s="64">
         <v>44581</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="64">
         <v>44581</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="64">
         <v>44581</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="64">
         <v>44582</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="D12" s="60">
+        <v>304</v>
+      </c>
+      <c r="D12" s="64">
         <v>44594</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="64">
         <v>44595</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="64">
         <v>44595</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="64">
         <v>44596</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="D13" s="60">
+        <v>305</v>
+      </c>
+      <c r="D13" s="64">
         <v>44609</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="64">
         <v>44608</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="64">
         <v>44608</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="64">
         <v>44610</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="D14" s="59">
+        <v>303</v>
+      </c>
+      <c r="D14" s="63">
         <v>44585</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="63">
         <v>44587</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="63">
         <v>44587</v>
       </c>
-      <c r="G14" s="59">
+      <c r="G14" s="63">
         <v>44588</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="D15" s="59">
+        <v>304</v>
+      </c>
+      <c r="D15" s="63">
         <v>44600</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="63">
         <v>44600</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="63">
         <v>44600</v>
       </c>
-      <c r="G15" s="59">
+      <c r="G15" s="63">
         <v>44601</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="D16" s="59">
+        <v>305</v>
+      </c>
+      <c r="D16" s="63">
         <v>44615</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="63">
         <v>44615</v>
       </c>
-      <c r="F16" s="59">
+      <c r="F16" s="63">
         <v>44615</v>
       </c>
-      <c r="G16" s="59">
+      <c r="G16" s="63">
         <v>44617</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="D17" s="59">
+        <v>306</v>
+      </c>
+      <c r="D17" s="63">
         <v>44627</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="63">
         <v>44629</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="63">
         <v>44629</v>
       </c>
-      <c r="G17" s="59">
+      <c r="G17" s="63">
         <v>44628</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="D18" s="60">
+      <c r="D18" s="64">
         <v>44601</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="64">
         <v>44600</v>
       </c>
-      <c r="F18" s="60">
+      <c r="F18" s="64">
         <v>44600</v>
       </c>
-      <c r="G18" s="60">
+      <c r="G18" s="64">
         <v>44601</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="D19" s="60">
+        <v>304</v>
+      </c>
+      <c r="D19" s="64">
         <v>44614</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E19" s="64">
         <v>44615</v>
       </c>
-      <c r="F19" s="60">
+      <c r="F19" s="64">
         <v>44615</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G19" s="64">
         <v>44617</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="D20" s="59">
+        <v>303</v>
+      </c>
+      <c r="D20" s="63">
         <v>44610</v>
       </c>
-      <c r="E20" s="59">
+      <c r="E20" s="63">
         <v>44609</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="63">
         <v>44609</v>
       </c>
-      <c r="G20" s="59">
+      <c r="G20" s="63">
         <v>44610</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="D21" s="59">
+      <c r="D21" s="63">
         <v>44623</v>
       </c>
-      <c r="E21" s="59">
+      <c r="E21" s="63">
         <v>44622</v>
       </c>
-      <c r="F21" s="59">
+      <c r="F21" s="63">
         <v>44622</v>
       </c>
-      <c r="G21" s="59">
+      <c r="G21" s="63">
         <v>44623</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="D22" s="59">
+        <v>305</v>
+      </c>
+      <c r="D22" s="63">
         <v>44638</v>
       </c>
-      <c r="E22" s="59">
+      <c r="E22" s="63">
         <v>44637</v>
       </c>
-      <c r="F22" s="59">
+      <c r="F22" s="63">
         <v>44637</v>
       </c>
-      <c r="G22" s="59">
+      <c r="G22" s="63">
         <v>44636</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="D23" s="59">
+        <v>306</v>
+      </c>
+      <c r="D23" s="63">
         <v>44652</v>
       </c>
-      <c r="E23" s="59">
+      <c r="E23" s="63">
         <v>44651</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="63">
         <v>44651</v>
       </c>
-      <c r="G23" s="59">
+      <c r="G23" s="63">
         <v>44650</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="D24" s="60">
+        <v>303</v>
+      </c>
+      <c r="D24" s="64">
         <v>44616</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="64">
         <v>44616</v>
       </c>
-      <c r="F24" s="60">
+      <c r="F24" s="64">
         <v>44616</v>
       </c>
-      <c r="G24" s="60">
+      <c r="G24" s="64">
         <v>44617</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="D25" s="60">
+        <v>304</v>
+      </c>
+      <c r="D25" s="64">
         <v>44630</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="64">
         <v>44629</v>
       </c>
-      <c r="F25" s="60">
+      <c r="F25" s="64">
         <v>44629</v>
       </c>
-      <c r="G25" s="60">
+      <c r="G25" s="64">
         <v>44628</v>
       </c>
     </row>

--- a/docs/overview.xlsx
+++ b/docs/overview.xlsx
@@ -978,7 +978,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -1009,13 +1009,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <b val="0"/>
-      <i val="0"/>
-      <sz val="11.000000"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="FreeSans"/>
       <b val="0"/>
       <i val="0"/>
       <sz val="11.000000"/>
@@ -1110,49 +1103,28 @@
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="3" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="33">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
@@ -1161,49 +1133,25 @@
     <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="1" applyFill="1">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="1" fillId="11" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="20" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="20" xfId="0" applyNumberFormat="1" applyFont="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1771,7 +1719,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1780,7 +1728,7 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2"/>
@@ -1788,26 +1736,26 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="2" t="b">
@@ -1818,26 +1766,26 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="2" t="b">
@@ -1848,26 +1796,26 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="2" t="b">
@@ -1878,26 +1826,26 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="2" t="b">
@@ -1908,26 +1856,26 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="2" t="b">
@@ -1938,26 +1886,26 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="2" t="b">
@@ -1968,26 +1916,26 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="2" t="b">
@@ -1998,26 +1946,26 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I9" s="2" t="b">
@@ -2028,26 +1976,26 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="I10" s="2" t="b">
@@ -2058,26 +2006,26 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="7" t="s">
         <v>48</v>
       </c>
       <c r="I11" s="2" t="b">
@@ -2091,26 +2039,26 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="7" t="s">
         <v>48</v>
       </c>
       <c r="I12" s="2" t="b">
@@ -2124,26 +2072,26 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="D13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="7" t="s">
         <v>48</v>
       </c>
       <c r="I13" s="2" t="b">
@@ -2154,26 +2102,26 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="D14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="7" t="s">
         <v>48</v>
       </c>
       <c r="I14" s="2" t="b">
@@ -2184,26 +2132,26 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="D15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12" t="s">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="7" t="s">
         <v>48</v>
       </c>
       <c r="I15" s="2" t="b">
@@ -2214,26 +2162,26 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="8" t="s">
         <v>65</v>
       </c>
       <c r="I16" s="2" t="b">
@@ -2244,26 +2192,26 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="8" t="s">
         <v>65</v>
       </c>
       <c r="I17" s="2" t="b">
@@ -2274,26 +2222,26 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14" t="s">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="8" t="s">
         <v>65</v>
       </c>
       <c r="I18" s="2" t="b">
@@ -2304,26 +2252,26 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14" t="s">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="8" t="s">
         <v>65</v>
       </c>
       <c r="I19" s="2" t="b">
@@ -2334,26 +2282,26 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="D20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14" t="s">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="8" t="s">
         <v>65</v>
       </c>
       <c r="I20" s="2" t="b">
@@ -2364,26 +2312,26 @@
       <c r="M20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="D21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="8" t="s">
         <v>65</v>
       </c>
       <c r="I21" s="2" t="b">
@@ -2394,26 +2342,26 @@
       <c r="M21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14" t="s">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="8" t="s">
         <v>65</v>
       </c>
       <c r="I22" s="2" t="b">
@@ -2424,26 +2372,26 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="D23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14" t="s">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="8" t="s">
         <v>65</v>
       </c>
       <c r="I23" s="2" t="b">
@@ -2454,26 +2402,26 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14" t="s">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="8" t="s">
         <v>65</v>
       </c>
       <c r="I24" s="2" t="b">
@@ -2484,26 +2432,26 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="15" t="s">
+      <c r="D25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14" t="s">
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="8" t="s">
         <v>65</v>
       </c>
       <c r="I25" s="2" t="b">
@@ -2514,308 +2462,308 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="17" t="s">
+      <c r="D26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16" t="s">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="16"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="D27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6" t="s">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I27" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J27" s="18"/>
+      <c r="J27" s="10"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="D28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6" t="s">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I28" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J28" s="18"/>
+      <c r="J28" s="10"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="D29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6" t="s">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I29" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J29" s="18"/>
+      <c r="J29" s="10"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6" t="s">
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I30" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J30" s="18"/>
+      <c r="J30" s="10"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="D31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6" t="s">
+      <c r="F31" s="4"/>
+      <c r="G31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I31" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="18"/>
+      <c r="I31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="D32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6" t="s">
+      <c r="F32" s="4"/>
+      <c r="G32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I32" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" s="18"/>
+      <c r="I32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="20" t="s">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I33" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" s="18"/>
+      <c r="I33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="10"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="D34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="20" t="s">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I34" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" s="18"/>
+      <c r="I34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="7" t="s">
+      <c r="D35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I35" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J35" s="21" t="s">
+      <c r="J35" s="11" t="s">
         <v>49</v>
       </c>
       <c r="K35" s="2"/>
@@ -2823,34 +2771,34 @@
       <c r="M35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="7" t="s">
+      <c r="D36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I36" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J36" s="21" t="s">
+      <c r="J36" s="11" t="s">
         <v>49</v>
       </c>
       <c r="K36" s="2"/>
@@ -2858,65 +2806,65 @@
       <c r="M36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="D37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="20" t="s">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I37" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J37" s="18"/>
+      <c r="J37" s="10"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="D38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I38" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J38" s="21" t="s">
+      <c r="J38" s="11" t="s">
         <v>49</v>
       </c>
       <c r="K38" s="2"/>
@@ -2924,34 +2872,34 @@
       <c r="M38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="7" t="s">
+      <c r="D39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I39" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J39" s="21" t="s">
+      <c r="J39" s="11" t="s">
         <v>49</v>
       </c>
       <c r="K39" s="2"/>
@@ -2959,65 +2907,65 @@
       <c r="M39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="22" t="s">
+      <c r="D40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="20" t="s">
+      <c r="F40" s="12"/>
+      <c r="G40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I40" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J40" s="18"/>
+      <c r="J40" s="10"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="22" t="s">
+      <c r="D41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="G41" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I41" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J41" s="24" t="s">
+      <c r="J41" s="11" t="s">
         <v>49</v>
       </c>
       <c r="K41" s="2"/>
@@ -3025,63 +2973,63 @@
       <c r="M41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="22" t="s">
+      <c r="D42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23" t="s">
+      <c r="F42" s="12"/>
+      <c r="G42" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I42" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J42" s="18"/>
+      <c r="J42" s="10"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="22" t="s">
+      <c r="D43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23" t="s">
+      <c r="F43" s="12"/>
+      <c r="G43" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I43" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J43" s="18"/>
+      <c r="J43" s="10"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -3162,22 +3110,22 @@
       <c r="E1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="13" t="s">
         <v>157</v>
       </c>
       <c r="G1" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -3237,37 +3185,37 @@
       <c r="AD1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AE1" s="27"/>
+      <c r="AE1" s="14"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="30">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="16">
         <v>43927</v>
       </c>
       <c r="N2" s="2"/>
@@ -3275,38 +3223,38 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>14</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="3">
         <v>7</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="K3" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="30">
+      <c r="K3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="16">
         <v>43930</v>
       </c>
       <c r="N3" s="2"/>
@@ -3314,38 +3262,38 @@
       <c r="P3" s="2"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>7</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="4">
         <v>8</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="K4" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="30">
+      <c r="K4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="16">
         <v>43936</v>
       </c>
       <c r="N4" s="2"/>
@@ -3353,38 +3301,38 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>14</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="4">
         <v>8</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="K5" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="30">
+      <c r="K5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="16">
         <v>43937</v>
       </c>
       <c r="N5" s="2"/>
@@ -3392,38 +3340,38 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>25</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="4">
         <v>7</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="K6" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="30">
+      <c r="K6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="16">
         <v>43938</v>
       </c>
       <c r="N6" s="2"/>
@@ -3431,38 +3379,38 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>7</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="4">
         <v>7</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="K7" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="30">
+      <c r="K7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16">
         <v>43941</v>
       </c>
       <c r="M7" s="1"/>
@@ -3471,38 +3419,38 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="5">
         <v>25</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="5">
         <v>7</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="K8" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="30">
+      <c r="K8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
         <v>43950</v>
       </c>
       <c r="M8" s="1"/>
@@ -3511,38 +3459,38 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="5">
         <v>10</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="5">
         <v>7</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="K9" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="30">
+      <c r="K9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16">
         <v>43951</v>
       </c>
       <c r="M9" s="1"/>
@@ -3551,38 +3499,38 @@
       <c r="P9" s="2"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="6">
         <v>12</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="6">
         <v>7</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="K10" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="30">
+      <c r="K10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16">
         <v>43991</v>
       </c>
       <c r="M10" s="1"/>
@@ -3591,34 +3539,34 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="7">
         <v>34</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40" t="b">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="16">
         <v>44165</v>
       </c>
       <c r="M11" s="1"/>
@@ -3627,34 +3575,34 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="7">
         <v>116</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40" t="b">
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="16">
         <v>44165</v>
       </c>
       <c r="M12" s="1"/>
@@ -3663,34 +3611,34 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="7">
         <v>226</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="30">
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="16">
         <v>44173</v>
       </c>
       <c r="M13" s="1"/>
@@ -3699,34 +3647,34 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="I14" s="40">
-        <v>0</v>
-      </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="30">
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="16">
         <v>44173</v>
       </c>
       <c r="M14" s="1"/>
@@ -3735,34 +3683,34 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="7">
         <v>6</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="30">
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="16">
         <v>44175</v>
       </c>
       <c r="M15" s="1"/>
@@ -3771,34 +3719,34 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="8">
         <v>15</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="30">
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="16">
         <v>44181</v>
       </c>
       <c r="M16" s="1"/>
@@ -3807,34 +3755,34 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15" t="s">
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="I17" s="41">
-        <v>0</v>
-      </c>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="30">
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="16">
         <v>44182</v>
       </c>
       <c r="M17" s="1"/>
@@ -3843,34 +3791,34 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="14" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="8">
         <v>39</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="30">
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="16">
         <v>44216</v>
       </c>
       <c r="M18" s="1"/>
@@ -3878,293 +3826,292 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="14" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="8">
         <v>23</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="30">
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="16">
         <v>44216</v>
       </c>
       <c r="M19" s="1"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="14" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="8">
         <v>43</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="30">
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
         <v>44217</v>
       </c>
       <c r="M20" s="1"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="14" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="8">
         <v>28</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="30">
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="16">
         <v>44217</v>
       </c>
       <c r="M21" s="1"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="14" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="8">
         <v>54</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="30">
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
         <v>44218</v>
       </c>
       <c r="M22" s="1"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="14" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="8">
         <v>53</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="30">
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="16">
         <v>44218</v>
       </c>
       <c r="M23" s="1"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="14" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="8">
         <v>54</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="30">
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="16">
         <v>44218</v>
       </c>
       <c r="M24" s="1"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="14" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="8">
         <v>65</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="30">
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="16">
         <v>44230</v>
       </c>
       <c r="M25" s="1"/>
     </row>
     <row r="26" s="0" customFormat="1" ht="14.25">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="G26" s="45"/>
-      <c r="H26" s="17" t="s">
+      <c r="G26" s="19"/>
+      <c r="H26" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="30">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="16">
         <v>48155</v>
       </c>
-      <c r="M26"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="C27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7" t="s">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="47">
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="20">
         <v>44573</v>
       </c>
-      <c r="M27" s="48">
+      <c r="M27" s="21">
         <v>0.54166666666666696</v>
       </c>
       <c r="N27" s="2">
@@ -4176,7 +4123,7 @@
       <c r="P27" s="2">
         <v>44</v>
       </c>
-      <c r="Q27" s="27"/>
+      <c r="Q27" s="14"/>
       <c r="R27" s="2" t="s">
         <v>217</v>
       </c>
@@ -4204,44 +4151,44 @@
       <c r="Z27" s="2">
         <v>3</v>
       </c>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
       <c r="AD27" s="2">
         <v>2</v>
       </c>
-      <c r="AE27" s="27"/>
+      <c r="AE27" s="14"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="C28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7" t="s">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="47">
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="20">
         <v>44574</v>
       </c>
-      <c r="M28" s="48">
+      <c r="M28" s="21">
         <v>0.59375</v>
       </c>
       <c r="N28" s="2">
@@ -4283,44 +4230,44 @@
       <c r="Z28" s="2">
         <v>3</v>
       </c>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
       <c r="AD28" s="2">
         <v>2</v>
       </c>
-      <c r="AE28" s="27"/>
+      <c r="AE28" s="14"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="C29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="7" t="s">
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="47">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="20">
         <v>44575</v>
       </c>
-      <c r="M29" s="48">
+      <c r="M29" s="21">
         <v>0.70833333333333304</v>
       </c>
       <c r="N29" s="2">
@@ -4332,7 +4279,7 @@
       <c r="P29" s="2">
         <v>49</v>
       </c>
-      <c r="Q29" s="27"/>
+      <c r="Q29" s="14"/>
       <c r="R29" s="2" t="s">
         <v>217</v>
       </c>
@@ -4360,44 +4307,44 @@
       <c r="Z29" s="2">
         <v>3</v>
       </c>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
       <c r="AD29" s="2">
         <v>2</v>
       </c>
-      <c r="AE29" s="27"/>
+      <c r="AE29" s="14"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="C30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7" t="s">
+      <c r="G30" s="4"/>
+      <c r="H30" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="47">
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="20">
         <v>44581</v>
       </c>
-      <c r="M30" s="48">
+      <c r="M30" s="21">
         <v>0.60416666666666696</v>
       </c>
       <c r="N30" s="2">
@@ -4409,7 +4356,7 @@
       <c r="P30" s="2">
         <v>59</v>
       </c>
-      <c r="Q30" s="27"/>
+      <c r="Q30" s="14"/>
       <c r="R30" s="2" t="s">
         <v>217</v>
       </c>
@@ -4437,44 +4384,44 @@
       <c r="Z30" s="2">
         <v>2</v>
       </c>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
       <c r="AD30" s="2">
         <v>1</v>
       </c>
-      <c r="AE30" s="27"/>
+      <c r="AE30" s="14"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="C31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7" t="s">
+      <c r="G31" s="4"/>
+      <c r="H31" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="47">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="20">
         <v>44587</v>
       </c>
-      <c r="M31" s="48">
+      <c r="M31" s="21">
         <v>0.47916666666666702</v>
       </c>
       <c r="N31" s="2">
@@ -4486,7 +4433,7 @@
       <c r="P31" s="2">
         <v>39</v>
       </c>
-      <c r="Q31" s="27"/>
+      <c r="Q31" s="14"/>
       <c r="R31" s="2" t="s">
         <v>217</v>
       </c>
@@ -4502,48 +4449,48 @@
       <c r="V31" s="2">
         <v>0</v>
       </c>
-      <c r="W31" s="27"/>
+      <c r="W31" s="14"/>
       <c r="X31" s="2">
         <v>0</v>
       </c>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="27"/>
-      <c r="AE31" s="27"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="C32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7" t="s">
+      <c r="G32" s="4"/>
+      <c r="H32" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="47">
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="20">
         <v>44587</v>
       </c>
-      <c r="M32" s="48">
+      <c r="M32" s="21">
         <v>0.52083333333333304</v>
       </c>
       <c r="N32" s="2">
@@ -4555,7 +4502,7 @@
       <c r="P32" s="2">
         <v>58</v>
       </c>
-      <c r="Q32" s="27"/>
+      <c r="Q32" s="14"/>
       <c r="R32" s="2" t="s">
         <v>217</v>
       </c>
@@ -4571,48 +4518,48 @@
       <c r="V32" s="2">
         <v>0</v>
       </c>
-      <c r="W32" s="27"/>
+      <c r="W32" s="14"/>
       <c r="X32" s="2">
         <v>0</v>
       </c>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="27"/>
-      <c r="AC32" s="27"/>
-      <c r="AD32" s="27"/>
-      <c r="AE32" s="27"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="C33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="7" t="s">
+      <c r="G33" s="4"/>
+      <c r="H33" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="47">
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="20">
         <v>44589</v>
       </c>
-      <c r="M33" s="48">
+      <c r="M33" s="21">
         <v>0.47916666666666702</v>
       </c>
       <c r="N33" s="2">
@@ -4624,7 +4571,7 @@
       <c r="P33" s="2">
         <v>58</v>
       </c>
-      <c r="Q33" s="27"/>
+      <c r="Q33" s="14"/>
       <c r="R33" s="2" t="s">
         <v>217</v>
       </c>
@@ -4652,44 +4599,44 @@
       <c r="Z33" s="2">
         <v>2</v>
       </c>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
       <c r="AD33" s="2">
         <v>1</v>
       </c>
-      <c r="AE33" s="27"/>
+      <c r="AE33" s="14"/>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="C34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="7" t="s">
+      <c r="G34" s="4"/>
+      <c r="H34" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="47">
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="20">
         <v>44595</v>
       </c>
-      <c r="M34" s="48">
+      <c r="M34" s="21">
         <v>0.55208333333333304</v>
       </c>
       <c r="N34" s="2">
@@ -4701,7 +4648,7 @@
       <c r="P34" s="2">
         <v>32</v>
       </c>
-      <c r="Q34" s="27"/>
+      <c r="Q34" s="14"/>
       <c r="R34" s="2" t="s">
         <v>217</v>
       </c>
@@ -4729,42 +4676,42 @@
       <c r="Z34" s="2">
         <v>0</v>
       </c>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="27"/>
-      <c r="AD34" s="27"/>
-      <c r="AE34" s="27"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="C35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="7" t="s">
+      <c r="G35" s="4"/>
+      <c r="H35" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="47">
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="20">
         <v>44600</v>
       </c>
-      <c r="M35" s="48">
+      <c r="M35" s="21">
         <v>0.51041666666666696</v>
       </c>
       <c r="N35" s="2">
@@ -4776,7 +4723,7 @@
       <c r="P35" s="2">
         <v>44</v>
       </c>
-      <c r="Q35" s="27"/>
+      <c r="Q35" s="14"/>
       <c r="R35" s="2" t="s">
         <v>217</v>
       </c>
@@ -4804,44 +4751,44 @@
       <c r="Z35" s="2">
         <v>0</v>
       </c>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="27"/>
-      <c r="AC35" s="27"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
       <c r="AD35" s="2">
         <v>1</v>
       </c>
-      <c r="AE35" s="27"/>
+      <c r="AE35" s="14"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="C36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="7" t="s">
+      <c r="G36" s="4"/>
+      <c r="H36" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="47">
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="20">
         <v>44600</v>
       </c>
-      <c r="M36" s="48">
+      <c r="M36" s="21">
         <v>0.53125</v>
       </c>
       <c r="N36" s="2">
@@ -4853,7 +4800,7 @@
       <c r="P36" s="2">
         <v>37</v>
       </c>
-      <c r="Q36" s="27"/>
+      <c r="Q36" s="14"/>
       <c r="R36" s="2" t="s">
         <v>217</v>
       </c>
@@ -4881,44 +4828,44 @@
       <c r="Z36" s="2">
         <v>0</v>
       </c>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="27"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
       <c r="AD36" s="2">
         <v>1</v>
       </c>
-      <c r="AE36" s="27"/>
+      <c r="AE36" s="14"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="C37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="7" t="s">
+      <c r="G37" s="4"/>
+      <c r="H37" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="47">
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="20">
         <v>44600</v>
       </c>
-      <c r="M37" s="48">
+      <c r="M37" s="21">
         <v>0.5625</v>
       </c>
       <c r="N37" s="2">
@@ -4930,7 +4877,7 @@
       <c r="P37" s="2">
         <v>51</v>
       </c>
-      <c r="Q37" s="27"/>
+      <c r="Q37" s="14"/>
       <c r="R37" s="2" t="s">
         <v>217</v>
       </c>
@@ -4958,44 +4905,44 @@
       <c r="Z37" s="2">
         <v>0</v>
       </c>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="27"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
       <c r="AD37" s="2">
         <v>1</v>
       </c>
-      <c r="AE37" s="27"/>
+      <c r="AE37" s="14"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="C38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="7" t="s">
+      <c r="G38" s="4"/>
+      <c r="H38" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="47">
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="20">
         <v>44608</v>
       </c>
-      <c r="M38" s="48">
+      <c r="M38" s="21">
         <v>0.55208333333333304</v>
       </c>
       <c r="N38" s="2">
@@ -5007,14 +4954,14 @@
       <c r="P38" s="2">
         <v>39</v>
       </c>
-      <c r="Q38" s="27"/>
+      <c r="Q38" s="14"/>
       <c r="R38" s="2" t="s">
         <v>217</v>
       </c>
       <c r="S38" s="2">
         <v>1</v>
       </c>
-      <c r="T38" s="27"/>
+      <c r="T38" s="14"/>
       <c r="U38" s="2">
         <v>0</v>
       </c>
@@ -5033,97 +4980,97 @@
       <c r="Z38" s="2">
         <v>1</v>
       </c>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="27"/>
-      <c r="AE38" s="27"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="C39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="7" t="s">
+      <c r="G39" s="4"/>
+      <c r="H39" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="47">
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="20">
         <v>44609</v>
       </c>
-      <c r="M39" s="27"/>
+      <c r="M39" s="14"/>
       <c r="N39" s="2">
         <v>1</v>
       </c>
       <c r="O39" s="2">
         <v>80</v>
       </c>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
       <c r="R39" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="27"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14"/>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="14"/>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="C40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="7" t="s">
+      <c r="G40" s="4"/>
+      <c r="H40" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="47">
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="20">
         <v>44615</v>
       </c>
-      <c r="M40" s="48">
+      <c r="M40" s="21">
         <v>0.625</v>
       </c>
       <c r="N40" s="2">
@@ -5135,7 +5082,7 @@
       <c r="P40" s="2">
         <v>39</v>
       </c>
-      <c r="Q40" s="27"/>
+      <c r="Q40" s="14"/>
       <c r="R40" s="2" t="s">
         <v>217</v>
       </c>
@@ -5163,42 +5110,42 @@
       <c r="Z40" s="2">
         <v>2</v>
       </c>
-      <c r="AA40" s="27"/>
-      <c r="AB40" s="27"/>
-      <c r="AC40" s="27"/>
-      <c r="AD40" s="27"/>
-      <c r="AE40" s="27"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="14"/>
     </row>
     <row r="41" ht="14.25">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="C41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="7" t="s">
+      <c r="G41" s="4"/>
+      <c r="H41" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="47">
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="20">
         <v>44615</v>
       </c>
-      <c r="M41" s="48">
+      <c r="M41" s="21">
         <v>0.6875</v>
       </c>
       <c r="N41" s="2">
@@ -5210,7 +5157,7 @@
       <c r="P41" s="2">
         <v>45</v>
       </c>
-      <c r="Q41" s="27"/>
+      <c r="Q41" s="14"/>
       <c r="R41" s="2" t="s">
         <v>217</v>
       </c>
@@ -5238,42 +5185,42 @@
       <c r="Z41" s="2">
         <v>2</v>
       </c>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="27"/>
-      <c r="AE41" s="27"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14"/>
+      <c r="AC41" s="14"/>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="14"/>
     </row>
     <row r="42" ht="14.25">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="C42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="7" t="s">
+      <c r="G42" s="4"/>
+      <c r="H42" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="47">
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="20">
         <v>44616</v>
       </c>
-      <c r="M42" s="48">
+      <c r="M42" s="21">
         <v>0.52083333333333304</v>
       </c>
       <c r="N42" s="2">
@@ -5285,18 +5232,18 @@
       <c r="P42" s="2">
         <v>42</v>
       </c>
-      <c r="Q42" s="27"/>
+      <c r="Q42" s="14"/>
       <c r="R42" s="2" t="s">
         <v>217</v>
       </c>
       <c r="S42" s="2">
         <v>0</v>
       </c>
-      <c r="T42" s="27"/>
+      <c r="T42" s="14"/>
       <c r="U42" s="2">
         <v>0</v>
       </c>
-      <c r="V42" s="27"/>
+      <c r="V42" s="14"/>
       <c r="W42" s="2">
         <v>5</v>
       </c>
@@ -5309,42 +5256,42 @@
       <c r="Z42" s="2">
         <v>2</v>
       </c>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="27"/>
-      <c r="AD42" s="27"/>
-      <c r="AE42" s="27"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
     </row>
     <row r="43" ht="14.25">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="C43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="7" t="s">
+      <c r="G43" s="4"/>
+      <c r="H43" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="47">
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="20">
         <v>44616</v>
       </c>
-      <c r="M43" s="48">
+      <c r="M43" s="21">
         <v>0.5625</v>
       </c>
       <c r="N43" s="2">
@@ -5356,7 +5303,7 @@
       <c r="P43" s="2">
         <v>52</v>
       </c>
-      <c r="Q43" s="27"/>
+      <c r="Q43" s="14"/>
       <c r="R43" s="2" t="s">
         <v>217</v>
       </c>
@@ -5384,42 +5331,42 @@
       <c r="Z43" s="2">
         <v>2</v>
       </c>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
-      <c r="AD43" s="27"/>
-      <c r="AE43" s="27"/>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="14"/>
+      <c r="AC43" s="14"/>
+      <c r="AD43" s="14"/>
+      <c r="AE43" s="14"/>
     </row>
     <row r="44" ht="14.25">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="6" t="s">
+      <c r="C44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="7" t="s">
+      <c r="G44" s="4"/>
+      <c r="H44" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="47">
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="20">
         <v>44622</v>
       </c>
-      <c r="M44" s="48">
+      <c r="M44" s="21">
         <v>0.52083333333333304</v>
       </c>
       <c r="N44" s="2">
@@ -5431,7 +5378,7 @@
       <c r="P44" s="2">
         <v>58</v>
       </c>
-      <c r="Q44" s="27"/>
+      <c r="Q44" s="14"/>
       <c r="R44" s="2" t="s">
         <v>217</v>
       </c>
@@ -5459,42 +5406,42 @@
       <c r="Z44" s="2">
         <v>2</v>
       </c>
-      <c r="AA44" s="27"/>
-      <c r="AB44" s="27"/>
-      <c r="AC44" s="27"/>
-      <c r="AD44" s="27"/>
-      <c r="AE44" s="27"/>
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="14"/>
+      <c r="AC44" s="14"/>
+      <c r="AD44" s="14"/>
+      <c r="AE44" s="14"/>
     </row>
     <row r="45" ht="14.25">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="6" t="s">
+      <c r="C45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G45" s="6"/>
-      <c r="H45" s="7" t="s">
+      <c r="G45" s="4"/>
+      <c r="H45" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="47">
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="20">
         <v>44629</v>
       </c>
-      <c r="M45" s="48">
+      <c r="M45" s="21">
         <v>0.5</v>
       </c>
       <c r="N45" s="2">
@@ -5515,7 +5462,7 @@
       <c r="S45" s="2">
         <v>0</v>
       </c>
-      <c r="T45" s="27"/>
+      <c r="T45" s="14"/>
       <c r="U45" s="2">
         <v>1</v>
       </c>
@@ -5534,44 +5481,44 @@
       <c r="Z45" s="2">
         <v>1</v>
       </c>
-      <c r="AA45" s="27"/>
-      <c r="AB45" s="27"/>
-      <c r="AC45" s="48">
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="14"/>
+      <c r="AC45" s="21">
         <v>0.77777777777777801</v>
       </c>
-      <c r="AD45" s="27"/>
-      <c r="AE45" s="27"/>
+      <c r="AD45" s="14"/>
+      <c r="AE45" s="14"/>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="C46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="7" t="s">
+      <c r="G46" s="4"/>
+      <c r="H46" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="47">
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="20">
         <v>44629</v>
       </c>
-      <c r="M46" s="48">
+      <c r="M46" s="21">
         <v>0.53125</v>
       </c>
       <c r="N46" s="2">
@@ -5613,44 +5560,44 @@
       <c r="Z46" s="2">
         <v>1</v>
       </c>
-      <c r="AA46" s="27"/>
-      <c r="AB46" s="27"/>
-      <c r="AC46" s="48">
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="14"/>
+      <c r="AC46" s="21">
         <v>0.77777777777777801</v>
       </c>
-      <c r="AD46" s="27"/>
-      <c r="AE46" s="27"/>
+      <c r="AD46" s="14"/>
+      <c r="AE46" s="14"/>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="6" t="s">
+      <c r="C47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="7" t="s">
+      <c r="G47" s="4"/>
+      <c r="H47" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="47">
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="20">
         <v>44637</v>
       </c>
-      <c r="M47" s="48">
+      <c r="M47" s="21">
         <v>0.52083333333333304</v>
       </c>
       <c r="N47" s="2">
@@ -5677,7 +5624,7 @@
       <c r="U47" s="2">
         <v>0</v>
       </c>
-      <c r="V47" s="27"/>
+      <c r="V47" s="14"/>
       <c r="W47" s="2">
         <v>5</v>
       </c>
@@ -5690,48 +5637,48 @@
       <c r="Z47" s="2">
         <v>0</v>
       </c>
-      <c r="AA47" s="48">
+      <c r="AA47" s="21">
         <v>0.56111111111111101</v>
       </c>
-      <c r="AB47" s="48">
+      <c r="AB47" s="21">
         <v>0.625</v>
       </c>
-      <c r="AC47" s="48">
+      <c r="AC47" s="21">
         <v>0.64375000000000004</v>
       </c>
-      <c r="AD47" s="27"/>
-      <c r="AE47" s="27"/>
+      <c r="AD47" s="14"/>
+      <c r="AE47" s="14"/>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="6" t="s">
+      <c r="C48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="7" t="s">
+      <c r="G48" s="4"/>
+      <c r="H48" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="47">
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="20">
         <v>44648</v>
       </c>
-      <c r="M48" s="48">
+      <c r="M48" s="21">
         <v>0.51041666666666696</v>
       </c>
       <c r="N48" s="2">
@@ -5752,11 +5699,11 @@
       <c r="S48" s="2">
         <v>0</v>
       </c>
-      <c r="T48" s="27"/>
+      <c r="T48" s="14"/>
       <c r="U48" s="2">
         <v>0</v>
       </c>
-      <c r="V48" s="27"/>
+      <c r="V48" s="14"/>
       <c r="W48" s="2">
         <v>5</v>
       </c>
@@ -5769,42 +5716,42 @@
       <c r="Z48" s="2">
         <v>3</v>
       </c>
-      <c r="AA48" s="27"/>
-      <c r="AB48" s="27"/>
-      <c r="AC48" s="27"/>
-      <c r="AD48" s="27"/>
-      <c r="AE48" s="27"/>
+      <c r="AA48" s="14"/>
+      <c r="AB48" s="14"/>
+      <c r="AC48" s="14"/>
+      <c r="AD48" s="14"/>
+      <c r="AE48" s="14"/>
     </row>
     <row r="49" ht="14.25">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="6" t="s">
+      <c r="C49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6" t="s">
+      <c r="G49" s="4"/>
+      <c r="H49" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="47">
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="20">
         <v>44651</v>
       </c>
-      <c r="M49" s="48">
+      <c r="M49" s="21">
         <v>0.5625</v>
       </c>
       <c r="N49" s="2">
@@ -5813,22 +5760,22 @@
       <c r="O49" s="2">
         <v>80</v>
       </c>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="27"/>
-      <c r="W49" s="27"/>
-      <c r="X49" s="27"/>
-      <c r="Y49" s="27"/>
-      <c r="Z49" s="27"/>
-      <c r="AA49" s="27"/>
-      <c r="AB49" s="27"/>
-      <c r="AC49" s="27"/>
-      <c r="AD49" s="27"/>
-      <c r="AE49" s="27"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="14"/>
+      <c r="Z49" s="14"/>
+      <c r="AA49" s="14"/>
+      <c r="AB49" s="14"/>
+      <c r="AC49" s="14"/>
+      <c r="AD49" s="14"/>
+      <c r="AE49" s="14"/>
     </row>
     <row r="50" ht="14.25"/>
     <row r="51" ht="14.25"/>
@@ -5890,31 +5837,31 @@
       <c r="G1" t="s">
         <v>262</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="14" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5928,7 +5875,7 @@
       <c r="E2" t="s">
         <v>272</v>
       </c>
-      <c r="H2" s="50"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -5946,7 +5893,7 @@
       <c r="E3" t="s">
         <v>274</v>
       </c>
-      <c r="H3" s="50"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -5964,7 +5911,7 @@
       <c r="E4" t="s">
         <v>272</v>
       </c>
-      <c r="H4" s="50"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -5982,7 +5929,7 @@
       <c r="E5" t="s">
         <v>274</v>
       </c>
-      <c r="H5" s="50"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -6000,7 +5947,7 @@
       <c r="E6" t="s">
         <v>274</v>
       </c>
-      <c r="H6" s="50"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -6018,7 +5965,7 @@
       <c r="E7" t="s">
         <v>274</v>
       </c>
-      <c r="H7" s="50"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -6036,7 +5983,7 @@
       <c r="E8" t="s">
         <v>272</v>
       </c>
-      <c r="H8" s="50"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -6054,23 +6001,23 @@
       <c r="E9" t="s">
         <v>274</v>
       </c>
-      <c r="H9" s="50"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D10">
         <v>43</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H10" s="50"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11">
       <c r="B11" t="s">
@@ -6085,7 +6032,7 @@
       <c r="E11" t="s">
         <v>274</v>
       </c>
-      <c r="H11" s="50"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12">
       <c r="B12" t="s">
@@ -6100,7 +6047,7 @@
       <c r="E12" t="s">
         <v>274</v>
       </c>
-      <c r="H12" s="50"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13">
       <c r="B13" s="1" t="s">
@@ -6109,13 +6056,13 @@
       <c r="C13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="1">
         <v>38</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="H13" s="50"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14">
       <c r="B14" s="1" t="s">
@@ -6124,9 +6071,9 @@
       <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="H14" s="50"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15">
       <c r="B15" t="s">
@@ -6141,7 +6088,7 @@
       <c r="E15" t="s">
         <v>274</v>
       </c>
-      <c r="H15" s="50"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -6159,19 +6106,19 @@
       <c r="E16" t="s">
         <v>274</v>
       </c>
-      <c r="H16" s="50"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17">
-      <c r="A17" s="51"/>
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="H17" s="50"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18">
       <c r="B18" t="s">
@@ -6186,7 +6133,7 @@
       <c r="E18" t="s">
         <v>274</v>
       </c>
-      <c r="H18" s="50"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19">
       <c r="B19" t="s">
@@ -6201,7 +6148,7 @@
       <c r="E19" t="s">
         <v>272</v>
       </c>
-      <c r="H19" s="50"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -6219,7 +6166,7 @@
       <c r="E20" t="s">
         <v>274</v>
       </c>
-      <c r="H20" s="50"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21">
       <c r="B21" t="s">
@@ -6234,7 +6181,7 @@
       <c r="E21" t="s">
         <v>274</v>
       </c>
-      <c r="H21" s="50"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -6252,7 +6199,7 @@
       <c r="E22" t="s">
         <v>274</v>
       </c>
-      <c r="H22" s="50"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -6270,7 +6217,7 @@
       <c r="E23" t="s">
         <v>274</v>
       </c>
-      <c r="H23" s="50"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24">
       <c r="B24" t="s">
@@ -6285,7 +6232,7 @@
       <c r="E24" t="s">
         <v>274</v>
       </c>
-      <c r="H24" s="50"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25">
       <c r="B25" s="1" t="s">
@@ -6297,373 +6244,371 @@
       <c r="D25" s="1">
         <v>76</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="H25" s="50"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26">
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26" s="53"/>
-      <c r="H26" s="50"/>
+      <c r="E26" s="1"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="54" t="s">
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="G27" s="54" t="s">
+      <c r="G27" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="H27" s="56">
+      <c r="H27" s="24">
         <v>44544</v>
       </c>
-      <c r="I27" s="56">
+      <c r="I27" s="24">
         <v>44544</v>
       </c>
-      <c r="J27" s="56">
+      <c r="J27" s="24">
         <v>44566</v>
       </c>
-      <c r="K27" s="54">
+      <c r="K27" s="22">
         <v>144</v>
       </c>
-      <c r="L27" s="56">
+      <c r="L27" s="24">
         <v>44557</v>
       </c>
-      <c r="M27" s="56">
+      <c r="M27" s="24">
         <v>44594</v>
       </c>
-      <c r="N27" s="56">
+      <c r="N27" s="24">
         <v>44567</v>
       </c>
-      <c r="O27" s="56">
+      <c r="O27" s="24">
         <v>44588</v>
       </c>
-      <c r="P27" s="56">
+      <c r="P27" s="24">
         <v>44596</v>
       </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="57" t="s">
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="G28" s="57" t="s">
+      <c r="G28" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="H28" s="59">
+      <c r="H28" s="27">
         <v>44547</v>
       </c>
-      <c r="I28" s="59">
+      <c r="I28" s="27">
         <v>44547</v>
       </c>
-      <c r="J28" s="59">
+      <c r="J28" s="27">
         <v>44563</v>
       </c>
-      <c r="K28" s="57">
+      <c r="K28" s="25">
         <v>144</v>
       </c>
-      <c r="L28" s="59">
+      <c r="L28" s="27">
         <v>44547</v>
       </c>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59">
+      <c r="M28" s="27"/>
+      <c r="N28" s="27">
         <v>44564</v>
       </c>
-      <c r="O28" s="59">
+      <c r="O28" s="27">
         <v>44616</v>
       </c>
-      <c r="P28" s="57"/>
+      <c r="P28" s="25"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="60" t="s">
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="G29" s="60" t="s">
+      <c r="G29" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="H29" s="62">
+      <c r="H29" s="30">
         <v>44564</v>
       </c>
-      <c r="I29" s="62">
+      <c r="I29" s="30">
         <v>44564</v>
       </c>
-      <c r="J29" s="62">
+      <c r="J29" s="30">
         <v>44573</v>
       </c>
-      <c r="K29" s="60">
+      <c r="K29" s="28">
         <v>144</v>
       </c>
-      <c r="L29" s="62">
+      <c r="L29" s="30">
         <v>44570</v>
       </c>
-      <c r="M29" s="62" t="s">
+      <c r="M29" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="N29" s="62">
+      <c r="N29" s="30">
         <v>44573</v>
       </c>
-      <c r="O29" s="62" t="s">
+      <c r="O29" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="P29" s="62">
+      <c r="P29" s="30">
         <v>44584</v>
       </c>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="60" t="s">
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="G30" s="60" t="s">
+      <c r="G30" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="H30" s="62">
+      <c r="H30" s="30">
         <v>44560</v>
       </c>
-      <c r="I30" s="62">
+      <c r="I30" s="30">
         <v>44563</v>
       </c>
-      <c r="J30" s="62">
+      <c r="J30" s="30">
         <v>44577</v>
       </c>
-      <c r="K30" s="60">
+      <c r="K30" s="28">
         <v>144</v>
       </c>
-      <c r="L30" s="62">
+      <c r="L30" s="30">
         <v>44563</v>
       </c>
-      <c r="M30" s="62" t="s">
+      <c r="M30" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="N30" s="62">
+      <c r="N30" s="30">
         <v>44563</v>
       </c>
-      <c r="O30" s="62" t="s">
+      <c r="O30" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="P30" s="62">
+      <c r="P30" s="30">
         <v>44616</v>
       </c>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="54" t="s">
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="G31" s="54" t="s">
+      <c r="G31" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="H31" s="56">
+      <c r="H31" s="24">
         <v>44564</v>
       </c>
-      <c r="I31" s="56">
+      <c r="I31" s="24">
         <v>44569</v>
       </c>
-      <c r="J31" s="56">
+      <c r="J31" s="24">
         <v>44585</v>
       </c>
-      <c r="K31" s="54">
+      <c r="K31" s="22">
         <v>144</v>
       </c>
-      <c r="L31" s="56">
+      <c r="L31" s="24">
         <v>44569</v>
       </c>
-      <c r="M31" s="56">
+      <c r="M31" s="24">
         <v>44633</v>
       </c>
-      <c r="N31" s="56">
+      <c r="N31" s="24">
         <v>44585</v>
       </c>
-      <c r="O31" s="56">
+      <c r="O31" s="24">
         <v>44630</v>
       </c>
-      <c r="P31" s="56">
+      <c r="P31" s="24">
         <v>44636</v>
       </c>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="60" t="s">
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="G32" s="60"/>
-      <c r="H32" s="62">
+      <c r="G32" s="28"/>
+      <c r="H32" s="30">
         <v>44569</v>
       </c>
-      <c r="I32" s="62">
+      <c r="I32" s="30">
         <v>44576</v>
       </c>
-      <c r="J32" s="62">
+      <c r="J32" s="30">
         <v>44599</v>
       </c>
-      <c r="K32" s="60">
+      <c r="K32" s="28">
         <v>144</v>
       </c>
-      <c r="L32" s="62">
+      <c r="L32" s="30">
         <v>44578</v>
       </c>
-      <c r="M32" s="62" t="s">
+      <c r="M32" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="N32" s="62">
+      <c r="N32" s="30">
         <v>44599</v>
       </c>
-      <c r="O32" s="62" t="s">
+      <c r="O32" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="P32" s="62">
+      <c r="P32" s="30">
         <v>44621</v>
       </c>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="54" t="s">
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="G33" s="54"/>
-      <c r="H33" s="56">
+      <c r="G33" s="22"/>
+      <c r="H33" s="24">
         <v>44585</v>
       </c>
-      <c r="I33" s="56">
+      <c r="I33" s="24">
         <v>44585</v>
       </c>
-      <c r="J33" s="56">
+      <c r="J33" s="24">
         <v>44597</v>
       </c>
-      <c r="K33" s="54">
+      <c r="K33" s="22">
         <v>144</v>
       </c>
-      <c r="L33" s="56">
+      <c r="L33" s="24">
         <v>44585</v>
       </c>
-      <c r="M33" s="56">
+      <c r="M33" s="24">
         <v>44658</v>
       </c>
-      <c r="N33" s="56">
+      <c r="N33" s="24">
         <v>44597</v>
       </c>
-      <c r="O33" s="56">
+      <c r="O33" s="24">
         <v>44653</v>
       </c>
-      <c r="P33" s="54"/>
+      <c r="P33" s="22"/>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="60" t="s">
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="G34" s="60"/>
-      <c r="H34" s="62">
+      <c r="G34" s="28"/>
+      <c r="H34" s="30">
         <v>44607</v>
       </c>
-      <c r="I34" s="62">
+      <c r="I34" s="30">
         <v>44607</v>
       </c>
-      <c r="J34" s="62">
+      <c r="J34" s="30">
         <v>44612</v>
       </c>
-      <c r="K34" s="60">
+      <c r="K34" s="28">
         <v>144</v>
       </c>
-      <c r="L34" s="62">
+      <c r="L34" s="30">
         <v>44608</v>
       </c>
-      <c r="M34" s="62" t="s">
+      <c r="M34" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="N34" s="62">
+      <c r="N34" s="30">
         <v>44613</v>
       </c>
-      <c r="O34" s="62" t="s">
+      <c r="O34" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="P34" s="62">
+      <c r="P34" s="30">
         <v>44641</v>
       </c>
     </row>
@@ -6703,7 +6648,7 @@
       <c r="C1" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="16" t="s">
         <v>298</v>
       </c>
       <c r="E1" t="s">
@@ -6717,547 +6662,547 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D2" s="63">
+      <c r="D2" s="31">
         <v>44568</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31">
         <v>44573</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="31">
         <v>44573</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="31">
         <v>44573</v>
       </c>
-      <c r="I3" s="50"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="31">
         <v>44585</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="31">
         <v>44587</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="31">
         <v>44587</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="31">
         <v>44588</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="32">
         <v>44574</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="32">
         <v>44574</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="32">
         <v>44574</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="32">
         <v>44573</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="32">
         <v>44587</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="32">
         <v>44589</v>
       </c>
-      <c r="F6" s="64">
+      <c r="F6" s="32">
         <v>44589</v>
       </c>
-      <c r="G6" s="64">
+      <c r="G6" s="32">
         <v>44588</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="32">
         <v>44601</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="32">
         <v>44600</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="32">
         <v>44600</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="32">
         <v>44601</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="32">
         <v>44614</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="32">
         <v>44616</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="32">
         <v>44616</v>
       </c>
-      <c r="G8" s="64">
+      <c r="G8" s="32">
         <v>44617</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="32">
         <v>44645</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="32">
         <v>44648</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="32">
         <v>44648</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="32">
         <v>44650</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="31">
         <v>44575</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="31">
         <v>44575</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="31">
         <v>44575</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="31">
         <v>44578</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="32">
         <v>44581</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="32">
         <v>44581</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="32">
         <v>44581</v>
       </c>
-      <c r="G11" s="64">
+      <c r="G11" s="32">
         <v>44582</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="32">
         <v>44594</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="32">
         <v>44595</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="32">
         <v>44595</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="32">
         <v>44596</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="32">
         <v>44609</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="32">
         <v>44608</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="32">
         <v>44608</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G13" s="32">
         <v>44610</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="31">
         <v>44585</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="31">
         <v>44587</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="31">
         <v>44587</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="31">
         <v>44588</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="31">
         <v>44600</v>
       </c>
-      <c r="E15" s="63">
+      <c r="E15" s="31">
         <v>44600</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="31">
         <v>44600</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="31">
         <v>44601</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="31">
         <v>44615</v>
       </c>
-      <c r="E16" s="63">
+      <c r="E16" s="31">
         <v>44615</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="31">
         <v>44615</v>
       </c>
-      <c r="G16" s="63">
+      <c r="G16" s="31">
         <v>44617</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="31">
         <v>44627</v>
       </c>
-      <c r="E17" s="63">
+      <c r="E17" s="31">
         <v>44629</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="31">
         <v>44629</v>
       </c>
-      <c r="G17" s="63">
+      <c r="G17" s="31">
         <v>44628</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="32">
         <v>44601</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="32">
         <v>44600</v>
       </c>
-      <c r="F18" s="64">
+      <c r="F18" s="32">
         <v>44600</v>
       </c>
-      <c r="G18" s="64">
+      <c r="G18" s="32">
         <v>44601</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="32">
         <v>44614</v>
       </c>
-      <c r="E19" s="64">
+      <c r="E19" s="32">
         <v>44615</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="32">
         <v>44615</v>
       </c>
-      <c r="G19" s="64">
+      <c r="G19" s="32">
         <v>44617</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="31">
         <v>44610</v>
       </c>
-      <c r="E20" s="63">
+      <c r="E20" s="31">
         <v>44609</v>
       </c>
-      <c r="F20" s="63">
+      <c r="F20" s="31">
         <v>44609</v>
       </c>
-      <c r="G20" s="63">
+      <c r="G20" s="31">
         <v>44610</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="31">
         <v>44623</v>
       </c>
-      <c r="E21" s="63">
+      <c r="E21" s="31">
         <v>44622</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="31">
         <v>44622</v>
       </c>
-      <c r="G21" s="63">
+      <c r="G21" s="31">
         <v>44623</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D22" s="31">
         <v>44638</v>
       </c>
-      <c r="E22" s="63">
+      <c r="E22" s="31">
         <v>44637</v>
       </c>
-      <c r="F22" s="63">
+      <c r="F22" s="31">
         <v>44637</v>
       </c>
-      <c r="G22" s="63">
+      <c r="G22" s="31">
         <v>44636</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="31">
         <v>44652</v>
       </c>
-      <c r="E23" s="63">
+      <c r="E23" s="31">
         <v>44651</v>
       </c>
-      <c r="F23" s="63">
+      <c r="F23" s="31">
         <v>44651</v>
       </c>
-      <c r="G23" s="63">
+      <c r="G23" s="31">
         <v>44650</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D24" s="64">
+      <c r="D24" s="32">
         <v>44616</v>
       </c>
-      <c r="E24" s="64">
+      <c r="E24" s="32">
         <v>44616</v>
       </c>
-      <c r="F24" s="64">
+      <c r="F24" s="32">
         <v>44616</v>
       </c>
-      <c r="G24" s="64">
+      <c r="G24" s="32">
         <v>44617</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D25" s="64">
+      <c r="D25" s="32">
         <v>44630</v>
       </c>
-      <c r="E25" s="64">
+      <c r="E25" s="32">
         <v>44629</v>
       </c>
-      <c r="F25" s="64">
+      <c r="F25" s="32">
         <v>44629</v>
       </c>
-      <c r="G25" s="64">
+      <c r="G25" s="32">
         <v>44628</v>
       </c>
     </row>

--- a/docs/overview.xlsx
+++ b/docs/overview.xlsx
@@ -1,1023 +1,1198 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="libraries" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="samples" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="patients" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="examinations" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="libraries" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="samples" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="patients" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="examinations" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="hto_features" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="hto_indices" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
-  <si>
-    <t>libname</t>
-  </si>
-  <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t>cohort</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="false"/>
-        <i val="false"/>
-        <sz val="11"/>
-        <rFont val="FreeSans"/>
-      </rPr>
-      <t>lane</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="false"/>
-        <i val="false"/>
-        <sz val="11"/>
-        <rFont val="FreeSans"/>
-      </rPr>
-      <t>index</t>
-    </r>
-  </si>
-  <si>
-    <t>TotalSeq-A</t>
-  </si>
-  <si>
-    <t>Chemistry</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="false"/>
-        <i val="false"/>
-        <sz val="11"/>
-        <rFont val="FreeSans"/>
-      </rPr>
-      <t>run</t>
-    </r>
-  </si>
-  <si>
-    <t>frozen</t>
-  </si>
-  <si>
-    <t>freeze_method</t>
-  </si>
-  <si>
-    <t>L01</t>
-  </si>
-  <si>
-    <t>BAL_1</t>
-  </si>
-  <si>
-    <t>Removed</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>SI-GA-C3</t>
-  </si>
-  <si>
-    <t>SC3Pv3_1</t>
-  </si>
-  <si>
-    <t>200416_A00278_0146_AHFGNHDRXX</t>
-  </si>
-  <si>
-    <t>L02</t>
-  </si>
-  <si>
-    <t>BAL_2</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>SI-GA-C4</t>
-  </si>
-  <si>
-    <t>L03</t>
-  </si>
-  <si>
-    <t>BAL_3</t>
-  </si>
-  <si>
-    <t>SI-GA-C5</t>
-  </si>
-  <si>
-    <t>200429_A00278_0153_AHFTFTDRXX</t>
-  </si>
-  <si>
-    <t>L04</t>
-  </si>
-  <si>
-    <t>BAL_4</t>
-  </si>
-  <si>
-    <t>SI-GA-C6</t>
-  </si>
-  <si>
-    <t>L05</t>
-  </si>
-  <si>
-    <t>BAL_5</t>
-  </si>
-  <si>
-    <t>SI-GA-C7</t>
-  </si>
-  <si>
-    <t>L06</t>
-  </si>
-  <si>
-    <t>BAL_6</t>
-  </si>
-  <si>
-    <t>SI-GA-D9</t>
-  </si>
-  <si>
-    <t>L07</t>
-  </si>
-  <si>
-    <t>BAL_7</t>
-  </si>
-  <si>
-    <t>SI-GA-E3</t>
-  </si>
-  <si>
-    <t>200603_A00643_0054_AHLCW5DRXX</t>
-  </si>
-  <si>
-    <t>L08</t>
-  </si>
-  <si>
-    <t>BAL_8</t>
-  </si>
-  <si>
-    <t>SI-GA-E4</t>
-  </si>
-  <si>
-    <t>L09</t>
-  </si>
-  <si>
-    <t>BAL_9</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SI-GA-H4</t>
-  </si>
-  <si>
-    <t>200701_A00643_0061_AHMNCCDRXX</t>
-  </si>
-  <si>
-    <t>L10</t>
-  </si>
-  <si>
-    <t>BAL_13</t>
-  </si>
-  <si>
-    <t>210111_A00643_0164_BHYMK7DRXX_P893</t>
-  </si>
-  <si>
-    <t>DMSO</t>
-  </si>
-  <si>
-    <t>L11</t>
-  </si>
-  <si>
-    <t>BAL_14</t>
-  </si>
-  <si>
-    <t>L12</t>
-  </si>
-  <si>
-    <t>BAL_15</t>
-  </si>
-  <si>
-    <t>SI-GA-D12</t>
-  </si>
-  <si>
-    <t>L13</t>
-  </si>
-  <si>
-    <t>BAL_16</t>
-  </si>
-  <si>
-    <t>SI-GA-E1</t>
-  </si>
-  <si>
-    <t>L14</t>
-  </si>
-  <si>
-    <t>BAL_17</t>
-  </si>
-  <si>
-    <t>SI-GA-E2</t>
-  </si>
-  <si>
-    <t>L16</t>
-  </si>
-  <si>
-    <t>BAL_19</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>SI-GA-E5</t>
-  </si>
-  <si>
-    <t>210215_A00643_0181_BHVFHHDSXY</t>
-  </si>
-  <si>
-    <t>L17</t>
-  </si>
-  <si>
-    <t>BAL_20</t>
-  </si>
-  <si>
-    <t>SI-GA-E6</t>
-  </si>
-  <si>
-    <t>L18</t>
-  </si>
-  <si>
-    <t>BAL_21</t>
-  </si>
-  <si>
-    <t>SI-GA-E7</t>
-  </si>
-  <si>
-    <t>L19</t>
-  </si>
-  <si>
-    <t>BAL_22</t>
-  </si>
-  <si>
-    <t>SI-GA-E8</t>
-  </si>
-  <si>
-    <t>L20</t>
-  </si>
-  <si>
-    <t>BAL_23</t>
-  </si>
-  <si>
-    <t>SI-GA-F10</t>
-  </si>
-  <si>
-    <t>L21</t>
-  </si>
-  <si>
-    <t>BAL_24</t>
-  </si>
-  <si>
-    <t>SI-GA-F11</t>
-  </si>
-  <si>
-    <t>L22</t>
-  </si>
-  <si>
-    <t>BAL_25</t>
-  </si>
-  <si>
-    <t>SI-GA-E11</t>
-  </si>
-  <si>
-    <t>L23</t>
-  </si>
-  <si>
-    <t>BAL_26</t>
-  </si>
-  <si>
-    <t>SI-GA-F12</t>
-  </si>
-  <si>
-    <t>L24</t>
-  </si>
-  <si>
-    <t>BAL_27</t>
-  </si>
-  <si>
-    <t>SI-GA-G1</t>
-  </si>
-  <si>
-    <t>L25</t>
-  </si>
-  <si>
-    <t>BAL_28</t>
-  </si>
-  <si>
-    <t>SI-GA-G2</t>
-  </si>
-  <si>
-    <t>L26</t>
-  </si>
-  <si>
-    <t>BAL_30</t>
-  </si>
-  <si>
-    <t>SI-GA-B10</t>
-  </si>
-  <si>
-    <t>L28</t>
-  </si>
-  <si>
-    <t>BAL_31</t>
-  </si>
-  <si>
-    <t>Recovery</t>
-  </si>
-  <si>
-    <t>SI-TT-D6</t>
-  </si>
-  <si>
-    <t>221014_A00643_0567_AHYMN3DSX3</t>
-  </si>
-  <si>
-    <t>L29</t>
-  </si>
-  <si>
-    <t>BAL_32</t>
-  </si>
-  <si>
-    <t>SI-TT-D8</t>
-  </si>
-  <si>
-    <t>L30</t>
-  </si>
-  <si>
-    <t>BAL_33</t>
-  </si>
-  <si>
-    <t>SI-TT-D9</t>
-  </si>
-  <si>
-    <t>L31</t>
-  </si>
-  <si>
-    <t>BAL_34</t>
-  </si>
-  <si>
-    <t>SI-TT-D10</t>
-  </si>
-  <si>
-    <t>L32</t>
-  </si>
-  <si>
-    <t>BAL_35</t>
-  </si>
-  <si>
-    <t>SI-TT-D11</t>
-  </si>
-  <si>
-    <t>L33</t>
-  </si>
-  <si>
-    <t>BAL_36</t>
-  </si>
-  <si>
-    <t>SI-TT-D12</t>
-  </si>
-  <si>
-    <t>L34</t>
-  </si>
-  <si>
-    <t>BAL_42</t>
-  </si>
-  <si>
-    <t>SI-TT-E1</t>
-  </si>
-  <si>
-    <t>L35</t>
-  </si>
-  <si>
-    <t>BAL_43</t>
-  </si>
-  <si>
-    <t>SI-TT-E2</t>
-  </si>
-  <si>
-    <t>L36</t>
-  </si>
-  <si>
-    <t>4:BAL_44,5:BAL_45</t>
-  </si>
-  <si>
-    <t>SI-TT-E3</t>
-  </si>
-  <si>
-    <t>D701</t>
-  </si>
-  <si>
-    <t>L37</t>
-  </si>
-  <si>
-    <t>7:BAL_46,9:BAL_47</t>
-  </si>
-  <si>
-    <t>SI-TT-E4</t>
-  </si>
-  <si>
-    <t>D702</t>
-  </si>
-  <si>
-    <t>L38</t>
-  </si>
-  <si>
-    <t>BAL_48</t>
-  </si>
-  <si>
-    <t>SI-TT-E5</t>
-  </si>
-  <si>
-    <t>L39</t>
-  </si>
-  <si>
-    <t>5:BAL_31,7:BAL_32,8:BAL_33</t>
-  </si>
-  <si>
-    <t>SI-TT-E6</t>
-  </si>
-  <si>
-    <t>D703</t>
-  </si>
-  <si>
-    <t>L40</t>
-  </si>
-  <si>
-    <t>4:BAL_49,5:BAL_50</t>
-  </si>
-  <si>
-    <t>SI-TT-E7</t>
-  </si>
-  <si>
-    <t>D704</t>
-  </si>
-  <si>
-    <t>L41</t>
-  </si>
-  <si>
-    <t>BAL_51</t>
-  </si>
-  <si>
-    <t>SI-TT-E8</t>
-  </si>
-  <si>
-    <t>L42</t>
-  </si>
-  <si>
-    <t>5:BAL_37,7:BAL_39,8:BAL_40,10:BAL_41</t>
-  </si>
-  <si>
-    <t>SI-TT-E9</t>
-  </si>
-  <si>
-    <t>D705</t>
-  </si>
-  <si>
-    <t>L43</t>
-  </si>
-  <si>
-    <t>BAL_52</t>
-  </si>
-  <si>
-    <t>SI-TT-E10</t>
-  </si>
-  <si>
-    <t>L44</t>
-  </si>
-  <si>
-    <t>BAL_53</t>
-  </si>
-  <si>
-    <t>SI-TT-E11</t>
-  </si>
-  <si>
-    <t>SC3Pv3_2</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="false"/>
-        <i val="false"/>
-        <sz val="11"/>
-        <rFont val="FreeSans"/>
-      </rPr>
-      <t>type</t>
-    </r>
-  </si>
-  <si>
-    <t>patient</t>
-  </si>
-  <si>
-    <t>dpso</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>who_scale</t>
-  </si>
-  <si>
-    <t>severity</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>timepoint</t>
-  </si>
-  <si>
-    <t>V_spuel</t>
-  </si>
-  <si>
-    <t>V_recov</t>
-  </si>
-  <si>
-    <t>V_filtered</t>
-  </si>
-  <si>
-    <t>10x</t>
-  </si>
-  <si>
-    <t>no_ali_cells_frozen</t>
-  </si>
-  <si>
-    <t>no_cells_frozen_per_ali_mio</t>
-  </si>
-  <si>
-    <t>no_ali_smart</t>
-  </si>
-  <si>
-    <t>no_cells_smart_mio</t>
-  </si>
-  <si>
-    <t>no_ali_sn_1ml</t>
-  </si>
-  <si>
-    <t>no_ali_sn_2ml</t>
-  </si>
-  <si>
-    <t>no_ali_sn_5ml</t>
-  </si>
-  <si>
-    <t>no_ali_sn_10ml</t>
-  </si>
-  <si>
-    <t>time_centr</t>
-  </si>
-  <si>
-    <t>time_freeze_cells</t>
-  </si>
-  <si>
-    <t>time_freeze_sn</t>
-  </si>
-  <si>
-    <t>no_ali_cells_thawed</t>
-  </si>
-  <si>
-    <t>BAL</t>
-  </si>
-  <si>
-    <t>Neph_X1</t>
-  </si>
-  <si>
-    <t>COVID-19</t>
-  </si>
-  <si>
-    <t>C19-CB-0062</t>
-  </si>
-  <si>
-    <t>severe</t>
-  </si>
-  <si>
-    <t>C19-CB-0083</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>C19-CB-0082</t>
-  </si>
-  <si>
-    <t>C19-CB-0085</t>
-  </si>
-  <si>
-    <t>C19-CB-0098</t>
-  </si>
-  <si>
-    <t>C19-CB-0136</t>
-  </si>
-  <si>
-    <t>C19-CB-0120</t>
-  </si>
-  <si>
-    <t>C19-CB-0198</t>
-  </si>
-  <si>
-    <t>C19-CB-0302</t>
-  </si>
-  <si>
-    <t>C19-CB-0243</t>
-  </si>
-  <si>
-    <t>X1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="365">
+  <si>
+    <t xml:space="preserve">libname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cohort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalSeq-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frozen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freeze_method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC3Pv3_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200416_A00278_0146_AHFGNHDRXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200429_A00278_0153_AHFTFTDRXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-C6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-E3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200603_A00643_0054_AHLCW5DRXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-E4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-H4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200701_A00643_0061_AHMNCCDRXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210111_A00643_0164_BHYMK7DRXX_P893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-D12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-E1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-E2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-E5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210215_A00643_0181_BHVFHHDSXY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-E6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-E7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-E8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-F10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-F11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-E11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-F12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-G1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-G2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-B10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221014_A00643_0567_AHYMN3DSX3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-D11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-D12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-E1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-E2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:BAL_44,5:BAL_45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-E3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:BAL_46,9:BAL_47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-E4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-E5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:BAL_31,7:BAL_32,8:BAL_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-E6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:BAL_49,5:BAL_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-E7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-E8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:BAL_37,7:BAL_39,8:BAL_40,10:BAL_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-E9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-E10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-E11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC3Pv3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">who_scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">severity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timepoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V_spuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V_recov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V_filtered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_ali_cells_frozen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_cells_frozen_per_ali_mio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_ali_smart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_cells_smart_mio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_ali_sn_1ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_ali_sn_2ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_ali_sn_5ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_ali_sn_10ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_centr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_freeze_cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_freeze_sn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_ali_cells_thawed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neph_X1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">severe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">critical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X1</t>
   </si>
   <si>
     <t xml:space="preserve">Post COVID-19</t>
   </si>
   <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>SSC</t>
-  </si>
-  <si>
-    <t>C19-CB-0605</t>
-  </si>
-  <si>
-    <t>C19-CB-0660</t>
-  </si>
-  <si>
-    <t>X3</t>
-  </si>
-  <si>
-    <t>Fibroelastose?</t>
-  </si>
-  <si>
-    <t>C19-CB-0698</t>
-  </si>
-  <si>
-    <t>C19-CB-0695</t>
-  </si>
-  <si>
-    <t>C19-CB-0716</t>
-  </si>
-  <si>
-    <t>C19-CB-0680</t>
-  </si>
-  <si>
-    <t>C19-CB-0474</t>
-  </si>
-  <si>
-    <t>C19-CB-0694</t>
-  </si>
-  <si>
-    <t>C19-CB-0663</t>
-  </si>
-  <si>
-    <t>X4</t>
-  </si>
-  <si>
-    <t>C19-CB-0774</t>
+    <t xml:space="preserve">X2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fibroelastose?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0774</t>
   </si>
   <si>
     <t xml:space="preserve">COVID-19 + Alveolarproteinose</t>
   </si>
   <si>
-    <t>bal_01</t>
-  </si>
-  <si>
-    <t>C19-CB-0913</t>
+    <t xml:space="preserve">bal_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0913</t>
   </si>
   <si>
     <t xml:space="preserve">late COVID-19 + ARDS</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>bal_02</t>
-  </si>
-  <si>
-    <t>C19-CB-0914</t>
-  </si>
-  <si>
-    <t>bal_03</t>
-  </si>
-  <si>
-    <t>C19-CB-0915</t>
-  </si>
-  <si>
-    <t>bal_04</t>
-  </si>
-  <si>
-    <t>C19-CB-0916</t>
-  </si>
-  <si>
-    <t>bal_05</t>
-  </si>
-  <si>
-    <t>C19-CB-0917</t>
-  </si>
-  <si>
-    <t>bal_06</t>
-  </si>
-  <si>
-    <t>BAL_37</t>
-  </si>
-  <si>
-    <t>bal_07</t>
-  </si>
-  <si>
-    <t>BAL_38</t>
-  </si>
-  <si>
-    <t>bal_08</t>
-  </si>
-  <si>
-    <t>BAL_39</t>
-  </si>
-  <si>
-    <t>bal_09</t>
-  </si>
-  <si>
-    <t>C19-CB-40001</t>
-  </si>
-  <si>
-    <t>BAL_40</t>
-  </si>
-  <si>
-    <t>bal_10</t>
-  </si>
-  <si>
-    <t>BAL_41</t>
-  </si>
-  <si>
-    <t>bal_11</t>
-  </si>
-  <si>
-    <t>bal_12</t>
-  </si>
-  <si>
-    <t>bal_13</t>
-  </si>
-  <si>
-    <t>C19-CB-40002</t>
-  </si>
-  <si>
-    <t>BAL_44</t>
-  </si>
-  <si>
-    <t>bal_14</t>
-  </si>
-  <si>
-    <t>BAL_45</t>
-  </si>
-  <si>
-    <t>bal_15</t>
-  </si>
-  <si>
-    <t>BAL_46</t>
-  </si>
-  <si>
-    <t>bal_16</t>
-  </si>
-  <si>
-    <t>C19-CB-40003</t>
-  </si>
-  <si>
-    <t>BAL_47</t>
-  </si>
-  <si>
-    <t>bal_17</t>
-  </si>
-  <si>
-    <t>bal_18</t>
-  </si>
-  <si>
-    <t>BAL_49</t>
-  </si>
-  <si>
-    <t>bal_19</t>
-  </si>
-  <si>
-    <t>BAL_50</t>
-  </si>
-  <si>
-    <t>bal_20</t>
-  </si>
-  <si>
-    <t>bal_21</t>
-  </si>
-  <si>
-    <t>bal_22</t>
-  </si>
-  <si>
-    <t>bal_23</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>endpoint</t>
-  </si>
-  <si>
-    <t>SCoV2_variant</t>
-  </si>
-  <si>
-    <t>date_PCR</t>
-  </si>
-  <si>
-    <t>Hospital-admission</t>
-  </si>
-  <si>
-    <t>ICU-admission</t>
-  </si>
-  <si>
-    <t>ICU</t>
-  </si>
-  <si>
-    <t>Ventilation-start</t>
-  </si>
-  <si>
-    <t>Ventilation-stop</t>
-  </si>
-  <si>
-    <t>ECMO-start</t>
-  </si>
-  <si>
-    <t>ECMO-stop</t>
-  </si>
-  <si>
-    <t>endpoint_date</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>B16</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>B14</t>
-  </si>
-  <si>
-    <t>B23</t>
-  </si>
-  <si>
-    <t>B29</t>
-  </si>
-  <si>
-    <t>B20</t>
-  </si>
-  <si>
-    <t>B31</t>
-  </si>
-  <si>
-    <t>B28</t>
-  </si>
-  <si>
-    <t>B41</t>
-  </si>
-  <si>
-    <t>B42</t>
-  </si>
-  <si>
-    <t>B45</t>
-  </si>
-  <si>
-    <t>B43</t>
-  </si>
-  <si>
-    <t>BR1</t>
-  </si>
-  <si>
-    <t>release</t>
-  </si>
-  <si>
-    <t>delta</t>
-  </si>
-  <si>
-    <t>BR2</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>BR3</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>BR4</t>
-  </si>
-  <si>
-    <t>BR5</t>
-  </si>
-  <si>
-    <t>BR6</t>
-  </si>
-  <si>
-    <t>BR7</t>
-  </si>
-  <si>
-    <t>BR8</t>
-  </si>
-  <si>
-    <t>CT</t>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-0917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-40001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-40002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19-CB-40003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCoV2_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_PCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital-admission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICU-admission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventilation-start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventilation-stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECMO-start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECMO-stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endpoint_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT</t>
   </si>
   <si>
     <t xml:space="preserve">BAL </t>
   </si>
   <si>
-    <t>Lungenmechanik</t>
-  </si>
-  <si>
-    <t>Blutentnahme</t>
-  </si>
-  <si>
-    <t>VOR_Einschluss</t>
-  </si>
-  <si>
-    <t>t0_Einschluss</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t4</t>
+    <t xml:space="preserve">Lungenmechanik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blutentnahme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOR_Einschluss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t0_Einschluss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag1_TotalA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^(BC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTCAACTCTTTAGCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antibody Capture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag2_TotalA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGATGGCCTATTGGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag3_TotalA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTCCGCCTCTCTTTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag4_TotalA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGTAAGTTCAGCGTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag5_TotalA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAGTATCGTTTCGCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag6_TotalA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGTTGCCAGATGTCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag7_TotalA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGTCTTTCCTGCCAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag8_TotalA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTCCTCTGCAATTAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag9_TotalA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAGTAGTCACGGTCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag10_TotalA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTGACCCGCGTTAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag12_TotalA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAACGACCAGCCATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag13_TotalA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAATCTCTCAGGCTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag14_TotalA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTGTATGTCCGATTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtag15_TotalA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAAGATTCAGAGCGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTACTCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCGGAGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGCTCATT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAGATTCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTCAGAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAATTCGT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="167" formatCode="h:mm"/>
+  </numFmts>
+  <fonts count="10">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11.000000"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="FF006100"/>
-      <sz val="11.000000"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11.000000"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="7.500000"/>
+      <sz val="11"/>
+      <name val="FreeSans"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="7.5"/>
       <name val="Calibri"/>
-      <b val="0"/>
-      <i val="0"/>
-      <sz val="11.000000"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1030,66 +1205,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFBE5D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor rgb="FFD6DCE5"/>
+        <bgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FFE2F0D9"/>
+        <bgColor rgb="FFDEEBF7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFDEEBF7"/>
+        <bgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFBE5D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFDAE3F3"/>
+        <bgColor rgb="FFDEEBF7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFBE5D6"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="0"/>
-        <bgColor theme="0" tint="0"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -1097,617 +1272,290 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="3" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+  <cellStyleXfs count="23">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
+  <cellXfs count="35">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="1" applyFill="1">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="1" fillId="11" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="20" xfId="0" applyNumberFormat="1" applyFont="1">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="3" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFont="1" applyFill="1">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="3" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="4" borderId="0" numFmtId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Excel Built-in Bad" xfId="20"/>
+    <cellStyle name="Excel Built-in Good" xfId="21"/>
+    <cellStyle name="Excel Built-in Neutral" xfId="22"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF9C6500"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFDAE3F3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFDEEBF7"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFD6DCE5"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFE2F0D9"/>
+      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FFFFEB9C"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFBE5D6"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="New Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="36.8515625"/>
-    <col customWidth="1" min="3" max="3" width="12.140625"/>
-    <col customWidth="1" min="4" max="4" width="6.28125"/>
-    <col customWidth="1" min="6" max="7" width="11.57421875"/>
-    <col customWidth="1" min="8" max="8" width="39.8515625"/>
-    <col customWidth="1" min="10" max="10" width="13.8515625"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="39.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.57"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1716,26 +1564,26 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1758,14 +1606,15 @@
       <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3">
+      <c r="I2" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1788,14 +1637,15 @@
       <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4">
+      <c r="I3" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1818,14 +1668,15 @@
       <c r="H4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5">
+      <c r="I4" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -1848,14 +1699,15 @@
       <c r="H5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6">
+      <c r="I5" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -1878,14 +1730,15 @@
       <c r="H6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7">
+      <c r="I6" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
@@ -1908,14 +1761,15 @@
       <c r="H7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8">
+      <c r="I7" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1938,14 +1792,15 @@
       <c r="H8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9">
+      <c r="I8" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
@@ -1968,14 +1823,15 @@
       <c r="H9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10">
+      <c r="I9" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
@@ -1998,14 +1854,15 @@
       <c r="H10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11">
+      <c r="I10" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>46</v>
       </c>
@@ -2028,17 +1885,18 @@
       <c r="H11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="2" t="b">
+      <c r="I11" s="1" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
         <v>50</v>
       </c>
@@ -2061,17 +1919,18 @@
       <c r="H12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="2" t="b">
+      <c r="I12" s="1" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
         <v>52</v>
       </c>
@@ -2094,14 +1953,15 @@
       <c r="H13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14">
+      <c r="I13" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
         <v>55</v>
       </c>
@@ -2124,14 +1984,15 @@
       <c r="H14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15">
+      <c r="I14" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
         <v>58</v>
       </c>
@@ -2154,14 +2015,15 @@
       <c r="H15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16">
+      <c r="I15" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
         <v>61</v>
       </c>
@@ -2184,14 +2046,15 @@
       <c r="H16" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17">
+      <c r="I16" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
         <v>66</v>
       </c>
@@ -2214,14 +2077,15 @@
       <c r="H17" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18">
+      <c r="I17" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
         <v>69</v>
       </c>
@@ -2244,14 +2108,15 @@
       <c r="H18" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19">
+      <c r="I18" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
         <v>72</v>
       </c>
@@ -2274,14 +2139,15 @@
       <c r="H19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20">
+      <c r="I19" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
         <v>75</v>
       </c>
@@ -2304,14 +2170,15 @@
       <c r="H20" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21">
+      <c r="I20" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
         <v>78</v>
       </c>
@@ -2334,14 +2201,15 @@
       <c r="H21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22">
+      <c r="I21" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
         <v>81</v>
       </c>
@@ -2364,14 +2232,15 @@
       <c r="H22" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23">
+      <c r="I22" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
         <v>84</v>
       </c>
@@ -2394,14 +2263,15 @@
       <c r="H23" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24">
+      <c r="I23" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
         <v>87</v>
       </c>
@@ -2424,14 +2294,15 @@
       <c r="H24" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25">
+      <c r="I24" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
         <v>90</v>
       </c>
@@ -2454,14 +2325,15 @@
       <c r="H25" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26">
+      <c r="I25" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
         <v>93</v>
       </c>
@@ -2482,12 +2354,12 @@
         <v>15</v>
       </c>
       <c r="H26" s="9"/>
-      <c r="I26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27">
+      <c r="I26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>96</v>
       </c>
@@ -2510,15 +2382,16 @@
       <c r="H27" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I27" s="2" t="b">
+      <c r="I27" s="1" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J27" s="10"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>101</v>
       </c>
@@ -2541,15 +2414,16 @@
       <c r="H28" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="2" t="b">
+      <c r="I28" s="1" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J28" s="10"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>104</v>
       </c>
@@ -2572,15 +2446,16 @@
       <c r="H29" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I29" s="2" t="b">
+      <c r="I29" s="1" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J29" s="10"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>107</v>
       </c>
@@ -2603,15 +2478,16 @@
       <c r="H30" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I30" s="2" t="b">
+      <c r="I30" s="1" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J30" s="10"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>110</v>
       </c>
@@ -2634,15 +2510,16 @@
       <c r="H31" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I31" s="2" t="b">
+      <c r="I31" s="1" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J31" s="10"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>113</v>
       </c>
@@ -2665,15 +2542,16 @@
       <c r="H32" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I32" s="2" t="b">
+      <c r="I32" s="1" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J32" s="10"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33">
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>116</v>
       </c>
@@ -2696,15 +2574,16 @@
       <c r="H33" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I33" s="2" t="b">
+      <c r="I33" s="1" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J33" s="10"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34">
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>119</v>
       </c>
@@ -2727,15 +2606,16 @@
       <c r="H34" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I34" s="2" t="b">
+      <c r="I34" s="1" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J34" s="10"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35">
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>122</v>
       </c>
@@ -2760,17 +2640,18 @@
       <c r="H35" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I35" s="2" t="b">
+      <c r="I35" s="1" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J35" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-    </row>
-    <row r="36">
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>126</v>
       </c>
@@ -2795,17 +2676,18 @@
       <c r="H36" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I36" s="2" t="b">
+      <c r="I36" s="1" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J36" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37">
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>130</v>
       </c>
@@ -2828,15 +2710,16 @@
       <c r="H37" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I37" s="2" t="b">
+      <c r="I37" s="1" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J37" s="10"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-    </row>
-    <row r="38">
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>133</v>
       </c>
@@ -2861,17 +2744,18 @@
       <c r="H38" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I38" s="2" t="b">
+      <c r="I38" s="1" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J38" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39">
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>137</v>
       </c>
@@ -2896,17 +2780,18 @@
       <c r="H39" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I39" s="2" t="b">
+      <c r="I39" s="1" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J39" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40">
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>141</v>
       </c>
@@ -2919,25 +2804,26 @@
       <c r="D40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F40" s="12"/>
+      <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I40" s="2" t="b">
+      <c r="I40" s="1" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J40" s="10"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41">
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>144</v>
       </c>
@@ -2950,29 +2836,30 @@
       <c r="D41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I41" s="2" t="b">
+      <c r="I41" s="1" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J41" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-    </row>
-    <row r="42">
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
         <v>148</v>
       </c>
@@ -2985,25 +2872,26 @@
       <c r="D42" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12" t="s">
+      <c r="F42" s="4"/>
+      <c r="G42" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I42" s="2" t="b">
+      <c r="I42" s="1" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J42" s="10"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43">
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>151</v>
       </c>
@@ -3016,95 +2904,93 @@
       <c r="D43" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12" t="s">
+      <c r="F43" s="4"/>
+      <c r="G43" s="4" t="s">
         <v>154</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I43" s="2" t="b">
+      <c r="I43" s="12" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J43" s="10"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="10.57421875"/>
-    <col customWidth="1" min="3" max="3" width="6.7109375"/>
-    <col customWidth="1" min="4" max="4" width="11.8515625"/>
-    <col customWidth="1" min="5" max="5" width="11.57421875"/>
-    <col customWidth="1" min="6" max="6" width="14.140625"/>
-    <col customWidth="1" min="7" max="7" width="11.00390625"/>
-    <col customWidth="1" min="8" max="8" width="27.8515625"/>
-    <col customWidth="1" min="9" max="9" width="10.8515625"/>
-    <col customWidth="1" min="10" max="10" width="8.57421875"/>
-    <col customWidth="1" min="11" max="11" width="7.421875"/>
-    <col bestFit="1" min="12" max="12" width="10.421875"/>
-    <col bestFit="1" min="13" max="13" width="9.421875"/>
-    <col customWidth="1" min="14" max="14" width="9.8515625"/>
-    <col customWidth="1" min="15" max="15" width="8.421875"/>
-    <col customWidth="1" min="16" max="16" width="8.00390625"/>
-    <col customWidth="1" min="18" max="18" width="4.28125"/>
-    <col customWidth="1" min="19" max="19" width="4.8515625"/>
-    <col customWidth="1" min="20" max="20" width="4.140625"/>
-    <col customWidth="1" min="21" max="21" width="4.00390625"/>
-    <col customWidth="1" min="22" max="22" width="3.8515625"/>
-    <col customWidth="1" min="23" max="23" width="3.57421875"/>
-    <col customWidth="1" min="24" max="24" width="4.140625"/>
-    <col customWidth="1" min="25" max="25" width="4.00390625"/>
-    <col customWidth="1" min="26" max="26" width="4.140625"/>
-    <col customWidth="1" min="27" max="27" width="6.8515625"/>
-    <col customWidth="1" min="28" max="28" width="6.00390625"/>
-    <col customWidth="1" min="29" max="29" width="6.8515625"/>
-    <col customWidth="1" min="30" max="30" width="3.8515625"/>
-    <col customWidth="1" min="31" max="32" width="7.00390625"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="7.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="4.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="4.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="4.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="3.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="3.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="3.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="4.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="3.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="4.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="3.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="0" width="6.86"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>155</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -3113,7 +2999,7 @@
       <c r="F1" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>158</v>
       </c>
       <c r="H1" s="13" t="s">
@@ -3128,66 +3014,66 @@
       <c r="K1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AE1" s="14"/>
-    </row>
-    <row r="2" ht="14.25">
+      <c r="AE1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -3204,7 +3090,7 @@
       <c r="F2" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="3" t="n">
         <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -3212,17 +3098,18 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="16">
+      <c r="K2" s="14" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="15" t="n">
         <v>43927</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" ht="14.25">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -3239,29 +3126,30 @@
       <c r="F3" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="3" t="n">
         <v>14</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="3" t="n">
         <v>7</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="K3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="16">
+      <c r="K3" s="14" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="15" t="n">
         <v>43930</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" ht="14.25">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -3278,29 +3166,30 @@
       <c r="F4" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="4" t="n">
         <v>7</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="4" t="n">
         <v>8</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="K4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="16">
+      <c r="K4" s="16" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="15" t="n">
         <v>43936</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" ht="14.25">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -3317,29 +3206,30 @@
       <c r="F5" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="4" t="n">
         <v>14</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="4" t="n">
         <v>8</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="K5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="16">
+      <c r="K5" s="16" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="15" t="n">
         <v>43937</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" ht="14.25">
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
@@ -3356,29 +3246,30 @@
       <c r="F6" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="4" t="n">
         <v>25</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="4" t="n">
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="K6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="16">
+      <c r="K6" s="16" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="15" t="n">
         <v>43938</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" ht="14.25">
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
@@ -3395,30 +3286,31 @@
       <c r="F7" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="4" t="n">
         <v>7</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="4" t="n">
         <v>7</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="K7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="16">
+      <c r="K7" s="16" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="15" t="n">
         <v>43941</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" ht="14.25">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
@@ -3435,30 +3327,31 @@
       <c r="F8" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="5" t="n">
         <v>25</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="5" t="n">
         <v>7</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="K8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="16">
+      <c r="K8" s="17" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="15" t="n">
         <v>43950</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" ht="14.25">
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
@@ -3475,30 +3368,31 @@
       <c r="F9" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="5" t="n">
         <v>10</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="5" t="n">
         <v>7</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="K9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="16">
+      <c r="K9" s="17" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="15" t="n">
         <v>43951</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" ht="14.25">
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>42</v>
       </c>
@@ -3512,33 +3406,34 @@
       <c r="E10" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="6" t="n">
         <v>12</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="6" t="n">
         <v>7</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="K10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="16">
+      <c r="K10" s="19" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="15" t="n">
         <v>43991</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" ht="14.25">
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>47</v>
       </c>
@@ -3555,7 +3450,7 @@
       <c r="F11" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="7" t="n">
         <v>34</v>
       </c>
       <c r="H11" s="7" t="s">
@@ -3563,18 +3458,19 @@
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="7" t="b">
+      <c r="K11" s="20" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15" t="n">
         <v>44165</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" ht="14.25">
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
         <v>51</v>
       </c>
@@ -3591,7 +3487,7 @@
       <c r="F12" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="7" t="n">
         <v>116</v>
       </c>
       <c r="H12" s="7" t="s">
@@ -3599,18 +3495,19 @@
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="7" t="b">
+      <c r="K12" s="20" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="15" t="n">
         <v>44165</v>
       </c>
       <c r="M12" s="1"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" ht="14.25">
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
         <v>53</v>
       </c>
@@ -3627,7 +3524,7 @@
       <c r="F13" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="7" t="n">
         <v>226</v>
       </c>
       <c r="H13" s="7" t="s">
@@ -3635,18 +3532,19 @@
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="16">
+      <c r="K13" s="20" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="15" t="n">
         <v>44173</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" ht="14.25">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
         <v>56</v>
       </c>
@@ -3667,22 +3565,23 @@
       <c r="H14" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="7"/>
-      <c r="K14" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="16">
+      <c r="K14" s="20" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="15" t="n">
         <v>44173</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" ht="14.25">
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
         <v>59</v>
       </c>
@@ -3699,7 +3598,7 @@
       <c r="F15" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="7" t="n">
         <v>6</v>
       </c>
       <c r="H15" s="7" t="s">
@@ -3707,18 +3606,19 @@
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="16">
+      <c r="K15" s="20" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="15" t="n">
         <v>44175</v>
       </c>
       <c r="M15" s="1"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" ht="14.25">
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
         <v>62</v>
       </c>
@@ -3735,7 +3635,7 @@
       <c r="F16" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="8" t="n">
         <v>15</v>
       </c>
       <c r="H16" s="8" t="s">
@@ -3743,18 +3643,19 @@
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="16">
+      <c r="K16" s="21" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="15" t="n">
         <v>44181</v>
       </c>
       <c r="M16" s="1"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" ht="14.25">
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
         <v>67</v>
       </c>
@@ -3775,22 +3676,23 @@
       <c r="H17" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="8" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="8"/>
-      <c r="K17" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="16">
+      <c r="K17" s="21" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="15" t="n">
         <v>44182</v>
       </c>
       <c r="M17" s="1"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" ht="14.25">
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
         <v>70</v>
       </c>
@@ -3807,7 +3709,7 @@
       <c r="F18" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="8" t="n">
         <v>39</v>
       </c>
       <c r="H18" s="8" t="s">
@@ -3815,17 +3717,18 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="16">
+      <c r="K18" s="21" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="15" t="n">
         <v>44216</v>
       </c>
       <c r="M18" s="1"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" ht="14.25">
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
         <v>73</v>
       </c>
@@ -3842,7 +3745,7 @@
       <c r="F19" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="8" t="n">
         <v>23</v>
       </c>
       <c r="H19" s="8" t="s">
@@ -3850,15 +3753,16 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="16">
+      <c r="K19" s="21" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="15" t="n">
         <v>44216</v>
       </c>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" ht="14.25">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
         <v>76</v>
       </c>
@@ -3875,7 +3779,7 @@
       <c r="F20" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="8" t="n">
         <v>43</v>
       </c>
       <c r="H20" s="8" t="s">
@@ -3883,15 +3787,16 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="16">
+      <c r="K20" s="21" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="15" t="n">
         <v>44217</v>
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" ht="14.25">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
         <v>79</v>
       </c>
@@ -3908,7 +3813,7 @@
       <c r="F21" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="8" t="n">
         <v>28</v>
       </c>
       <c r="H21" s="8" t="s">
@@ -3916,15 +3821,16 @@
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="16">
+      <c r="K21" s="21" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="15" t="n">
         <v>44217</v>
       </c>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" ht="14.25">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
         <v>82</v>
       </c>
@@ -3941,7 +3847,7 @@
       <c r="F22" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="8" t="n">
         <v>54</v>
       </c>
       <c r="H22" s="8" t="s">
@@ -3949,15 +3855,16 @@
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="16">
+      <c r="K22" s="21" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="15" t="n">
         <v>44218</v>
       </c>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" ht="14.25">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
         <v>85</v>
       </c>
@@ -3974,7 +3881,7 @@
       <c r="F23" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="8" t="n">
         <v>53</v>
       </c>
       <c r="H23" s="8" t="s">
@@ -3982,15 +3889,16 @@
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="16">
+      <c r="K23" s="21" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="15" t="n">
         <v>44218</v>
       </c>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" ht="14.25">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
         <v>88</v>
       </c>
@@ -4007,7 +3915,7 @@
       <c r="F24" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="8" t="n">
         <v>54</v>
       </c>
       <c r="H24" s="8" t="s">
@@ -4015,15 +3923,16 @@
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="16">
+      <c r="K24" s="21" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="15" t="n">
         <v>44218</v>
       </c>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" ht="14.25">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
         <v>91</v>
       </c>
@@ -4040,7 +3949,7 @@
       <c r="F25" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="8" t="n">
         <v>65</v>
       </c>
       <c r="H25" s="8" t="s">
@@ -4048,15 +3957,16 @@
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="16">
+      <c r="K25" s="21" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="15" t="n">
         <v>44230</v>
       </c>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" s="0" customFormat="1" ht="14.25">
+    <row r="26" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
         <v>94</v>
       </c>
@@ -4066,23 +3976,24 @@
       <c r="E26" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="G26" s="19"/>
+      <c r="G26" s="23"/>
       <c r="H26" s="9" t="s">
         <v>213</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="16">
+      <c r="K26" s="24" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="15" t="n">
         <v>48155</v>
       </c>
     </row>
-    <row r="27" ht="14.25">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>97</v>
       </c>
@@ -4095,10 +4006,10 @@
       <c r="D27" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="4" t="s">
         <v>215</v>
       </c>
       <c r="G27" s="4"/>
@@ -4108,58 +4019,58 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="20">
+      <c r="L27" s="25" t="n">
         <v>44573</v>
       </c>
-      <c r="M27" s="21">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="N27" s="2">
+      <c r="M27" s="26" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="N27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P27" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="2" t="s">
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="T27" s="2">
+      <c r="T27" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="U27" s="2">
+      <c r="U27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="V27" s="2">
+      <c r="V27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="W27" s="2">
+      <c r="W27" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="X27" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="2">
+      <c r="X27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z27" s="2">
+      <c r="Z27" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="2">
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AE27" s="14"/>
-    </row>
-    <row r="28" ht="14.25">
+      <c r="AE27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>102</v>
       </c>
@@ -4172,10 +4083,10 @@
       <c r="D28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="4" t="s">
         <v>219</v>
       </c>
       <c r="G28" s="4"/>
@@ -4185,60 +4096,60 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="20">
+      <c r="L28" s="25" t="n">
         <v>44574</v>
       </c>
-      <c r="M28" s="21">
+      <c r="M28" s="26" t="n">
         <v>0.59375</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P28" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="Q28" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="R28" s="2" t="s">
+      <c r="R28" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S28" s="2">
+      <c r="S28" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="T28" s="2">
+      <c r="T28" s="1" t="n">
         <v>3.5</v>
       </c>
-      <c r="U28" s="2">
+      <c r="U28" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="V28" s="2">
+      <c r="V28" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="W28" s="2">
+      <c r="W28" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="X28" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="2">
+      <c r="X28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z28" s="2">
+      <c r="Z28" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="2">
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AE28" s="14"/>
-    </row>
-    <row r="29" ht="14.25">
+      <c r="AE28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>105</v>
       </c>
@@ -4251,10 +4162,10 @@
       <c r="D29" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="4" t="s">
         <v>221</v>
       </c>
       <c r="G29" s="4"/>
@@ -4264,58 +4175,58 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="20">
+      <c r="L29" s="25" t="n">
         <v>44575</v>
       </c>
-      <c r="M29" s="21">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="N29" s="2">
+      <c r="M29" s="26" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P29" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="2" t="s">
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="T29" s="2">
+      <c r="T29" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="U29" s="2">
+      <c r="U29" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="V29" s="2">
+      <c r="V29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="W29" s="2">
+      <c r="W29" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="X29" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="2">
+      <c r="X29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z29" s="2">
+      <c r="Z29" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="2">
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AE29" s="14"/>
-    </row>
-    <row r="30" ht="14.25">
+      <c r="AE29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>108</v>
       </c>
@@ -4328,10 +4239,10 @@
       <c r="D30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="4" t="s">
         <v>223</v>
       </c>
       <c r="G30" s="4"/>
@@ -4341,58 +4252,58 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="20">
+      <c r="L30" s="25" t="n">
         <v>44581</v>
       </c>
-      <c r="M30" s="21">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="N30" s="2">
+      <c r="M30" s="26" t="n">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="N30" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="2" t="s">
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T30" s="2">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="U30" s="2">
-        <v>0</v>
-      </c>
-      <c r="V30" s="2">
-        <v>0</v>
-      </c>
-      <c r="W30" s="2">
+      <c r="T30" s="1" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="U30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="X30" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="2">
+      <c r="X30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Z30" s="2">
+      <c r="Z30" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="2">
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AE30" s="14"/>
-    </row>
-    <row r="31" ht="14.25">
+      <c r="AE30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>111</v>
       </c>
@@ -4405,10 +4316,10 @@
       <c r="D31" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="4" t="s">
         <v>225</v>
       </c>
       <c r="G31" s="4"/>
@@ -4418,50 +4329,50 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="20">
+      <c r="L31" s="25" t="n">
         <v>44587</v>
       </c>
-      <c r="M31" s="21">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="N31" s="2">
+      <c r="M31" s="26" t="n">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="N31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P31" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="2" t="s">
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T31" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="U31" s="2">
-        <v>0</v>
-      </c>
-      <c r="V31" s="2">
-        <v>0</v>
-      </c>
-      <c r="W31" s="14"/>
-      <c r="X31" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="14"/>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="14"/>
-      <c r="AE31" s="14"/>
-    </row>
-    <row r="32" ht="14.25">
+      <c r="T31" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="U31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>114</v>
       </c>
@@ -4474,10 +4385,10 @@
       <c r="D32" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="4" t="s">
         <v>215</v>
       </c>
       <c r="G32" s="4"/>
@@ -4487,50 +4398,50 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="20">
+      <c r="L32" s="25" t="n">
         <v>44587</v>
       </c>
-      <c r="M32" s="21">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="N32" s="2">
+      <c r="M32" s="26" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="N32" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P32" s="2">
+      <c r="P32" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="2" t="s">
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S32" s="2">
+      <c r="S32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T32" s="2">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="U32" s="2">
-        <v>0</v>
-      </c>
-      <c r="V32" s="2">
-        <v>0</v>
-      </c>
-      <c r="W32" s="14"/>
-      <c r="X32" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="14"/>
-      <c r="AE32" s="14"/>
-    </row>
-    <row r="33" ht="14.25">
+      <c r="T32" s="1" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>227</v>
       </c>
@@ -4543,10 +4454,10 @@
       <c r="D33" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="4" t="s">
         <v>219</v>
       </c>
       <c r="G33" s="4"/>
@@ -4556,58 +4467,58 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="20">
+      <c r="L33" s="25" t="n">
         <v>44589</v>
       </c>
-      <c r="M33" s="21">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="N33" s="2">
+      <c r="M33" s="26" t="n">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="N33" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="2" t="s">
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S33" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T33" s="2">
+      <c r="T33" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="U33" s="2">
-        <v>0</v>
-      </c>
-      <c r="V33" s="2">
-        <v>0</v>
-      </c>
-      <c r="W33" s="2">
+      <c r="U33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="X33" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="2">
+      <c r="X33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Z33" s="2">
+      <c r="Z33" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="2">
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AE33" s="14"/>
-    </row>
-    <row r="34" ht="14.25">
+      <c r="AE33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>229</v>
       </c>
@@ -4620,10 +4531,10 @@
       <c r="D34" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="4" t="s">
         <v>223</v>
       </c>
       <c r="G34" s="4"/>
@@ -4633,56 +4544,56 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="20">
+      <c r="L34" s="25" t="n">
         <v>44595</v>
       </c>
-      <c r="M34" s="21">
-        <v>0.55208333333333304</v>
-      </c>
-      <c r="N34" s="2">
+      <c r="M34" s="26" t="n">
+        <v>0.552083333333333</v>
+      </c>
+      <c r="N34" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P34" s="2">
+      <c r="P34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="2" t="s">
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T34" s="2">
-        <v>0.083000000000000004</v>
-      </c>
-      <c r="U34" s="2">
-        <v>0</v>
-      </c>
-      <c r="V34" s="2">
-        <v>0</v>
-      </c>
-      <c r="W34" s="2">
+      <c r="T34" s="1" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="U34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="X34" s="2">
+      <c r="X34" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Y34" s="2">
+      <c r="Y34" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Z34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14"/>
-      <c r="AD34" s="14"/>
-      <c r="AE34" s="14"/>
-    </row>
-    <row r="35" ht="14.25">
+      <c r="Z34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>231</v>
       </c>
@@ -4695,10 +4606,10 @@
       <c r="D35" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="4" t="s">
         <v>233</v>
       </c>
       <c r="G35" s="4"/>
@@ -4708,58 +4619,58 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="20">
+      <c r="L35" s="25" t="n">
         <v>44600</v>
       </c>
-      <c r="M35" s="21">
-        <v>0.51041666666666696</v>
-      </c>
-      <c r="N35" s="2">
+      <c r="M35" s="26" t="n">
+        <v>0.510416666666667</v>
+      </c>
+      <c r="N35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P35" s="2">
+      <c r="P35" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="2" t="s">
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S35" s="2">
+      <c r="S35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T35" s="2">
+      <c r="T35" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="U35" s="2">
-        <v>0</v>
-      </c>
-      <c r="V35" s="2">
-        <v>0</v>
-      </c>
-      <c r="W35" s="2">
+      <c r="U35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="X35" s="2">
+      <c r="X35" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Y35" s="2">
+      <c r="Y35" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Z35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="14"/>
-      <c r="AB35" s="14"/>
-      <c r="AC35" s="14"/>
-      <c r="AD35" s="2">
+      <c r="Z35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AE35" s="14"/>
-    </row>
-    <row r="36" ht="14.25">
+      <c r="AE35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>234</v>
       </c>
@@ -4772,10 +4683,10 @@
       <c r="D36" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="4" t="s">
         <v>225</v>
       </c>
       <c r="G36" s="4"/>
@@ -4785,58 +4696,58 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="20">
+      <c r="L36" s="25" t="n">
         <v>44600</v>
       </c>
-      <c r="M36" s="21">
+      <c r="M36" s="26" t="n">
         <v>0.53125</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O36" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P36" s="2">
+      <c r="P36" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="2" t="s">
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S36" s="2">
+      <c r="S36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T36" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="U36" s="2">
-        <v>0</v>
-      </c>
-      <c r="V36" s="2">
-        <v>0</v>
-      </c>
-      <c r="W36" s="2">
+      <c r="T36" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="X36" s="2">
+      <c r="X36" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Y36" s="2">
+      <c r="Y36" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="Z36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="14"/>
-      <c r="AB36" s="14"/>
-      <c r="AC36" s="14"/>
-      <c r="AD36" s="2">
+      <c r="Z36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AE36" s="14"/>
-    </row>
-    <row r="37" ht="14.25">
+      <c r="AE36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>236</v>
       </c>
@@ -4849,10 +4760,10 @@
       <c r="D37" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="4" t="s">
         <v>219</v>
       </c>
       <c r="G37" s="4"/>
@@ -4862,58 +4773,58 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="20">
+      <c r="L37" s="25" t="n">
         <v>44600</v>
       </c>
-      <c r="M37" s="21">
+      <c r="M37" s="26" t="n">
         <v>0.5625</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P37" s="2">
+      <c r="P37" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="2" t="s">
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S37" s="2">
+      <c r="S37" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="T37" s="2">
-        <v>2.3999999999999999</v>
-      </c>
-      <c r="U37" s="2">
+      <c r="T37" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U37" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="V37" s="2">
+      <c r="V37" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="W37" s="2">
+      <c r="W37" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="X37" s="2">
+      <c r="X37" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Y37" s="2">
+      <c r="Y37" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Z37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="14"/>
-      <c r="AB37" s="14"/>
-      <c r="AC37" s="14"/>
-      <c r="AD37" s="2">
+      <c r="Z37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AE37" s="14"/>
-    </row>
-    <row r="38" ht="14.25">
+      <c r="AE37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>117</v>
       </c>
@@ -4926,10 +4837,10 @@
       <c r="D38" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="4" t="s">
         <v>223</v>
       </c>
       <c r="G38" s="4"/>
@@ -4939,54 +4850,54 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="20">
+      <c r="L38" s="25" t="n">
         <v>44608</v>
       </c>
-      <c r="M38" s="21">
-        <v>0.55208333333333304</v>
-      </c>
-      <c r="N38" s="2">
+      <c r="M38" s="26" t="n">
+        <v>0.552083333333333</v>
+      </c>
+      <c r="N38" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P38" s="2">
+      <c r="P38" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="2" t="s">
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S38" s="2">
+      <c r="S38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T38" s="14"/>
-      <c r="U38" s="2">
-        <v>0</v>
-      </c>
-      <c r="V38" s="2">
-        <v>0</v>
-      </c>
-      <c r="W38" s="2">
+      <c r="T38" s="1"/>
+      <c r="U38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="X38" s="2">
+      <c r="X38" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Y38" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="Z38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AA38" s="14"/>
-      <c r="AB38" s="14"/>
-      <c r="AC38" s="14"/>
-      <c r="AD38" s="14"/>
-      <c r="AE38" s="14"/>
-    </row>
-    <row r="39" ht="14.25">
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>120</v>
       </c>
@@ -4999,10 +4910,10 @@
       <c r="D39" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="4" t="s">
         <v>240</v>
       </c>
       <c r="G39" s="4"/>
@@ -5012,36 +4923,36 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="20">
+      <c r="L39" s="25" t="n">
         <v>44609</v>
       </c>
-      <c r="M39" s="14"/>
-      <c r="N39" s="2">
+      <c r="M39" s="1"/>
+      <c r="N39" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O39" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="2" t="s">
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
-      <c r="X39" s="14"/>
-      <c r="Y39" s="14"/>
-      <c r="Z39" s="14"/>
-      <c r="AA39" s="14"/>
-      <c r="AB39" s="14"/>
-      <c r="AC39" s="14"/>
-      <c r="AD39" s="14"/>
-      <c r="AE39" s="14"/>
-    </row>
-    <row r="40" ht="14.25">
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>241</v>
       </c>
@@ -5054,7 +4965,7 @@
       <c r="D40" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="4" t="s">
         <v>181</v>
       </c>
       <c r="F40" s="4" t="s">
@@ -5067,56 +4978,56 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="20">
+      <c r="L40" s="25" t="n">
         <v>44615</v>
       </c>
-      <c r="M40" s="21">
+      <c r="M40" s="26" t="n">
         <v>0.625</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O40" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="2" t="s">
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S40" s="2">
+      <c r="S40" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="T40" s="2">
+      <c r="T40" s="1" t="n">
         <v>4.5</v>
       </c>
-      <c r="U40" s="2">
+      <c r="U40" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="V40" s="2">
+      <c r="V40" s="1" t="n">
         <v>4.5</v>
       </c>
-      <c r="W40" s="2">
+      <c r="W40" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="X40" s="2">
+      <c r="X40" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Y40" s="2">
+      <c r="Y40" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z40" s="2">
+      <c r="Z40" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AA40" s="14"/>
-      <c r="AB40" s="14"/>
-      <c r="AC40" s="14"/>
-      <c r="AD40" s="14"/>
-      <c r="AE40" s="14"/>
-    </row>
-    <row r="41" ht="14.25">
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>243</v>
       </c>
@@ -5129,7 +5040,7 @@
       <c r="D41" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="4" t="s">
         <v>181</v>
       </c>
       <c r="F41" s="4" t="s">
@@ -5142,56 +5053,56 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="20">
+      <c r="L41" s="25" t="n">
         <v>44615</v>
       </c>
-      <c r="M41" s="21">
+      <c r="M41" s="26" t="n">
         <v>0.6875</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P41" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="2" t="s">
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S41" s="2">
+      <c r="S41" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="T41" s="2">
-        <v>5.5999999999999996</v>
-      </c>
-      <c r="U41" s="2">
+      <c r="T41" s="1" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U41" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="V41" s="2">
-        <v>5.5999999999999996</v>
-      </c>
-      <c r="W41" s="2">
+      <c r="V41" s="1" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="W41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="X41" s="2">
+      <c r="X41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Y41" s="2">
+      <c r="Y41" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z41" s="2">
+      <c r="Z41" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AA41" s="14"/>
-      <c r="AB41" s="14"/>
-      <c r="AC41" s="14"/>
-      <c r="AD41" s="14"/>
-      <c r="AE41" s="14"/>
-    </row>
-    <row r="42" ht="14.25">
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
         <v>245</v>
       </c>
@@ -5204,7 +5115,7 @@
       <c r="D42" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="4" t="s">
         <v>181</v>
       </c>
       <c r="F42" s="4" t="s">
@@ -5217,52 +5128,52 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="20">
+      <c r="L42" s="25" t="n">
         <v>44616</v>
       </c>
-      <c r="M42" s="21">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="N42" s="2">
+      <c r="M42" s="26" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="N42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O42" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P42" s="2">
+      <c r="P42" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="2" t="s">
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S42" s="2">
-        <v>0</v>
-      </c>
-      <c r="T42" s="14"/>
-      <c r="U42" s="2">
-        <v>0</v>
-      </c>
-      <c r="V42" s="14"/>
-      <c r="W42" s="2">
+      <c r="S42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="X42" s="2">
+      <c r="X42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Y42" s="2">
+      <c r="Y42" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z42" s="2">
+      <c r="Z42" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AA42" s="14"/>
-      <c r="AB42" s="14"/>
-      <c r="AC42" s="14"/>
-      <c r="AD42" s="14"/>
-      <c r="AE42" s="14"/>
-    </row>
-    <row r="43" ht="14.25">
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>248</v>
       </c>
@@ -5275,7 +5186,7 @@
       <c r="D43" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="4" t="s">
         <v>181</v>
       </c>
       <c r="F43" s="4" t="s">
@@ -5288,56 +5199,56 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="20">
+      <c r="L43" s="25" t="n">
         <v>44616</v>
       </c>
-      <c r="M43" s="21">
+      <c r="M43" s="26" t="n">
         <v>0.5625</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O43" s="2">
+      <c r="O43" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P43" s="2">
+      <c r="P43" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="2" t="s">
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S43" s="2">
+      <c r="S43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T43" s="2">
+      <c r="T43" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="U43" s="2">
+      <c r="U43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V43" s="2">
+      <c r="V43" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="W43" s="2">
+      <c r="W43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="X43" s="2">
+      <c r="X43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Y43" s="2">
+      <c r="Y43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z43" s="2">
+      <c r="Z43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AA43" s="14"/>
-      <c r="AB43" s="14"/>
-      <c r="AC43" s="14"/>
-      <c r="AD43" s="14"/>
-      <c r="AE43" s="14"/>
-    </row>
-    <row r="44" ht="14.25">
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
         <v>131</v>
       </c>
@@ -5350,7 +5261,7 @@
       <c r="D44" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="4" t="s">
         <v>181</v>
       </c>
       <c r="F44" s="4" t="s">
@@ -5363,56 +5274,56 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="20">
+      <c r="L44" s="25" t="n">
         <v>44622</v>
       </c>
-      <c r="M44" s="21">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="N44" s="2">
+      <c r="M44" s="26" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="N44" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="O44" s="2">
+      <c r="O44" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P44" s="2">
+      <c r="P44" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="2" t="s">
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S44" s="2">
+      <c r="S44" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T44" s="2">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="U44" s="2">
-        <v>0</v>
-      </c>
-      <c r="V44" s="2">
-        <v>0</v>
-      </c>
-      <c r="W44" s="2">
+      <c r="T44" s="1" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="X44" s="2">
+      <c r="X44" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Y44" s="2">
+      <c r="Y44" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z44" s="2">
+      <c r="Z44" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AA44" s="14"/>
-      <c r="AB44" s="14"/>
-      <c r="AC44" s="14"/>
-      <c r="AD44" s="14"/>
-      <c r="AE44" s="14"/>
-    </row>
-    <row r="45" ht="14.25">
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
         <v>251</v>
       </c>
@@ -5425,7 +5336,7 @@
       <c r="D45" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="4" t="s">
         <v>181</v>
       </c>
       <c r="F45" s="4" t="s">
@@ -5438,58 +5349,58 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="20">
+      <c r="L45" s="25" t="n">
         <v>44629</v>
       </c>
-      <c r="M45" s="21">
+      <c r="M45" s="26" t="n">
         <v>0.5</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N45" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O45" s="2">
+      <c r="O45" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P45" s="2">
+      <c r="P45" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="Q45" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="R45" s="2" t="s">
+      <c r="R45" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S45" s="2">
-        <v>0</v>
-      </c>
-      <c r="T45" s="14"/>
-      <c r="U45" s="2">
+      <c r="S45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V45" s="2">
+      <c r="V45" s="1" t="n">
         <v>0.438</v>
       </c>
-      <c r="W45" s="2">
+      <c r="W45" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="X45" s="2">
+      <c r="X45" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Y45" s="2">
+      <c r="Y45" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z45" s="2">
+      <c r="Z45" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AA45" s="14"/>
-      <c r="AB45" s="14"/>
-      <c r="AC45" s="21">
-        <v>0.77777777777777801</v>
-      </c>
-      <c r="AD45" s="14"/>
-      <c r="AE45" s="14"/>
-    </row>
-    <row r="46" ht="14.25">
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="26" t="n">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
         <v>253</v>
       </c>
@@ -5502,7 +5413,7 @@
       <c r="D46" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="4" t="s">
         <v>181</v>
       </c>
       <c r="F46" s="4" t="s">
@@ -5515,60 +5426,60 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="20">
+      <c r="L46" s="25" t="n">
         <v>44629</v>
       </c>
-      <c r="M46" s="21">
+      <c r="M46" s="26" t="n">
         <v>0.53125</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N46" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="O46" s="2">
+      <c r="O46" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P46" s="2">
+      <c r="P46" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="Q46" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="R46" s="2" t="s">
+      <c r="R46" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S46" s="2">
+      <c r="S46" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T46" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="U46" s="2">
+      <c r="T46" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U46" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V46" s="2">
+      <c r="V46" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="W46" s="2">
+      <c r="W46" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="X46" s="2">
+      <c r="X46" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Y46" s="2">
+      <c r="Y46" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z46" s="2">
+      <c r="Z46" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AA46" s="14"/>
-      <c r="AB46" s="14"/>
-      <c r="AC46" s="21">
-        <v>0.77777777777777801</v>
-      </c>
-      <c r="AD46" s="14"/>
-      <c r="AE46" s="14"/>
-    </row>
-    <row r="47" ht="14.25">
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="26" t="n">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
         <v>142</v>
       </c>
@@ -5581,7 +5492,7 @@
       <c r="D47" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="4" t="s">
         <v>181</v>
       </c>
       <c r="F47" s="4" t="s">
@@ -5594,62 +5505,62 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="20">
+      <c r="L47" s="25" t="n">
         <v>44637</v>
       </c>
-      <c r="M47" s="21">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="N47" s="2">
+      <c r="M47" s="26" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="N47" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="O47" s="2">
+      <c r="O47" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P47" s="2">
+      <c r="P47" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="Q47" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="R47" s="2" t="s">
+      <c r="R47" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S47" s="2">
+      <c r="S47" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T47" s="2">
+      <c r="T47" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="U47" s="2">
-        <v>0</v>
-      </c>
-      <c r="V47" s="14"/>
-      <c r="W47" s="2">
+      <c r="U47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="X47" s="2">
+      <c r="X47" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Y47" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="21">
-        <v>0.56111111111111101</v>
-      </c>
-      <c r="AB47" s="21">
+      <c r="Y47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="26" t="n">
+        <v>0.561111111111111</v>
+      </c>
+      <c r="AB47" s="26" t="n">
         <v>0.625</v>
       </c>
-      <c r="AC47" s="21">
-        <v>0.64375000000000004</v>
-      </c>
-      <c r="AD47" s="14"/>
-      <c r="AE47" s="14"/>
-    </row>
-    <row r="48" ht="14.25">
+      <c r="AC47" s="26" t="n">
+        <v>0.64375</v>
+      </c>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
         <v>149</v>
       </c>
@@ -5662,7 +5573,7 @@
       <c r="D48" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="4" t="s">
         <v>181</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -5675,54 +5586,54 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="20">
+      <c r="L48" s="25" t="n">
         <v>44648</v>
       </c>
-      <c r="M48" s="21">
-        <v>0.51041666666666696</v>
-      </c>
-      <c r="N48" s="2">
+      <c r="M48" s="26" t="n">
+        <v>0.510416666666667</v>
+      </c>
+      <c r="N48" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="O48" s="2">
+      <c r="O48" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P48" s="2">
+      <c r="P48" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="Q48" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="R48" s="2" t="s">
+      <c r="R48" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S48" s="2">
-        <v>0</v>
-      </c>
-      <c r="T48" s="14"/>
-      <c r="U48" s="2">
-        <v>0</v>
-      </c>
-      <c r="V48" s="14"/>
-      <c r="W48" s="2">
+      <c r="S48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="X48" s="2">
+      <c r="X48" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Y48" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="2">
+      <c r="Y48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AA48" s="14"/>
-      <c r="AB48" s="14"/>
-      <c r="AC48" s="14"/>
-      <c r="AD48" s="14"/>
-      <c r="AE48" s="14"/>
-    </row>
-    <row r="49" ht="14.25">
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
         <v>152</v>
       </c>
@@ -5735,7 +5646,7 @@
       <c r="D49" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="4" t="s">
         <v>181</v>
       </c>
       <c r="F49" s="4" t="s">
@@ -5748,262 +5659,261 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="20">
+      <c r="L49" s="25" t="n">
         <v>44651</v>
       </c>
-      <c r="M49" s="21">
+      <c r="M49" s="26" t="n">
         <v>0.5625</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O49" s="2">
+      <c r="O49" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="14"/>
-      <c r="Y49" s="14"/>
-      <c r="Z49" s="14"/>
-      <c r="AA49" s="14"/>
-      <c r="AB49" s="14"/>
-      <c r="AC49" s="14"/>
-      <c r="AD49" s="14"/>
-      <c r="AE49" s="14"/>
-    </row>
-    <row r="50" ht="14.25"/>
-    <row r="51" ht="14.25"/>
-    <row r="52" ht="14.25"/>
-    <row r="53" ht="14.25"/>
-    <row r="54" ht="14.25"/>
-    <row r="55" ht="14.25"/>
-    <row r="56" ht="14.25"/>
-    <row r="57" ht="14.25"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+    </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="2" max="3" width="13.140625"/>
-    <col customWidth="1" min="7" max="7" width="13.7109375"/>
-    <col bestFit="1" min="8" max="8" width="10.421875"/>
-    <col customWidth="1" min="9" max="9" width="17.421875"/>
-    <col customWidth="1" min="10" max="10" width="13.7109375"/>
-    <col customWidth="1" min="11" max="11" width="5.8515625"/>
-    <col customWidth="1" min="12" max="12" width="15.421875"/>
-    <col customWidth="1" min="13" max="13" width="15.140625"/>
-    <col customWidth="1" min="14" max="14" width="11.28125"/>
-    <col customWidth="1" min="15" max="15" width="11.140625"/>
-    <col customWidth="1" min="16" max="16" width="13.7109375"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="12.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.43"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>258</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="2">
-      <c r="B2" t="s">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
         <v>182</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>184</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>186</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>188</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>189</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>190</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>191</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>192</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10">
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>193</v>
@@ -6011,60 +5921,60 @@
       <c r="C10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11">
-      <c r="B11" t="s">
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
         <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12">
-      <c r="B12" t="s">
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
         <v>195</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13">
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="1" t="n">
         <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14">
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
         <v>198</v>
       </c>
@@ -6073,42 +5983,42 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15">
-      <c r="B15" t="s">
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
         <v>200</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>201</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17">
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>202</v>
@@ -6118,550 +6028,557 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18">
-      <c r="B18" t="s">
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
         <v>204</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19">
-      <c r="B19" t="s">
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
         <v>205</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>206</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21">
-      <c r="B21" t="s">
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
         <v>207</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>208</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>209</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24">
-      <c r="B24" t="s">
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
         <v>210</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25">
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="1" t="n">
         <v>76</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26">
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
         <v>212</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="A27" s="22" t="s">
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="22" t="s">
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="28" t="n">
         <v>44544</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="28" t="n">
         <v>44544</v>
       </c>
-      <c r="J27" s="24">
+      <c r="J27" s="28" t="n">
         <v>44566</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="27" t="n">
         <v>144</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L27" s="28" t="n">
         <v>44557</v>
       </c>
-      <c r="M27" s="24">
+      <c r="M27" s="28" t="n">
         <v>44594</v>
       </c>
-      <c r="N27" s="24">
+      <c r="N27" s="28" t="n">
         <v>44567</v>
       </c>
-      <c r="O27" s="24">
+      <c r="O27" s="28" t="n">
         <v>44588</v>
       </c>
-      <c r="P27" s="24">
+      <c r="P27" s="28" t="n">
         <v>44596</v>
       </c>
     </row>
-    <row r="28" ht="14.25">
-      <c r="A28" s="25" t="s">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="25" t="s">
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="30" t="n">
         <v>44547</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="30" t="n">
         <v>44547</v>
       </c>
-      <c r="J28" s="27">
+      <c r="J28" s="30" t="n">
         <v>44563</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K28" s="29" t="n">
         <v>144</v>
       </c>
-      <c r="L28" s="27">
+      <c r="L28" s="30" t="n">
         <v>44547</v>
       </c>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27">
+      <c r="M28" s="30"/>
+      <c r="N28" s="30" t="n">
         <v>44564</v>
       </c>
-      <c r="O28" s="27">
+      <c r="O28" s="30" t="n">
         <v>44616</v>
       </c>
-      <c r="P28" s="25"/>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29" s="28" t="s">
+      <c r="P28" s="29"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="28" t="s">
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="32" t="n">
         <v>44564</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="32" t="n">
         <v>44564</v>
       </c>
-      <c r="J29" s="30">
+      <c r="J29" s="32" t="n">
         <v>44573</v>
       </c>
-      <c r="K29" s="28">
+      <c r="K29" s="31" t="n">
         <v>144</v>
       </c>
-      <c r="L29" s="30">
+      <c r="L29" s="32" t="n">
         <v>44570</v>
       </c>
-      <c r="M29" s="30" t="s">
+      <c r="M29" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="N29" s="30">
+      <c r="N29" s="32" t="n">
         <v>44573</v>
       </c>
-      <c r="O29" s="30" t="s">
+      <c r="O29" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="P29" s="30">
+      <c r="P29" s="32" t="n">
         <v>44584</v>
       </c>
     </row>
-    <row r="30" ht="14.25">
-      <c r="A30" s="28" t="s">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="28" t="s">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30" s="32" t="n">
         <v>44560</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="32" t="n">
         <v>44563</v>
       </c>
-      <c r="J30" s="30">
+      <c r="J30" s="32" t="n">
         <v>44577</v>
       </c>
-      <c r="K30" s="28">
+      <c r="K30" s="31" t="n">
         <v>144</v>
       </c>
-      <c r="L30" s="30">
+      <c r="L30" s="32" t="n">
         <v>44563</v>
       </c>
-      <c r="M30" s="30" t="s">
+      <c r="M30" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="N30" s="30">
+      <c r="N30" s="32" t="n">
         <v>44563</v>
       </c>
-      <c r="O30" s="30" t="s">
+      <c r="O30" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="P30" s="30">
+      <c r="P30" s="32" t="n">
         <v>44616</v>
       </c>
     </row>
-    <row r="31" ht="14.25">
-      <c r="A31" s="22" t="s">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="22" t="s">
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="28" t="n">
         <v>44564</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="28" t="n">
         <v>44569</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="28" t="n">
         <v>44585</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="27" t="n">
         <v>144</v>
       </c>
-      <c r="L31" s="24">
+      <c r="L31" s="28" t="n">
         <v>44569</v>
       </c>
-      <c r="M31" s="24">
+      <c r="M31" s="28" t="n">
         <v>44633</v>
       </c>
-      <c r="N31" s="24">
+      <c r="N31" s="28" t="n">
         <v>44585</v>
       </c>
-      <c r="O31" s="24">
+      <c r="O31" s="28" t="n">
         <v>44630</v>
       </c>
-      <c r="P31" s="24">
+      <c r="P31" s="28" t="n">
         <v>44636</v>
       </c>
     </row>
-    <row r="32" ht="14.25">
-      <c r="A32" s="28" t="s">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="28" t="s">
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="30">
+      <c r="G32" s="31"/>
+      <c r="H32" s="32" t="n">
         <v>44569</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="32" t="n">
         <v>44576</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="32" t="n">
         <v>44599</v>
       </c>
-      <c r="K32" s="28">
+      <c r="K32" s="31" t="n">
         <v>144</v>
       </c>
-      <c r="L32" s="30">
+      <c r="L32" s="32" t="n">
         <v>44578</v>
       </c>
-      <c r="M32" s="30" t="s">
+      <c r="M32" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="N32" s="30">
+      <c r="N32" s="32" t="n">
         <v>44599</v>
       </c>
-      <c r="O32" s="30" t="s">
+      <c r="O32" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="P32" s="30">
+      <c r="P32" s="32" t="n">
         <v>44621</v>
       </c>
     </row>
-    <row r="33" ht="14.25">
-      <c r="A33" s="22" t="s">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="22" t="s">
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="G33" s="22"/>
-      <c r="H33" s="24">
+      <c r="G33" s="27"/>
+      <c r="H33" s="28" t="n">
         <v>44585</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="28" t="n">
         <v>44585</v>
       </c>
-      <c r="J33" s="24">
+      <c r="J33" s="28" t="n">
         <v>44597</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="27" t="n">
         <v>144</v>
       </c>
-      <c r="L33" s="24">
+      <c r="L33" s="28" t="n">
         <v>44585</v>
       </c>
-      <c r="M33" s="24">
+      <c r="M33" s="28" t="n">
         <v>44658</v>
       </c>
-      <c r="N33" s="24">
+      <c r="N33" s="28" t="n">
         <v>44597</v>
       </c>
-      <c r="O33" s="24">
+      <c r="O33" s="28" t="n">
         <v>44653</v>
       </c>
-      <c r="P33" s="22"/>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="A34" s="28" t="s">
+      <c r="P33" s="27"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="28" t="s">
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="30">
+      <c r="G34" s="31"/>
+      <c r="H34" s="32" t="n">
         <v>44607</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="32" t="n">
         <v>44607</v>
       </c>
-      <c r="J34" s="30">
+      <c r="J34" s="32" t="n">
         <v>44612</v>
       </c>
-      <c r="K34" s="28">
+      <c r="K34" s="31" t="n">
         <v>144</v>
       </c>
-      <c r="L34" s="30">
+      <c r="L34" s="32" t="n">
         <v>44608</v>
       </c>
-      <c r="M34" s="30" t="s">
+      <c r="M34" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="N34" s="30">
+      <c r="N34" s="32" t="n">
         <v>44613</v>
       </c>
-      <c r="O34" s="30" t="s">
+      <c r="O34" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="P34" s="30">
+      <c r="P34" s="32" t="n">
         <v>44641</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="6.8515625"/>
-    <col bestFit="1" min="2" max="2" width="12.28125"/>
-    <col bestFit="1" min="3" max="3" width="14.140625"/>
-    <col customWidth="1" min="4" max="4" width="9.8515625"/>
-    <col customWidth="1" min="5" max="5" width="11.7109375"/>
-    <col customWidth="1" min="6" max="6" width="15.57421875"/>
-    <col customWidth="1" min="7" max="7" width="13.421875"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.16"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>285</v>
       </c>
@@ -6671,14 +6588,14 @@
       <c r="C2" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="33" t="n">
         <v>44568</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-    </row>
-    <row r="3">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>285</v>
       </c>
@@ -6688,19 +6605,19 @@
       <c r="C3" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33" t="n">
         <v>44573</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="33" t="n">
         <v>44573</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="33" t="n">
         <v>44573</v>
       </c>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4">
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>285</v>
       </c>
@@ -6710,20 +6627,20 @@
       <c r="C4" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="33" t="n">
         <v>44585</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="33" t="n">
         <v>44587</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="33" t="n">
         <v>44587</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="33" t="n">
         <v>44588</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>288</v>
       </c>
@@ -6733,20 +6650,20 @@
       <c r="C5" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="34" t="n">
         <v>44574</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="34" t="n">
         <v>44574</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="34" t="n">
         <v>44574</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="34" t="n">
         <v>44573</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>288</v>
       </c>
@@ -6756,20 +6673,20 @@
       <c r="C6" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="34" t="n">
         <v>44587</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="34" t="n">
         <v>44589</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="34" t="n">
         <v>44589</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="34" t="n">
         <v>44588</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>288</v>
       </c>
@@ -6779,20 +6696,20 @@
       <c r="C7" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="34" t="n">
         <v>44601</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="34" t="n">
         <v>44600</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="34" t="n">
         <v>44600</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="34" t="n">
         <v>44601</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>288</v>
       </c>
@@ -6802,20 +6719,20 @@
       <c r="C8" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="34" t="n">
         <v>44614</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="34" t="n">
         <v>44616</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="34" t="n">
         <v>44616</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="34" t="n">
         <v>44617</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>288</v>
       </c>
@@ -6825,20 +6742,20 @@
       <c r="C9" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="34" t="n">
         <v>44645</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="34" t="n">
         <v>44648</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="34" t="n">
         <v>44648</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="34" t="n">
         <v>44650</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
         <v>290</v>
       </c>
@@ -6848,20 +6765,20 @@
       <c r="C10" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="33" t="n">
         <v>44575</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="33" t="n">
         <v>44575</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="33" t="n">
         <v>44575</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="33" t="n">
         <v>44578</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>293</v>
       </c>
@@ -6871,20 +6788,20 @@
       <c r="C11" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="34" t="n">
         <v>44581</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="34" t="n">
         <v>44581</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="34" t="n">
         <v>44581</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="34" t="n">
         <v>44582</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>293</v>
       </c>
@@ -6894,20 +6811,20 @@
       <c r="C12" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="34" t="n">
         <v>44594</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="34" t="n">
         <v>44595</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="34" t="n">
         <v>44595</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="34" t="n">
         <v>44596</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>293</v>
       </c>
@@ -6917,20 +6834,20 @@
       <c r="C13" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="34" t="n">
         <v>44609</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="34" t="n">
         <v>44608</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="34" t="n">
         <v>44608</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="34" t="n">
         <v>44610</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
         <v>294</v>
       </c>
@@ -6940,20 +6857,20 @@
       <c r="C14" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="33" t="n">
         <v>44585</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="33" t="n">
         <v>44587</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="33" t="n">
         <v>44587</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="33" t="n">
         <v>44588</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
         <v>294</v>
       </c>
@@ -6963,20 +6880,20 @@
       <c r="C15" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="33" t="n">
         <v>44600</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="33" t="n">
         <v>44600</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="33" t="n">
         <v>44600</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="33" t="n">
         <v>44601</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
         <v>294</v>
       </c>
@@ -6986,20 +6903,20 @@
       <c r="C16" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="33" t="n">
         <v>44615</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="33" t="n">
         <v>44615</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="33" t="n">
         <v>44615</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="33" t="n">
         <v>44617</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
         <v>294</v>
       </c>
@@ -7009,20 +6926,20 @@
       <c r="C17" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="33" t="n">
         <v>44627</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="33" t="n">
         <v>44629</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="33" t="n">
         <v>44629</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="33" t="n">
         <v>44628</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>295</v>
       </c>
@@ -7032,20 +6949,20 @@
       <c r="C18" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="34" t="n">
         <v>44601</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="34" t="n">
         <v>44600</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="34" t="n">
         <v>44600</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="34" t="n">
         <v>44601</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
         <v>295</v>
       </c>
@@ -7055,20 +6972,20 @@
       <c r="C19" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="34" t="n">
         <v>44614</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="34" t="n">
         <v>44615</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="34" t="n">
         <v>44615</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="34" t="n">
         <v>44617</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
         <v>296</v>
       </c>
@@ -7078,20 +6995,20 @@
       <c r="C20" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="33" t="n">
         <v>44610</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="33" t="n">
         <v>44609</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="33" t="n">
         <v>44609</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="33" t="n">
         <v>44610</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
         <v>296</v>
       </c>
@@ -7101,20 +7018,20 @@
       <c r="C21" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="33" t="n">
         <v>44623</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="33" t="n">
         <v>44622</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="33" t="n">
         <v>44622</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="33" t="n">
         <v>44623</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
         <v>296</v>
       </c>
@@ -7124,20 +7041,20 @@
       <c r="C22" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="33" t="n">
         <v>44638</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="33" t="n">
         <v>44637</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="33" t="n">
         <v>44637</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="33" t="n">
         <v>44636</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
         <v>296</v>
       </c>
@@ -7147,20 +7064,20 @@
       <c r="C23" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="33" t="n">
         <v>44652</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="33" t="n">
         <v>44651</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="33" t="n">
         <v>44651</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="33" t="n">
         <v>44650</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
         <v>297</v>
       </c>
@@ -7170,20 +7087,20 @@
       <c r="C24" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="34" t="n">
         <v>44616</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="34" t="n">
         <v>44616</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="34" t="n">
         <v>44616</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="34" t="n">
         <v>44617</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>297</v>
       </c>
@@ -7193,23 +7110,437 @@
       <c r="C25" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="34" t="n">
         <v>44630</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="34" t="n">
         <v>44629</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="34" t="n">
         <v>44629</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="34" t="n">
         <v>44628</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.76"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/docs/overview.xlsx
+++ b/docs/overview.xlsx
@@ -4,7 +4,7 @@
   <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="libraries" sheetId="1" state="visible" r:id="rId1"/>
@@ -501,6 +501,12 @@
     <t>outcome</t>
   </si>
   <si>
+    <t>onset</t>
+  </si>
+  <si>
+    <t>vaccine_status</t>
+  </si>
+  <si>
     <t>SCoV2_variant</t>
   </si>
   <si>
@@ -663,9 +669,6 @@
     <t>C19-CB-0914</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>BR3</t>
   </si>
   <si>
@@ -673,9 +676,6 @@
   </si>
   <si>
     <t>death</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>BR4</t>
@@ -1158,7 +1158,7 @@
       <sz val="11.000000"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1225,6 +1225,9 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1254,7 +1257,7 @@
       <protection hidden="0" locked="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1293,28 +1296,65 @@
       <alignment wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="3" fillId="3" borderId="0" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="3" fillId="3" borderId="0" numFmtId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="0">
+    <xf fontId="0" fillId="12" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyProtection="0">
+    <xf fontId="0" fillId="12" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="4" fillId="4" borderId="0" numFmtId="14" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="12" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="7" fillId="12" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="7" fillId="12" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="7" fillId="12" borderId="0" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="7" fillId="12" borderId="0" numFmtId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="7" fillId="12" borderId="0" numFmtId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="7" fillId="12" borderId="0" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="7" fillId="12" borderId="0" numFmtId="14" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="7" fillId="12" borderId="0" numFmtId="14" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="7" fillId="12" borderId="0" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="7" fillId="12" borderId="0" numFmtId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
@@ -3184,7 +3224,8 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A1" zoomScale="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3192,16 +3233,18 @@
   <cols>
     <col customWidth="1" min="2" max="3" style="0" width="12.880000000000001"/>
     <col bestFit="1" min="6" max="6" width="8.8515625"/>
-    <col bestFit="1" customWidth="1" min="7" max="7" style="0" width="13.140625"/>
-    <col customWidth="1" min="8" max="8" style="0" width="13.35"/>
-    <col customWidth="1" min="9" max="9" style="0" width="17.079999999999998"/>
-    <col customWidth="1" min="10" max="10" style="0" width="13.43"/>
-    <col customWidth="1" min="11" max="11" style="0" width="5.7300000000000004"/>
-    <col bestFit="1" customWidth="1" min="12" max="12" style="0" width="14.57421875"/>
-    <col customWidth="1" min="13" max="13" style="0" width="14.84"/>
-    <col customWidth="1" min="14" max="14" style="0" width="11.050000000000001"/>
-    <col customWidth="1" min="15" max="15" style="0" width="10.92"/>
-    <col customWidth="1" min="16" max="16" style="0" width="13.43"/>
+    <col bestFit="1" min="7" max="7" width="10.421875"/>
+    <col bestFit="1" min="8" max="8" width="13.28125"/>
+    <col bestFit="1" customWidth="1" min="9" max="9" style="0" width="13.140625"/>
+    <col customWidth="1" min="10" max="10" style="0" width="13.35"/>
+    <col customWidth="1" min="11" max="11" style="0" width="17.079999999999998"/>
+    <col customWidth="1" min="12" max="12" style="0" width="13.43"/>
+    <col customWidth="1" min="13" max="13" style="0" width="5.7300000000000004"/>
+    <col bestFit="1" customWidth="1" min="14" max="14" style="0" width="14.57421875"/>
+    <col customWidth="1" min="15" max="15" style="0" width="14.84"/>
+    <col customWidth="1" min="16" max="16" style="0" width="11.050000000000001"/>
+    <col customWidth="1" min="17" max="17" style="0" width="10.92"/>
+    <col customWidth="1" min="18" max="18" style="0" width="13.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -3223,55 +3266,66 @@
       <c r="F1" t="s">
         <v>159</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>162</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="14" t="s">
         <v>168</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
+      <c r="A2" s="13"/>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H2" s="12"/>
+        <v>173</v>
+      </c>
+      <c r="G2" s="15">
+        <v>43913</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
@@ -3280,16 +3334,20 @@
         <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" s="12"/>
+        <v>176</v>
+      </c>
+      <c r="G3" s="15">
+        <v>43916</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
@@ -3298,16 +3356,20 @@
         <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H4" s="12"/>
+        <v>173</v>
+      </c>
+      <c r="G4" s="15">
+        <v>43929</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
@@ -3316,16 +3378,20 @@
         <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
-      </c>
-      <c r="H5" s="12"/>
+        <v>176</v>
+      </c>
+      <c r="G5" s="15">
+        <v>43923</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
@@ -3334,16 +3400,20 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
-      </c>
-      <c r="H6" s="12"/>
+        <v>176</v>
+      </c>
+      <c r="G6" s="15">
+        <v>43913</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
@@ -3352,16 +3422,20 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H7" s="12"/>
+        <v>176</v>
+      </c>
+      <c r="G7" s="15">
+        <v>43934</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
@@ -3370,16 +3444,20 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H8" s="12"/>
+        <v>173</v>
+      </c>
+      <c r="G8" s="15">
+        <v>43925</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
@@ -3388,14 +3466,18 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
-      </c>
-      <c r="H9" s="12"/>
+        <v>176</v>
+      </c>
+      <c r="G9" s="15">
+        <v>43941</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>63</v>
@@ -3404,13 +3486,18 @@
         <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H10" s="12"/>
+        <v>173</v>
+      </c>
+      <c r="G10" s="15">
+        <v>43979</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" ht="14.25">
+      <c r="A11" s="13"/>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>43</v>
@@ -3419,13 +3506,18 @@
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
-      </c>
-      <c r="H11" s="12"/>
+        <v>176</v>
+      </c>
+      <c r="G11" s="15">
+        <v>44131</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" ht="14.25">
+      <c r="A12" s="13"/>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>43</v>
@@ -3434,13 +3526,18 @@
         <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
-      </c>
-      <c r="H12" s="12"/>
+        <v>176</v>
+      </c>
+      <c r="G12" s="15">
+        <v>44049</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" ht="14.25">
+      <c r="A13" s="18"/>
       <c r="B13" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>43</v>
@@ -3449,24 +3546,34 @@
         <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H13" s="12"/>
+        <v>176</v>
+      </c>
+      <c r="G13" s="15">
+        <v>43947</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" ht="14.25">
+      <c r="A14" s="18"/>
       <c r="B14" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="H14" s="12"/>
+      <c r="G14" s="15">
+        <v>44173</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" ht="14.25">
+      <c r="A15" s="18"/>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>43</v>
@@ -3475,16 +3582,20 @@
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
-      </c>
-      <c r="H15" s="12"/>
+        <v>176</v>
+      </c>
+      <c r="G15" s="15">
+        <v>44169</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>63</v>
@@ -3493,25 +3604,34 @@
         <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>174</v>
-      </c>
-      <c r="H16" s="12"/>
+        <v>176</v>
+      </c>
+      <c r="G16" s="15">
+        <v>44166</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="H17" s="12"/>
+      <c r="G17" s="15">
+        <v>44182</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" ht="14.25">
+      <c r="A18" s="18"/>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>43</v>
@@ -3520,13 +3640,18 @@
         <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>174</v>
-      </c>
-      <c r="H18" s="12"/>
+        <v>176</v>
+      </c>
+      <c r="G18" s="15">
+        <v>44177</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" ht="14.25">
+      <c r="A19" s="18"/>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>43</v>
@@ -3535,16 +3660,20 @@
         <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>171</v>
-      </c>
-      <c r="H19" s="12"/>
+        <v>173</v>
+      </c>
+      <c r="G19" s="15">
+        <v>44193</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>63</v>
@@ -3553,13 +3682,18 @@
         <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>174</v>
-      </c>
-      <c r="H20" s="12"/>
+        <v>176</v>
+      </c>
+      <c r="G20" s="15">
+        <v>44174</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" ht="14.25">
+      <c r="A21" s="13"/>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>43</v>
@@ -3568,438 +3702,598 @@
         <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>174</v>
-      </c>
-      <c r="H21" s="12"/>
+        <v>176</v>
+      </c>
+      <c r="G21" s="15">
+        <v>44189</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s">
-        <v>202</v>
-      </c>
-      <c r="C22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D22">
         <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>174</v>
-      </c>
-      <c r="H22" s="12"/>
+        <v>176</v>
+      </c>
+      <c r="G22" s="15">
+        <v>44164</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D23">
         <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>174</v>
-      </c>
-      <c r="H23" s="12"/>
+        <v>176</v>
+      </c>
+      <c r="G23" s="15">
+        <v>44165</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
     </row>
     <row r="24" ht="14.25">
+      <c r="A24" s="13"/>
       <c r="B24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D24">
         <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>174</v>
-      </c>
-      <c r="H24" s="12"/>
+        <v>176</v>
+      </c>
+      <c r="G24" s="15">
+        <v>44164</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="B25" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="22">
         <v>76</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H25" s="12"/>
+      <c r="E25" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="15">
+        <v>44165</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="16"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="B26" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="H26" s="12"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="16"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C27" s="13" t="s">
+      <c r="A27" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="H27" s="14">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" s="25">
+        <f>K27</f>
         <v>44544</v>
       </c>
-      <c r="I27" s="14">
+      <c r="H27" s="24"/>
+      <c r="I27" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" s="26">
         <v>44544</v>
       </c>
-      <c r="J27" s="14">
+      <c r="K27" s="26">
+        <v>44544</v>
+      </c>
+      <c r="L27" s="26">
         <v>44566</v>
       </c>
-      <c r="K27" s="13">
+      <c r="M27" s="24">
         <v>144</v>
       </c>
-      <c r="L27" s="14">
+      <c r="N27" s="26">
         <v>44557</v>
       </c>
-      <c r="M27" s="14">
+      <c r="O27" s="26">
         <v>44594</v>
       </c>
-      <c r="N27" s="14">
+      <c r="P27" s="26">
         <v>44567</v>
       </c>
-      <c r="O27" s="14">
+      <c r="Q27" s="26">
         <v>44588</v>
       </c>
-      <c r="P27" s="14">
+      <c r="R27" s="26">
         <v>44596</v>
       </c>
+      <c r="S27" s="22"/>
+      <c r="T27" s="16"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="28">
+        <f>K28</f>
+        <v>44547</v>
+      </c>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" s="29">
+        <v>44547</v>
+      </c>
+      <c r="K28" s="29">
+        <v>44547</v>
+      </c>
+      <c r="L28" s="29">
+        <v>44563</v>
+      </c>
+      <c r="M28" s="27">
+        <v>144</v>
+      </c>
+      <c r="N28" s="29">
+        <v>44547</v>
+      </c>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29">
+        <v>44564</v>
+      </c>
+      <c r="Q28" s="29">
+        <v>44616</v>
+      </c>
+      <c r="R28" s="27"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="16"/>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" s="25">
+        <f>K29</f>
+        <v>44564</v>
+      </c>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" s="31">
+        <v>44564</v>
+      </c>
+      <c r="K29" s="31">
+        <v>44564</v>
+      </c>
+      <c r="L29" s="31">
+        <v>44573</v>
+      </c>
+      <c r="M29" s="30">
+        <v>144</v>
+      </c>
+      <c r="N29" s="31">
+        <v>44570</v>
+      </c>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31">
+        <v>44573</v>
+      </c>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31">
+        <v>44584</v>
+      </c>
+      <c r="S29" s="22"/>
+      <c r="T29" s="16"/>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="G30" s="28">
+        <f>K30</f>
+        <v>44563</v>
+      </c>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="J30" s="31">
+        <v>44560</v>
+      </c>
+      <c r="K30" s="31">
+        <v>44563</v>
+      </c>
+      <c r="L30" s="31">
+        <v>44577</v>
+      </c>
+      <c r="M30" s="30">
+        <v>144</v>
+      </c>
+      <c r="N30" s="31">
+        <v>44563</v>
+      </c>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31">
+        <v>44563</v>
+      </c>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31">
+        <v>44616</v>
+      </c>
+      <c r="S30" s="22"/>
+      <c r="T30" s="16"/>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="G31" s="25">
+        <f>K31</f>
+        <v>44569</v>
+      </c>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="J31" s="26">
+        <v>44564</v>
+      </c>
+      <c r="K31" s="26">
+        <v>44569</v>
+      </c>
+      <c r="L31" s="26">
+        <v>44585</v>
+      </c>
+      <c r="M31" s="24">
+        <v>144</v>
+      </c>
+      <c r="N31" s="26">
+        <v>44569</v>
+      </c>
+      <c r="O31" s="26">
+        <v>44633</v>
+      </c>
+      <c r="P31" s="26">
+        <v>44585</v>
+      </c>
+      <c r="Q31" s="26">
+        <v>44630</v>
+      </c>
+      <c r="R31" s="26">
+        <v>44636</v>
+      </c>
+      <c r="S31" s="22"/>
+      <c r="T31" s="16"/>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H28" s="16">
-        <v>44547</v>
-      </c>
-      <c r="I28" s="16">
-        <v>44547</v>
-      </c>
-      <c r="J28" s="16">
-        <v>44563</v>
-      </c>
-      <c r="K28" s="15">
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="G32" s="28">
+        <f>K32</f>
+        <v>44576</v>
+      </c>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="31">
+        <v>44569</v>
+      </c>
+      <c r="K32" s="31">
+        <v>44576</v>
+      </c>
+      <c r="L32" s="31">
+        <v>44599</v>
+      </c>
+      <c r="M32" s="30">
         <v>144</v>
       </c>
-      <c r="L28" s="16">
-        <v>44547</v>
-      </c>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16">
-        <v>44564</v>
-      </c>
-      <c r="O28" s="16">
-        <v>44616</v>
-      </c>
-      <c r="P28" s="15"/>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C29" s="17" t="s">
+      <c r="N32" s="31">
+        <v>44578</v>
+      </c>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31">
+        <v>44599</v>
+      </c>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31">
+        <v>44621</v>
+      </c>
+      <c r="S32" s="22"/>
+      <c r="T32" s="16"/>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="H29" s="18">
-        <v>44564</v>
-      </c>
-      <c r="I29" s="18">
-        <v>44564</v>
-      </c>
-      <c r="J29" s="18">
-        <v>44573</v>
-      </c>
-      <c r="K29" s="17">
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G33" s="25">
+        <f>K33</f>
+        <v>44585</v>
+      </c>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="26">
+        <v>44585</v>
+      </c>
+      <c r="K33" s="26">
+        <v>44585</v>
+      </c>
+      <c r="L33" s="26">
+        <v>44597</v>
+      </c>
+      <c r="M33" s="24">
         <v>144</v>
       </c>
-      <c r="L29" s="18">
-        <v>44570</v>
-      </c>
-      <c r="M29" s="18" t="s">
+      <c r="N33" s="26">
+        <v>44585</v>
+      </c>
+      <c r="O33" s="26">
+        <v>44658</v>
+      </c>
+      <c r="P33" s="26">
+        <v>44597</v>
+      </c>
+      <c r="Q33" s="26">
+        <v>44653</v>
+      </c>
+      <c r="R33" s="24"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="16"/>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="N29" s="18">
-        <v>44573</v>
-      </c>
-      <c r="O29" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="P29" s="18">
-        <v>44584</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="A30" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="H30" s="18">
-        <v>44560</v>
-      </c>
-      <c r="I30" s="18">
-        <v>44563</v>
-      </c>
-      <c r="J30" s="18">
-        <v>44577</v>
-      </c>
-      <c r="K30" s="17">
+      <c r="G34" s="28">
+        <f>K34</f>
+        <v>44607</v>
+      </c>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="31">
+        <v>44607</v>
+      </c>
+      <c r="K34" s="31">
+        <v>44607</v>
+      </c>
+      <c r="L34" s="31">
+        <v>44612</v>
+      </c>
+      <c r="M34" s="30">
         <v>144</v>
       </c>
-      <c r="L30" s="18">
-        <v>44563</v>
-      </c>
-      <c r="M30" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="N30" s="18">
-        <v>44563</v>
-      </c>
-      <c r="O30" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="P30" s="18">
-        <v>44616</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25">
-      <c r="A31" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="H31" s="14">
-        <v>44564</v>
-      </c>
-      <c r="I31" s="14">
-        <v>44569</v>
-      </c>
-      <c r="J31" s="14">
-        <v>44585</v>
-      </c>
-      <c r="K31" s="13">
-        <v>144</v>
-      </c>
-      <c r="L31" s="14">
-        <v>44569</v>
-      </c>
-      <c r="M31" s="14">
-        <v>44633</v>
-      </c>
-      <c r="N31" s="14">
-        <v>44585</v>
-      </c>
-      <c r="O31" s="14">
-        <v>44630</v>
-      </c>
-      <c r="P31" s="14">
-        <v>44636</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="A32" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18">
-        <v>44569</v>
-      </c>
-      <c r="I32" s="18">
-        <v>44576</v>
-      </c>
-      <c r="J32" s="18">
-        <v>44599</v>
-      </c>
-      <c r="K32" s="17">
-        <v>144</v>
-      </c>
-      <c r="L32" s="18">
-        <v>44578</v>
-      </c>
-      <c r="M32" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="N32" s="18">
-        <v>44599</v>
-      </c>
-      <c r="O32" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="P32" s="18">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25">
-      <c r="A33" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14">
-        <v>44585</v>
-      </c>
-      <c r="I33" s="14">
-        <v>44585</v>
-      </c>
-      <c r="J33" s="14">
-        <v>44597</v>
-      </c>
-      <c r="K33" s="13">
-        <v>144</v>
-      </c>
-      <c r="L33" s="14">
-        <v>44585</v>
-      </c>
-      <c r="M33" s="14">
-        <v>44658</v>
-      </c>
-      <c r="N33" s="14">
-        <v>44597</v>
-      </c>
-      <c r="O33" s="14">
-        <v>44653</v>
-      </c>
-      <c r="P33" s="13"/>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="A34" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18">
-        <v>44607</v>
-      </c>
-      <c r="I34" s="18">
-        <v>44607</v>
-      </c>
-      <c r="J34" s="18">
-        <v>44612</v>
-      </c>
-      <c r="K34" s="17">
-        <v>144</v>
-      </c>
-      <c r="L34" s="18">
+      <c r="N34" s="31">
         <v>44608</v>
       </c>
-      <c r="M34" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="N34" s="18">
+      <c r="O34" s="31"/>
+      <c r="P34" s="31">
         <v>44613</v>
       </c>
-      <c r="O34" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="P34" s="18">
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31">
         <v>44641</v>
       </c>
+      <c r="S34" s="22"/>
+      <c r="T34" s="16"/>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="16"/>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -4033,8 +4327,7 @@
     <col customWidth="1" min="9" max="9" style="0" width="10.630000000000001"/>
     <col customWidth="1" min="10" max="10" style="0" width="8.4000000000000004"/>
     <col customWidth="1" min="11" max="11" style="0" width="7.2800000000000002"/>
-    <col bestFit="1" customWidth="1" min="12" max="12" style="0" width="10.421875"/>
-    <col customWidth="1" min="13" max="13" style="0" width="9.2400000000000002"/>
+    <col bestFit="1" customWidth="1" min="12" max="13" style="0" width="10.421875"/>
     <col customWidth="1" min="14" max="14" style="0" width="9.6500000000000004"/>
     <col customWidth="1" min="15" max="15" style="0" width="8.2599999999999998"/>
     <col customWidth="1" min="16" max="16" style="0" width="7.8499999999999996"/>
@@ -4162,7 +4455,7 @@
         <v>254</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G2" s="3">
         <v>14</v>
@@ -4172,13 +4465,14 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="20" t="b">
+      <c r="K2" s="32" t="b">
         <f t="shared" ref="K2:K10" si="6">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="14">
         <v>43927</v>
       </c>
+      <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -4198,7 +4492,7 @@
         <v>254</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G3" s="3">
         <v>14</v>
@@ -4212,13 +4506,14 @@
       <c r="J3" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="K3" s="20" t="b">
+      <c r="K3" s="32" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="14">
         <v>43930</v>
       </c>
+      <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -4238,7 +4533,7 @@
         <v>254</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G4" s="4">
         <v>7</v>
@@ -4256,9 +4551,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="14">
         <v>43936</v>
       </c>
+      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -4278,7 +4574,7 @@
         <v>254</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G5" s="4">
         <v>14</v>
@@ -4296,9 +4592,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="14">
         <v>43937</v>
       </c>
+      <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -4318,7 +4615,7 @@
         <v>254</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G6" s="4">
         <v>25</v>
@@ -4336,9 +4633,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="14">
         <v>43938</v>
       </c>
+      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -4358,7 +4656,7 @@
         <v>254</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G7" s="4">
         <v>7</v>
@@ -4376,7 +4674,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="14">
         <v>43941</v>
       </c>
       <c r="M7" s="1"/>
@@ -4399,7 +4697,7 @@
         <v>254</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G8" s="5">
         <v>25</v>
@@ -4417,7 +4715,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="14">
         <v>43950</v>
       </c>
       <c r="M8" s="1"/>
@@ -4440,7 +4738,7 @@
         <v>254</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G9" s="5">
         <v>10</v>
@@ -4458,7 +4756,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="14">
         <v>43951</v>
       </c>
       <c r="M9" s="1"/>
@@ -4480,8 +4778,8 @@
       <c r="E10" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>187</v>
+      <c r="F10" s="33" t="s">
+        <v>189</v>
       </c>
       <c r="G10" s="6">
         <v>12</v>
@@ -4499,7 +4797,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="14">
         <v>43991</v>
       </c>
       <c r="M10" s="1"/>
@@ -4522,7 +4820,7 @@
         <v>254</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7">
         <v>34</v>
@@ -4536,7 +4834,7 @@
         <f t="shared" ref="K11:K12" si="7">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="14">
         <v>44165</v>
       </c>
       <c r="M11" s="1"/>
@@ -4559,7 +4857,7 @@
         <v>254</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G12" s="7">
         <v>116</v>
@@ -4573,7 +4871,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="14">
         <v>44165</v>
       </c>
       <c r="M12" s="1"/>
@@ -4596,7 +4894,7 @@
         <v>254</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G13" s="7">
         <v>226</v>
@@ -4610,7 +4908,7 @@
         <f t="shared" ref="K13:K26" si="8">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="14">
         <v>44173</v>
       </c>
       <c r="M13" s="1"/>
@@ -4633,7 +4931,7 @@
         <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
@@ -4647,9 +4945,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L14" s="12">
-        <v>44173</v>
-      </c>
+      <c r="L14" s="14"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -4670,7 +4966,7 @@
         <v>254</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G15" s="7">
         <v>6</v>
@@ -4684,7 +4980,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="14">
         <v>44175</v>
       </c>
       <c r="M15" s="1"/>
@@ -4707,7 +5003,7 @@
         <v>254</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G16" s="8">
         <v>15</v>
@@ -4721,7 +5017,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="14">
         <v>44181</v>
       </c>
       <c r="M16" s="1"/>
@@ -4744,7 +5040,7 @@
         <v>254</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
@@ -4758,9 +5054,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L17" s="12">
-        <v>44182</v>
-      </c>
+      <c r="L17" s="14"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -4781,7 +5075,7 @@
         <v>254</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G18" s="8">
         <v>39</v>
@@ -4795,10 +5089,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="14">
         <v>44216</v>
       </c>
       <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
@@ -4817,7 +5112,7 @@
         <v>254</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G19" s="8">
         <v>23</v>
@@ -4831,10 +5126,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="14">
         <v>44216</v>
       </c>
       <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="8" t="s">
@@ -4851,7 +5148,7 @@
         <v>254</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G20" s="8">
         <v>43</v>
@@ -4865,10 +5162,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="14">
         <v>44217</v>
       </c>
       <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="8" t="s">
@@ -4885,7 +5184,7 @@
         <v>254</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G21" s="8">
         <v>28</v>
@@ -4899,10 +5198,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="14">
         <v>44217</v>
       </c>
       <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="8" t="s">
@@ -4919,7 +5220,7 @@
         <v>254</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G22" s="8">
         <v>54</v>
@@ -4933,10 +5234,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="14">
         <v>44218</v>
       </c>
       <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" s="8" t="s">
@@ -4953,7 +5256,7 @@
         <v>254</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G23" s="8">
         <v>53</v>
@@ -4967,10 +5270,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="14">
         <v>44218</v>
       </c>
       <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" s="8" t="s">
@@ -4987,7 +5292,7 @@
         <v>254</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G24" s="8">
         <v>54</v>
@@ -5001,10 +5306,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="14">
         <v>44218</v>
       </c>
       <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" s="8" t="s">
@@ -5021,7 +5328,7 @@
         <v>254</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G25" s="8">
         <v>65</v>
@@ -5035,10 +5342,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="14">
         <v>44230</v>
       </c>
       <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="14.25">
       <c r="A26" s="9" t="s">
@@ -5050,10 +5359,10 @@
       <c r="E26" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F26" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="G26" s="23"/>
+      <c r="F26" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" s="35"/>
       <c r="H26" s="9" t="s">
         <v>261</v>
       </c>
@@ -5063,9 +5372,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L26" s="12">
-        <v>44503</v>
-      </c>
+      <c r="L26" s="14"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" s="4" t="s">
@@ -5084,7 +5392,7 @@
         <v>254</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
@@ -5093,10 +5401,10 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="12">
+      <c r="L27" s="14">
         <v>44573</v>
       </c>
-      <c r="M27" s="24">
+      <c r="M27" s="36">
         <v>0.54166666666666696</v>
       </c>
       <c r="N27" s="1">
@@ -5161,7 +5469,7 @@
         <v>254</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
@@ -5170,10 +5478,10 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="12">
+      <c r="L28" s="14">
         <v>44574</v>
       </c>
-      <c r="M28" s="24">
+      <c r="M28" s="36">
         <v>0.59375</v>
       </c>
       <c r="N28" s="1">
@@ -5240,7 +5548,7 @@
         <v>254</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
@@ -5249,10 +5557,10 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="12">
+      <c r="L29" s="14">
         <v>44575</v>
       </c>
-      <c r="M29" s="24">
+      <c r="M29" s="36">
         <v>0.70833333333333304</v>
       </c>
       <c r="N29" s="1">
@@ -5326,10 +5634,10 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="12">
+      <c r="L30" s="14">
         <v>44581</v>
       </c>
-      <c r="M30" s="24">
+      <c r="M30" s="36">
         <v>0.60416666666666696</v>
       </c>
       <c r="N30" s="1">
@@ -5403,10 +5711,10 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="12">
+      <c r="L31" s="14">
         <v>44587</v>
       </c>
-      <c r="M31" s="24">
+      <c r="M31" s="36">
         <v>0.47916666666666702</v>
       </c>
       <c r="N31" s="1">
@@ -5463,7 +5771,7 @@
         <v>254</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
@@ -5472,10 +5780,10 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="12">
+      <c r="L32" s="14">
         <v>44587</v>
       </c>
-      <c r="M32" s="24">
+      <c r="M32" s="36">
         <v>0.52083333333333304</v>
       </c>
       <c r="N32" s="1">
@@ -5532,7 +5840,7 @@
         <v>254</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4" t="s">
@@ -5541,10 +5849,10 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="12">
+      <c r="L33" s="14">
         <v>44589</v>
       </c>
-      <c r="M33" s="24">
+      <c r="M33" s="36">
         <v>0.47916666666666702</v>
       </c>
       <c r="N33" s="1">
@@ -5618,10 +5926,10 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="12">
+      <c r="L34" s="14">
         <v>44595</v>
       </c>
-      <c r="M34" s="24">
+      <c r="M34" s="36">
         <v>0.55208333333333304</v>
       </c>
       <c r="N34" s="1">
@@ -5693,10 +6001,10 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="12">
+      <c r="L35" s="14">
         <v>44600</v>
       </c>
-      <c r="M35" s="24">
+      <c r="M35" s="36">
         <v>0.51041666666666696</v>
       </c>
       <c r="N35" s="1">
@@ -5770,10 +6078,10 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="12">
+      <c r="L36" s="14">
         <v>44600</v>
       </c>
-      <c r="M36" s="24">
+      <c r="M36" s="36">
         <v>0.53125</v>
       </c>
       <c r="N36" s="1">
@@ -5838,7 +6146,7 @@
         <v>254</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4" t="s">
@@ -5847,10 +6155,10 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="12">
+      <c r="L37" s="14">
         <v>44600</v>
       </c>
-      <c r="M37" s="24">
+      <c r="M37" s="36">
         <v>0.5625</v>
       </c>
       <c r="N37" s="1">
@@ -5924,10 +6232,10 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="12">
+      <c r="L38" s="14">
         <v>44608</v>
       </c>
-      <c r="M38" s="24">
+      <c r="M38" s="36">
         <v>0.55208333333333304</v>
       </c>
       <c r="N38" s="1">
@@ -5997,7 +6305,7 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="12">
+      <c r="L39" s="14">
         <v>44609</v>
       </c>
       <c r="M39" s="1"/>
@@ -6052,10 +6360,10 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="12">
+      <c r="L40" s="14">
         <v>44615</v>
       </c>
-      <c r="M40" s="24">
+      <c r="M40" s="36">
         <v>0.625</v>
       </c>
       <c r="N40" s="1">
@@ -6127,10 +6435,10 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="12">
+      <c r="L41" s="14">
         <v>44615</v>
       </c>
-      <c r="M41" s="24">
+      <c r="M41" s="36">
         <v>0.6875</v>
       </c>
       <c r="N41" s="1">
@@ -6202,10 +6510,10 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="12">
+      <c r="L42" s="14">
         <v>44616</v>
       </c>
-      <c r="M42" s="24">
+      <c r="M42" s="36">
         <v>0.52083333333333304</v>
       </c>
       <c r="N42" s="1">
@@ -6264,7 +6572,7 @@
         <v>254</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
@@ -6273,10 +6581,10 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="12">
+      <c r="L43" s="14">
         <v>44616</v>
       </c>
-      <c r="M43" s="24">
+      <c r="M43" s="36">
         <v>0.5625</v>
       </c>
       <c r="N43" s="1">
@@ -6348,10 +6656,10 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="12">
+      <c r="L44" s="14">
         <v>44622</v>
       </c>
-      <c r="M44" s="24">
+      <c r="M44" s="36">
         <v>0.52083333333333304</v>
       </c>
       <c r="N44" s="1">
@@ -6423,10 +6731,10 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="12">
+      <c r="L45" s="14">
         <v>44629</v>
       </c>
-      <c r="M45" s="24">
+      <c r="M45" s="36">
         <v>0.5</v>
       </c>
       <c r="N45" s="1">
@@ -6468,7 +6776,7 @@
       </c>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
-      <c r="AC45" s="24">
+      <c r="AC45" s="36">
         <v>0.77777777777777801</v>
       </c>
       <c r="AD45" s="1"/>
@@ -6500,10 +6808,10 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="12">
+      <c r="L46" s="14">
         <v>44629</v>
       </c>
-      <c r="M46" s="24">
+      <c r="M46" s="36">
         <v>0.53125</v>
       </c>
       <c r="N46" s="1">
@@ -6547,7 +6855,7 @@
       </c>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
-      <c r="AC46" s="24">
+      <c r="AC46" s="36">
         <v>0.77777777777777801</v>
       </c>
       <c r="AD46" s="1"/>
@@ -6579,10 +6887,10 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="12">
+      <c r="L47" s="14">
         <v>44637</v>
       </c>
-      <c r="M47" s="24">
+      <c r="M47" s="36">
         <v>0.52083333333333304</v>
       </c>
       <c r="N47" s="1">
@@ -6622,13 +6930,13 @@
       <c r="Z47" s="1">
         <v>0</v>
       </c>
-      <c r="AA47" s="24">
+      <c r="AA47" s="36">
         <v>0.56111111111111101</v>
       </c>
-      <c r="AB47" s="24">
+      <c r="AB47" s="36">
         <v>0.625</v>
       </c>
-      <c r="AC47" s="24">
+      <c r="AC47" s="36">
         <v>0.64375000000000004</v>
       </c>
       <c r="AD47" s="1"/>
@@ -6651,7 +6959,7 @@
         <v>254</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
@@ -6660,10 +6968,10 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="12">
+      <c r="L48" s="14">
         <v>44648</v>
       </c>
-      <c r="M48" s="24">
+      <c r="M48" s="36">
         <v>0.51041666666666696</v>
       </c>
       <c r="N48" s="1">
@@ -6733,10 +7041,10 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="12">
+      <c r="L49" s="14">
         <v>44651</v>
       </c>
-      <c r="M49" s="24">
+      <c r="M49" s="36">
         <v>0.5625</v>
       </c>
       <c r="N49" s="1">
@@ -6802,7 +7110,7 @@
       <c r="C1" t="s">
         <v>237</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>298</v>
       </c>
       <c r="E1" t="s">
@@ -6817,201 +7125,201 @@
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="37">
         <v>44568</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37">
         <v>44573</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="37">
         <v>44573</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="37">
         <v>44573</v>
       </c>
-      <c r="I3" s="12"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="37">
         <v>44585</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="37">
         <v>44587</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="37">
         <v>44587</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="37">
         <v>44588</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="38">
         <v>44574</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="38">
         <v>44574</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="38">
         <v>44574</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="38">
         <v>44573</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="38">
         <v>44587</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="38">
         <v>44589</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="38">
         <v>44589</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="38">
         <v>44588</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="38">
         <v>44601</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="38">
         <v>44600</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="38">
         <v>44600</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="38">
         <v>44601</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="38">
         <v>44614</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="38">
         <v>44616</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="38">
         <v>44616</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="38">
         <v>44617</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="38">
         <v>44645</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="38">
         <v>44648</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="38">
         <v>44648</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="38">
         <v>44650</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="37">
         <v>44575</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="37">
         <v>44575</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="37">
         <v>44575</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="37">
         <v>44578</v>
       </c>
     </row>
@@ -7025,16 +7333,16 @@
       <c r="C11" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="38">
         <v>44581</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="38">
         <v>44581</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="38">
         <v>44581</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="38">
         <v>44582</v>
       </c>
     </row>
@@ -7048,16 +7356,16 @@
       <c r="C12" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="38">
         <v>44594</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="38">
         <v>44595</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="38">
         <v>44595</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="38">
         <v>44596</v>
       </c>
     </row>
@@ -7071,16 +7379,16 @@
       <c r="C13" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="38">
         <v>44609</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="38">
         <v>44608</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="38">
         <v>44608</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="38">
         <v>44610</v>
       </c>
     </row>
@@ -7094,16 +7402,16 @@
       <c r="C14" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="37">
         <v>44585</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="37">
         <v>44587</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="37">
         <v>44587</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="37">
         <v>44588</v>
       </c>
     </row>
@@ -7117,16 +7425,16 @@
       <c r="C15" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="37">
         <v>44600</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="37">
         <v>44600</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="37">
         <v>44600</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="37">
         <v>44601</v>
       </c>
     </row>
@@ -7140,16 +7448,16 @@
       <c r="C16" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="37">
         <v>44615</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="37">
         <v>44615</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="37">
         <v>44615</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="37">
         <v>44617</v>
       </c>
     </row>
@@ -7163,16 +7471,16 @@
       <c r="C17" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="37">
         <v>44627</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="37">
         <v>44629</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="37">
         <v>44629</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="37">
         <v>44628</v>
       </c>
     </row>
@@ -7186,16 +7494,16 @@
       <c r="C18" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="38">
         <v>44601</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="38">
         <v>44600</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="38">
         <v>44600</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="38">
         <v>44601</v>
       </c>
     </row>
@@ -7209,16 +7517,16 @@
       <c r="C19" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="38">
         <v>44614</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="38">
         <v>44615</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="38">
         <v>44615</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="38">
         <v>44617</v>
       </c>
     </row>
@@ -7232,16 +7540,16 @@
       <c r="C20" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="37">
         <v>44610</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="37">
         <v>44609</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="37">
         <v>44609</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="37">
         <v>44610</v>
       </c>
     </row>
@@ -7255,16 +7563,16 @@
       <c r="C21" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="37">
         <v>44623</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="37">
         <v>44622</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="37">
         <v>44622</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="37">
         <v>44623</v>
       </c>
     </row>
@@ -7278,16 +7586,16 @@
       <c r="C22" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="37">
         <v>44638</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="37">
         <v>44637</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="37">
         <v>44637</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="37">
         <v>44636</v>
       </c>
     </row>
@@ -7301,16 +7609,16 @@
       <c r="C23" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="37">
         <v>44652</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="37">
         <v>44651</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="37">
         <v>44651</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="37">
         <v>44650</v>
       </c>
     </row>
@@ -7324,16 +7632,16 @@
       <c r="C24" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="38">
         <v>44616</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="38">
         <v>44616</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="38">
         <v>44616</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="38">
         <v>44617</v>
       </c>
     </row>
@@ -7347,16 +7655,16 @@
       <c r="C25" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="38">
         <v>44630</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="38">
         <v>44629</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="38">
         <v>44629</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="38">
         <v>44628</v>
       </c>
     </row>
